--- a/aspect-taxonomy.xlsx
+++ b/aspect-taxonomy.xlsx
@@ -856,7 +856,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>0.1</t>
+          <t>0.1.0</t>
         </is>
       </c>
       <c r="C12" t="inlineStr"/>
@@ -1739,19 +1739,19 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>aspect:AtmosphericTerms</t>
+          <t>aspect:EnviromentalCoditionTerms</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Atmospheric Terms</t>
+          <t>Enviromental Codition Terms</t>
         </is>
       </c>
       <c r="C28" t="inlineStr"/>
       <c r="D28" t="inlineStr"/>
       <c r="E28" t="inlineStr">
         <is>
-          <t>This is a category of variables, parameters, and constants associated with atmopshere.</t>
+          <t>This is a category of variables, parameters, and constants associated with enviromental coditions in which a wind power plant operates.</t>
         </is>
       </c>
       <c r="F28" t="inlineStr"/>
@@ -1832,7 +1832,7 @@
       </c>
       <c r="Q29" t="inlineStr">
         <is>
-          <t>aspect:AtmosphericTerms</t>
+          <t>aspect:EnviromentalCoditionTerms</t>
         </is>
       </c>
       <c r="R29" t="inlineStr">
@@ -1905,7 +1905,7 @@
       </c>
       <c r="Q30" t="inlineStr">
         <is>
-          <t>aspect:AtmosphericTerms</t>
+          <t>aspect:EnviromentalCoditionTerms</t>
         </is>
       </c>
       <c r="R30" t="inlineStr">
@@ -1966,7 +1966,7 @@
       </c>
       <c r="Q31" t="inlineStr">
         <is>
-          <t>aspect:AtmosphericTerms</t>
+          <t>aspect:EnviromentalCoditionTerms</t>
         </is>
       </c>
       <c r="R31" t="inlineStr">
@@ -2023,7 +2023,7 @@
       <c r="P32" t="inlineStr"/>
       <c r="Q32" t="inlineStr">
         <is>
-          <t>aspect:AtmosphericTerms</t>
+          <t>aspect:EnviromentalCoditionTerms</t>
         </is>
       </c>
       <c r="R32" t="inlineStr">
@@ -2080,7 +2080,7 @@
       <c r="P33" t="inlineStr"/>
       <c r="Q33" t="inlineStr">
         <is>
-          <t>aspect:AtmosphericTerms</t>
+          <t>aspect:EnviromentalCoditionTerms</t>
         </is>
       </c>
       <c r="R33" t="inlineStr">
@@ -2149,7 +2149,7 @@
       </c>
       <c r="Q34" t="inlineStr">
         <is>
-          <t>aspect:AtmosphericTerms</t>
+          <t>aspect:EnviromentalCoditionTerms</t>
         </is>
       </c>
       <c r="R34" t="inlineStr">
@@ -2218,7 +2218,7 @@
       </c>
       <c r="Q35" t="inlineStr">
         <is>
-          <t>aspect:AtmosphericTerms</t>
+          <t>aspect:EnviromentalCoditionTerms</t>
         </is>
       </c>
       <c r="R35" t="inlineStr">
@@ -2279,7 +2279,7 @@
       </c>
       <c r="Q36" t="inlineStr">
         <is>
-          <t>aspect:AtmosphericTerms</t>
+          <t>aspect:EnviromentalCoditionTerms</t>
         </is>
       </c>
       <c r="R36" t="inlineStr">
@@ -2344,7 +2344,7 @@
       </c>
       <c r="Q37" t="inlineStr">
         <is>
-          <t>aspect:AtmosphericTerms</t>
+          <t>aspect:EnviromentalCoditionTerms</t>
         </is>
       </c>
       <c r="R37" t="inlineStr">
@@ -2409,7 +2409,7 @@
       </c>
       <c r="Q38" t="inlineStr">
         <is>
-          <t>aspect:AtmosphericTerms</t>
+          <t>aspect:EnviromentalCoditionTerms</t>
         </is>
       </c>
       <c r="R38" t="inlineStr">
@@ -2470,7 +2470,7 @@
       <c r="P39" t="inlineStr"/>
       <c r="Q39" t="inlineStr">
         <is>
-          <t>aspect:AtmosphericTerms</t>
+          <t>aspect:EnviromentalCoditionTerms</t>
         </is>
       </c>
       <c r="R39" t="inlineStr">
@@ -2527,7 +2527,7 @@
       <c r="P40" t="inlineStr"/>
       <c r="Q40" t="inlineStr">
         <is>
-          <t>aspect:AtmosphericTerms</t>
+          <t>aspect:EnviromentalCoditionTerms</t>
         </is>
       </c>
       <c r="R40" t="inlineStr">
@@ -2584,7 +2584,7 @@
       <c r="P41" t="inlineStr"/>
       <c r="Q41" t="inlineStr">
         <is>
-          <t>aspect:AtmosphericTerms</t>
+          <t>aspect:EnviromentalCoditionTerms</t>
         </is>
       </c>
       <c r="R41" t="inlineStr">
@@ -2641,7 +2641,7 @@
       <c r="P42" t="inlineStr"/>
       <c r="Q42" t="inlineStr">
         <is>
-          <t>aspect:AtmosphericTerms</t>
+          <t>aspect:EnviromentalCoditionTerms</t>
         </is>
       </c>
       <c r="R42" t="inlineStr">
@@ -2698,7 +2698,7 @@
       <c r="P43" t="inlineStr"/>
       <c r="Q43" t="inlineStr">
         <is>
-          <t>aspect:AtmosphericTerms</t>
+          <t>aspect:EnviromentalCoditionTerms</t>
         </is>
       </c>
       <c r="R43" t="inlineStr">
@@ -2755,7 +2755,7 @@
       <c r="P44" t="inlineStr"/>
       <c r="Q44" t="inlineStr">
         <is>
-          <t>aspect:AtmosphericTerms</t>
+          <t>aspect:EnviromentalCoditionTerms</t>
         </is>
       </c>
       <c r="R44" t="inlineStr">
@@ -2812,7 +2812,7 @@
       <c r="P45" t="inlineStr"/>
       <c r="Q45" t="inlineStr">
         <is>
-          <t>aspect:AtmosphericTerms</t>
+          <t>aspect:EnviromentalCoditionTerms</t>
         </is>
       </c>
       <c r="R45" t="inlineStr">
@@ -2865,7 +2865,7 @@
       <c r="P46" t="inlineStr"/>
       <c r="Q46" t="inlineStr">
         <is>
-          <t>aspect:AtmosphericTerms</t>
+          <t>aspect:EnviromentalCoditionTerms</t>
         </is>
       </c>
       <c r="R46" t="inlineStr">

--- a/aspect-taxonomy.xlsx
+++ b/aspect-taxonomy.xlsx
@@ -1739,19 +1739,19 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>aspect:EnviromentalCoditionTerms</t>
+          <t>aspect:EnviromentalConditionTerms</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Enviromental Codition Terms</t>
+          <t>Enviromental Condition Terms</t>
         </is>
       </c>
       <c r="C28" t="inlineStr"/>
       <c r="D28" t="inlineStr"/>
       <c r="E28" t="inlineStr">
         <is>
-          <t>This is a category of variables, parameters, and constants associated with enviromental coditions in which a wind power plant operates.</t>
+          <t>This is a category of variables, parameters, and constants associated with enviromental conditions in which a wind power plant operates.</t>
         </is>
       </c>
       <c r="F28" t="inlineStr"/>
@@ -1832,7 +1832,7 @@
       </c>
       <c r="Q29" t="inlineStr">
         <is>
-          <t>aspect:EnviromentalCoditionTerms</t>
+          <t>aspect:EnviromentalConditionTerms</t>
         </is>
       </c>
       <c r="R29" t="inlineStr">
@@ -1905,7 +1905,7 @@
       </c>
       <c r="Q30" t="inlineStr">
         <is>
-          <t>aspect:EnviromentalCoditionTerms</t>
+          <t>aspect:EnviromentalConditionTerms</t>
         </is>
       </c>
       <c r="R30" t="inlineStr">
@@ -1966,7 +1966,7 @@
       </c>
       <c r="Q31" t="inlineStr">
         <is>
-          <t>aspect:EnviromentalCoditionTerms</t>
+          <t>aspect:EnviromentalConditionTerms</t>
         </is>
       </c>
       <c r="R31" t="inlineStr">
@@ -2023,7 +2023,7 @@
       <c r="P32" t="inlineStr"/>
       <c r="Q32" t="inlineStr">
         <is>
-          <t>aspect:EnviromentalCoditionTerms</t>
+          <t>aspect:EnviromentalConditionTerms</t>
         </is>
       </c>
       <c r="R32" t="inlineStr">
@@ -2080,7 +2080,7 @@
       <c r="P33" t="inlineStr"/>
       <c r="Q33" t="inlineStr">
         <is>
-          <t>aspect:EnviromentalCoditionTerms</t>
+          <t>aspect:EnviromentalConditionTerms</t>
         </is>
       </c>
       <c r="R33" t="inlineStr">
@@ -2149,7 +2149,7 @@
       </c>
       <c r="Q34" t="inlineStr">
         <is>
-          <t>aspect:EnviromentalCoditionTerms</t>
+          <t>aspect:EnviromentalConditionTerms</t>
         </is>
       </c>
       <c r="R34" t="inlineStr">
@@ -2218,7 +2218,7 @@
       </c>
       <c r="Q35" t="inlineStr">
         <is>
-          <t>aspect:EnviromentalCoditionTerms</t>
+          <t>aspect:EnviromentalConditionTerms</t>
         </is>
       </c>
       <c r="R35" t="inlineStr">
@@ -2279,7 +2279,7 @@
       </c>
       <c r="Q36" t="inlineStr">
         <is>
-          <t>aspect:EnviromentalCoditionTerms</t>
+          <t>aspect:EnviromentalConditionTerms</t>
         </is>
       </c>
       <c r="R36" t="inlineStr">
@@ -2344,7 +2344,7 @@
       </c>
       <c r="Q37" t="inlineStr">
         <is>
-          <t>aspect:EnviromentalCoditionTerms</t>
+          <t>aspect:EnviromentalConditionTerms</t>
         </is>
       </c>
       <c r="R37" t="inlineStr">
@@ -2409,7 +2409,7 @@
       </c>
       <c r="Q38" t="inlineStr">
         <is>
-          <t>aspect:EnviromentalCoditionTerms</t>
+          <t>aspect:EnviromentalConditionTerms</t>
         </is>
       </c>
       <c r="R38" t="inlineStr">
@@ -2470,7 +2470,7 @@
       <c r="P39" t="inlineStr"/>
       <c r="Q39" t="inlineStr">
         <is>
-          <t>aspect:EnviromentalCoditionTerms</t>
+          <t>aspect:EnviromentalConditionTerms</t>
         </is>
       </c>
       <c r="R39" t="inlineStr">
@@ -2527,7 +2527,7 @@
       <c r="P40" t="inlineStr"/>
       <c r="Q40" t="inlineStr">
         <is>
-          <t>aspect:EnviromentalCoditionTerms</t>
+          <t>aspect:EnviromentalConditionTerms</t>
         </is>
       </c>
       <c r="R40" t="inlineStr">
@@ -2584,7 +2584,7 @@
       <c r="P41" t="inlineStr"/>
       <c r="Q41" t="inlineStr">
         <is>
-          <t>aspect:EnviromentalCoditionTerms</t>
+          <t>aspect:EnviromentalConditionTerms</t>
         </is>
       </c>
       <c r="R41" t="inlineStr">
@@ -2641,7 +2641,7 @@
       <c r="P42" t="inlineStr"/>
       <c r="Q42" t="inlineStr">
         <is>
-          <t>aspect:EnviromentalCoditionTerms</t>
+          <t>aspect:EnviromentalConditionTerms</t>
         </is>
       </c>
       <c r="R42" t="inlineStr">
@@ -2698,7 +2698,7 @@
       <c r="P43" t="inlineStr"/>
       <c r="Q43" t="inlineStr">
         <is>
-          <t>aspect:EnviromentalCoditionTerms</t>
+          <t>aspect:EnviromentalConditionTerms</t>
         </is>
       </c>
       <c r="R43" t="inlineStr">
@@ -2755,7 +2755,7 @@
       <c r="P44" t="inlineStr"/>
       <c r="Q44" t="inlineStr">
         <is>
-          <t>aspect:EnviromentalCoditionTerms</t>
+          <t>aspect:EnviromentalConditionTerms</t>
         </is>
       </c>
       <c r="R44" t="inlineStr">
@@ -2812,7 +2812,7 @@
       <c r="P45" t="inlineStr"/>
       <c r="Q45" t="inlineStr">
         <is>
-          <t>aspect:EnviromentalCoditionTerms</t>
+          <t>aspect:EnviromentalConditionTerms</t>
         </is>
       </c>
       <c r="R45" t="inlineStr">
@@ -2865,7 +2865,7 @@
       <c r="P46" t="inlineStr"/>
       <c r="Q46" t="inlineStr">
         <is>
-          <t>aspect:EnviromentalCoditionTerms</t>
+          <t>aspect:EnviromentalConditionTerms</t>
         </is>
       </c>
       <c r="R46" t="inlineStr">

--- a/aspect-taxonomy.xlsx
+++ b/aspect-taxonomy.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AA165"/>
+  <dimension ref="A1:AA173"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -429,7 +429,7 @@
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>http://data.windenergy.dtu.dk/controlled-terminology/aspect/</t>
+          <t>http://purl.org/aspect/</t>
         </is>
       </c>
       <c r="C1" t="inlineStr"/>
@@ -471,7 +471,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>http://data.windenergy.dtu.dk/controlled-terminology/aspect/</t>
+          <t>http://purl.org/aspect/</t>
         </is>
       </c>
       <c r="D2" t="inlineStr"/>
@@ -2605,7 +2605,7 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>aspect:equivalent_reflectivity_factor</t>
+          <t>aspect:radar_reflectivity</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -2886,22 +2886,26 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>aspect:WindPowerPlantTerms</t>
+          <t>aspect:friction_velocity</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Wind Power Plant Terms</t>
+          <t>friction_velocity</t>
         </is>
       </c>
       <c r="C47" t="inlineStr"/>
       <c r="D47" t="inlineStr"/>
       <c r="E47" t="inlineStr">
         <is>
-          <t>This is a category of variables, parameters, and constants associated with wind power plants.</t>
-        </is>
-      </c>
-      <c r="F47" t="inlineStr"/>
+          <t>Number of particles measured by a disdrometer and classified by fall speed, diameter and time</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>Number of particles classified by fall speed, diameter and time</t>
+        </is>
+      </c>
       <c r="G47" t="inlineStr"/>
       <c r="H47" t="inlineStr"/>
       <c r="I47" t="inlineStr"/>
@@ -2912,8 +2916,16 @@
       <c r="N47" t="inlineStr"/>
       <c r="O47" t="inlineStr"/>
       <c r="P47" t="inlineStr"/>
-      <c r="Q47" t="inlineStr"/>
-      <c r="R47" t="inlineStr"/>
+      <c r="Q47" t="inlineStr">
+        <is>
+          <t>aspect:EnviromentalConditionTerms</t>
+        </is>
+      </c>
+      <c r="R47" t="inlineStr">
+        <is>
+          <t>https://orcid.org/0000-0002-9381-9693</t>
+        </is>
+      </c>
       <c r="S47" t="inlineStr"/>
       <c r="T47" t="inlineStr"/>
       <c r="U47" t="inlineStr"/>
@@ -2927,21 +2939,17 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>aspect:WindTurbineTerms</t>
+          <t>aspect:along_flow_wind_velocity</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Wind Turbine Terms</t>
+          <t>along_flow_wind_velocity</t>
         </is>
       </c>
       <c r="C48" t="inlineStr"/>
       <c r="D48" t="inlineStr"/>
-      <c r="E48" t="inlineStr">
-        <is>
-          <t>This is a category of variables, parameters, and constants associated with wind turbines.</t>
-        </is>
-      </c>
+      <c r="E48" t="inlineStr"/>
       <c r="F48" t="inlineStr"/>
       <c r="G48" t="inlineStr"/>
       <c r="H48" t="inlineStr"/>
@@ -2953,16 +2961,8 @@
       <c r="N48" t="inlineStr"/>
       <c r="O48" t="inlineStr"/>
       <c r="P48" t="inlineStr"/>
-      <c r="Q48" t="inlineStr">
-        <is>
-          <t>aspect:WindPowerPlantTerms</t>
-        </is>
-      </c>
-      <c r="R48" t="inlineStr">
-        <is>
-          <t>https://orcid.org/0000-0002-9381-9693</t>
-        </is>
-      </c>
+      <c r="Q48" t="inlineStr"/>
+      <c r="R48" t="inlineStr"/>
       <c r="S48" t="inlineStr"/>
       <c r="T48" t="inlineStr"/>
       <c r="U48" t="inlineStr"/>
@@ -2976,21 +2976,13 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>aspect:WindTurbineNacelleTerms</t>
-        </is>
-      </c>
-      <c r="B49" t="inlineStr">
-        <is>
-          <t>Wind Turbine Nacelle Terms</t>
-        </is>
-      </c>
+          <t>aspect:</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr"/>
       <c r="C49" t="inlineStr"/>
       <c r="D49" t="inlineStr"/>
-      <c r="E49" t="inlineStr">
-        <is>
-          <t>This is a category of variables, parameters, and constants associated with wind turbine nacelles.</t>
-        </is>
-      </c>
+      <c r="E49" t="inlineStr"/>
       <c r="F49" t="inlineStr"/>
       <c r="G49" t="inlineStr"/>
       <c r="H49" t="inlineStr"/>
@@ -3002,11 +2994,7 @@
       <c r="N49" t="inlineStr"/>
       <c r="O49" t="inlineStr"/>
       <c r="P49" t="inlineStr"/>
-      <c r="Q49" t="inlineStr">
-        <is>
-          <t>aspect:WindTurbineTerms</t>
-        </is>
-      </c>
+      <c r="Q49" t="inlineStr"/>
       <c r="R49" t="inlineStr"/>
       <c r="S49" t="inlineStr"/>
       <c r="T49" t="inlineStr"/>
@@ -3021,58 +3009,26 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>aspect:yaw_angle</t>
-        </is>
-      </c>
-      <c r="B50" t="inlineStr">
-        <is>
-          <t>yaw_angle</t>
-        </is>
-      </c>
+          <t>aspect:</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr"/>
       <c r="C50" t="inlineStr"/>
       <c r="D50" t="inlineStr"/>
-      <c r="E50" t="inlineStr">
-        <is>
-          <t>An angle of a wind turbine yaw bearing relative to the nominal true North</t>
-        </is>
-      </c>
-      <c r="F50" t="inlineStr">
-        <is>
-          <t>Yaw Angle</t>
-        </is>
-      </c>
-      <c r="G50" t="inlineStr">
-        <is>
-          <t>yaw</t>
-        </is>
-      </c>
+      <c r="E50" t="inlineStr"/>
+      <c r="F50" t="inlineStr"/>
+      <c r="G50" t="inlineStr"/>
       <c r="H50" t="inlineStr"/>
       <c r="I50" t="inlineStr"/>
-      <c r="J50" t="inlineStr">
-        <is>
-          <t>YwAng</t>
-        </is>
-      </c>
+      <c r="J50" t="inlineStr"/>
       <c r="K50" t="inlineStr"/>
       <c r="L50" t="inlineStr"/>
       <c r="M50" t="inlineStr"/>
-      <c r="N50" t="inlineStr">
-        <is>
-          <t>def</t>
-        </is>
-      </c>
+      <c r="N50" t="inlineStr"/>
       <c r="O50" t="inlineStr"/>
       <c r="P50" t="inlineStr"/>
-      <c r="Q50" t="inlineStr">
-        <is>
-          <t>aspect:WindTurbineNacelleTerms</t>
-        </is>
-      </c>
-      <c r="R50" t="inlineStr">
-        <is>
-          <t>https://orcid.org/0000-0002-9381-9693</t>
-        </is>
-      </c>
+      <c r="Q50" t="inlineStr"/>
+      <c r="R50" t="inlineStr"/>
       <c r="S50" t="inlineStr"/>
       <c r="T50" t="inlineStr"/>
       <c r="U50" t="inlineStr"/>
@@ -3086,26 +3042,14 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>aspect:main_shaft_bending_moment</t>
-        </is>
-      </c>
-      <c r="B51" t="inlineStr">
-        <is>
-          <t>main_shaft_bending_moment</t>
-        </is>
-      </c>
+          <t>aspect:</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr"/>
       <c r="C51" t="inlineStr"/>
       <c r="D51" t="inlineStr"/>
-      <c r="E51" t="inlineStr">
-        <is>
-          <t xml:space="preserve">A main shaft bending moment is the reaction induced in a wind turbine main shaft when an external force or moment is applied to the shaft, causing the shaft to bend. </t>
-        </is>
-      </c>
-      <c r="F51" t="inlineStr">
-        <is>
-          <t>Main Shaft Bending Moment</t>
-        </is>
-      </c>
+      <c r="E51" t="inlineStr"/>
+      <c r="F51" t="inlineStr"/>
       <c r="G51" t="inlineStr"/>
       <c r="H51" t="inlineStr"/>
       <c r="I51" t="inlineStr"/>
@@ -3113,27 +3057,11 @@
       <c r="K51" t="inlineStr"/>
       <c r="L51" t="inlineStr"/>
       <c r="M51" t="inlineStr"/>
-      <c r="N51" t="inlineStr">
-        <is>
-          <t>deg</t>
-        </is>
-      </c>
-      <c r="O51" t="inlineStr">
-        <is>
-          <t>rad</t>
-        </is>
-      </c>
+      <c r="N51" t="inlineStr"/>
+      <c r="O51" t="inlineStr"/>
       <c r="P51" t="inlineStr"/>
-      <c r="Q51" t="inlineStr">
-        <is>
-          <t>aspect:WindTurbineNacelleTerms</t>
-        </is>
-      </c>
-      <c r="R51" t="inlineStr">
-        <is>
-          <t>https://orcid.org/0000-0002-9381-9693</t>
-        </is>
-      </c>
+      <c r="Q51" t="inlineStr"/>
+      <c r="R51" t="inlineStr"/>
       <c r="S51" t="inlineStr"/>
       <c r="T51" t="inlineStr"/>
       <c r="U51" t="inlineStr"/>
@@ -3147,22 +3075,14 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>aspect:main_shaft_bending</t>
-        </is>
-      </c>
-      <c r="B52" t="inlineStr">
-        <is>
-          <t>main_shaft_bending</t>
-        </is>
-      </c>
+          <t>aspect:</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr"/>
       <c r="C52" t="inlineStr"/>
       <c r="D52" t="inlineStr"/>
       <c r="E52" t="inlineStr"/>
-      <c r="F52" t="inlineStr">
-        <is>
-          <t>Main Shaft Bending</t>
-        </is>
-      </c>
+      <c r="F52" t="inlineStr"/>
       <c r="G52" t="inlineStr"/>
       <c r="H52" t="inlineStr"/>
       <c r="I52" t="inlineStr"/>
@@ -3170,27 +3090,11 @@
       <c r="K52" t="inlineStr"/>
       <c r="L52" t="inlineStr"/>
       <c r="M52" t="inlineStr"/>
-      <c r="N52" t="inlineStr">
-        <is>
-          <t>deg</t>
-        </is>
-      </c>
-      <c r="O52" t="inlineStr">
-        <is>
-          <t>rad</t>
-        </is>
-      </c>
+      <c r="N52" t="inlineStr"/>
+      <c r="O52" t="inlineStr"/>
       <c r="P52" t="inlineStr"/>
-      <c r="Q52" t="inlineStr">
-        <is>
-          <t>aspect:WindTurbineNacelleTerms</t>
-        </is>
-      </c>
-      <c r="R52" t="inlineStr">
-        <is>
-          <t>https://orcid.org/0000-0002-9381-9693</t>
-        </is>
-      </c>
+      <c r="Q52" t="inlineStr"/>
+      <c r="R52" t="inlineStr"/>
       <c r="S52" t="inlineStr"/>
       <c r="T52" t="inlineStr"/>
       <c r="U52" t="inlineStr"/>
@@ -3204,22 +3108,14 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>aspect:main_shaft_torque</t>
-        </is>
-      </c>
-      <c r="B53" t="inlineStr">
-        <is>
-          <t>main_shaft_torque</t>
-        </is>
-      </c>
+          <t>aspect:</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr"/>
       <c r="C53" t="inlineStr"/>
       <c r="D53" t="inlineStr"/>
       <c r="E53" t="inlineStr"/>
-      <c r="F53" t="inlineStr">
-        <is>
-          <t>Main Shaft Torque</t>
-        </is>
-      </c>
+      <c r="F53" t="inlineStr"/>
       <c r="G53" t="inlineStr"/>
       <c r="H53" t="inlineStr"/>
       <c r="I53" t="inlineStr"/>
@@ -3227,27 +3123,11 @@
       <c r="K53" t="inlineStr"/>
       <c r="L53" t="inlineStr"/>
       <c r="M53" t="inlineStr"/>
-      <c r="N53" t="inlineStr">
-        <is>
-          <t>deg</t>
-        </is>
-      </c>
-      <c r="O53" t="inlineStr">
-        <is>
-          <t>rad</t>
-        </is>
-      </c>
+      <c r="N53" t="inlineStr"/>
+      <c r="O53" t="inlineStr"/>
       <c r="P53" t="inlineStr"/>
-      <c r="Q53" t="inlineStr">
-        <is>
-          <t>aspect:WindTurbineNacelleTerms</t>
-        </is>
-      </c>
-      <c r="R53" t="inlineStr">
-        <is>
-          <t>https://orcid.org/0000-0002-9381-9693</t>
-        </is>
-      </c>
+      <c r="Q53" t="inlineStr"/>
+      <c r="R53" t="inlineStr"/>
       <c r="S53" t="inlineStr"/>
       <c r="T53" t="inlineStr"/>
       <c r="U53" t="inlineStr"/>
@@ -3261,22 +3141,14 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>aspect:main_shaft_tilt_moment</t>
-        </is>
-      </c>
-      <c r="B54" t="inlineStr">
-        <is>
-          <t>main_shaft_tilt_moment</t>
-        </is>
-      </c>
+          <t>aspect:</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr"/>
       <c r="C54" t="inlineStr"/>
       <c r="D54" t="inlineStr"/>
       <c r="E54" t="inlineStr"/>
-      <c r="F54" t="inlineStr">
-        <is>
-          <t>Main Shaft Tilt Moment</t>
-        </is>
-      </c>
+      <c r="F54" t="inlineStr"/>
       <c r="G54" t="inlineStr"/>
       <c r="H54" t="inlineStr"/>
       <c r="I54" t="inlineStr"/>
@@ -3284,27 +3156,11 @@
       <c r="K54" t="inlineStr"/>
       <c r="L54" t="inlineStr"/>
       <c r="M54" t="inlineStr"/>
-      <c r="N54" t="inlineStr">
-        <is>
-          <t>deg</t>
-        </is>
-      </c>
-      <c r="O54" t="inlineStr">
-        <is>
-          <t>rad</t>
-        </is>
-      </c>
+      <c r="N54" t="inlineStr"/>
+      <c r="O54" t="inlineStr"/>
       <c r="P54" t="inlineStr"/>
-      <c r="Q54" t="inlineStr">
-        <is>
-          <t>aspect:WindTurbineNacelleTerms</t>
-        </is>
-      </c>
-      <c r="R54" t="inlineStr">
-        <is>
-          <t>https://orcid.org/0000-0002-9381-9693</t>
-        </is>
-      </c>
+      <c r="Q54" t="inlineStr"/>
+      <c r="R54" t="inlineStr"/>
       <c r="S54" t="inlineStr"/>
       <c r="T54" t="inlineStr"/>
       <c r="U54" t="inlineStr"/>
@@ -3318,22 +3174,22 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>aspect:main_shaft_yaw_moment</t>
+          <t>aspect:WindPowerPlantTerms</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>main_shaft_yaw_moment</t>
+          <t>Wind Power Plant Terms</t>
         </is>
       </c>
       <c r="C55" t="inlineStr"/>
       <c r="D55" t="inlineStr"/>
-      <c r="E55" t="inlineStr"/>
-      <c r="F55" t="inlineStr">
-        <is>
-          <t>Main Shaft Yaw Moment</t>
-        </is>
-      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>This is a category of variables, parameters, and constants associated with wind power plants.</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr"/>
       <c r="G55" t="inlineStr"/>
       <c r="H55" t="inlineStr"/>
       <c r="I55" t="inlineStr"/>
@@ -3341,27 +3197,11 @@
       <c r="K55" t="inlineStr"/>
       <c r="L55" t="inlineStr"/>
       <c r="M55" t="inlineStr"/>
-      <c r="N55" t="inlineStr">
-        <is>
-          <t>deg</t>
-        </is>
-      </c>
-      <c r="O55" t="inlineStr">
-        <is>
-          <t>rad</t>
-        </is>
-      </c>
+      <c r="N55" t="inlineStr"/>
+      <c r="O55" t="inlineStr"/>
       <c r="P55" t="inlineStr"/>
-      <c r="Q55" t="inlineStr">
-        <is>
-          <t>aspect:WindTurbineNacelleTerms</t>
-        </is>
-      </c>
-      <c r="R55" t="inlineStr">
-        <is>
-          <t>https://orcid.org/0000-0002-9381-9693</t>
-        </is>
-      </c>
+      <c r="Q55" t="inlineStr"/>
+      <c r="R55" t="inlineStr"/>
       <c r="S55" t="inlineStr"/>
       <c r="T55" t="inlineStr"/>
       <c r="U55" t="inlineStr"/>
@@ -3375,26 +3215,22 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>aspect:generator_speed</t>
+          <t>aspect:WindTurbineTerms</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>generator_speed</t>
+          <t>Wind Turbine Terms</t>
         </is>
       </c>
       <c r="C56" t="inlineStr"/>
       <c r="D56" t="inlineStr"/>
       <c r="E56" t="inlineStr">
         <is>
-          <t>A rotational speed of the wind turbine generator.</t>
-        </is>
-      </c>
-      <c r="F56" t="inlineStr">
-        <is>
-          <t>Generator Speed</t>
-        </is>
-      </c>
+          <t>This is a category of variables, parameters, and constants associated with wind turbines.</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr"/>
       <c r="G56" t="inlineStr"/>
       <c r="H56" t="inlineStr"/>
       <c r="I56" t="inlineStr"/>
@@ -3402,20 +3238,12 @@
       <c r="K56" t="inlineStr"/>
       <c r="L56" t="inlineStr"/>
       <c r="M56" t="inlineStr"/>
-      <c r="N56" t="inlineStr">
-        <is>
-          <t>deg</t>
-        </is>
-      </c>
-      <c r="O56" t="inlineStr">
-        <is>
-          <t>rad</t>
-        </is>
-      </c>
+      <c r="N56" t="inlineStr"/>
+      <c r="O56" t="inlineStr"/>
       <c r="P56" t="inlineStr"/>
       <c r="Q56" t="inlineStr">
         <is>
-          <t>aspect:WindTurbineNacelleTerms</t>
+          <t>aspect:WindPowerPlantTerms</t>
         </is>
       </c>
       <c r="R56" t="inlineStr">
@@ -3436,26 +3264,22 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>aspect:gearbox_displacement</t>
+          <t>aspect:WindTurbineNacelleTerms</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>gearbox_displacement</t>
+          <t>Wind Turbine Nacelle Terms</t>
         </is>
       </c>
       <c r="C57" t="inlineStr"/>
       <c r="D57" t="inlineStr"/>
       <c r="E57" t="inlineStr">
         <is>
-          <t>A load indeced displacement of gearbox resulting of gearbox–generator misalignment.</t>
-        </is>
-      </c>
-      <c r="F57" t="inlineStr">
-        <is>
-          <t>Gearbox Displacement</t>
-        </is>
-      </c>
+          <t>This is a category of variables, parameters, and constants associated with wind turbine nacelles.</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr"/>
       <c r="G57" t="inlineStr"/>
       <c r="H57" t="inlineStr"/>
       <c r="I57" t="inlineStr"/>
@@ -3463,27 +3287,15 @@
       <c r="K57" t="inlineStr"/>
       <c r="L57" t="inlineStr"/>
       <c r="M57" t="inlineStr"/>
-      <c r="N57" t="inlineStr">
-        <is>
-          <t>deg</t>
-        </is>
-      </c>
-      <c r="O57" t="inlineStr">
-        <is>
-          <t>rad</t>
-        </is>
-      </c>
+      <c r="N57" t="inlineStr"/>
+      <c r="O57" t="inlineStr"/>
       <c r="P57" t="inlineStr"/>
       <c r="Q57" t="inlineStr">
         <is>
-          <t>aspect:WindTurbineNacelleTerms</t>
-        </is>
-      </c>
-      <c r="R57" t="inlineStr">
-        <is>
-          <t>https://orcid.org/0000-0002-9381-9693</t>
-        </is>
-      </c>
+          <t>aspect:WindTurbineTerms</t>
+        </is>
+      </c>
+      <c r="R57" t="inlineStr"/>
       <c r="S57" t="inlineStr"/>
       <c r="T57" t="inlineStr"/>
       <c r="U57" t="inlineStr"/>
@@ -3497,30 +3309,46 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>aspect:GeneratorTerms</t>
+          <t>aspect:yaw_angle</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>Generator Terms</t>
+          <t>yaw_angle</t>
         </is>
       </c>
       <c r="C58" t="inlineStr"/>
       <c r="D58" t="inlineStr"/>
       <c r="E58" t="inlineStr">
         <is>
-          <t>This is a category of variables, parameters, and constants associated with wind turbine generators.</t>
-        </is>
-      </c>
-      <c r="F58" t="inlineStr"/>
-      <c r="G58" t="inlineStr"/>
+          <t>An angle of a wind turbine yaw bearing relative to the nominal true North</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>Yaw Angle</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>yaw</t>
+        </is>
+      </c>
       <c r="H58" t="inlineStr"/>
       <c r="I58" t="inlineStr"/>
-      <c r="J58" t="inlineStr"/>
+      <c r="J58" t="inlineStr">
+        <is>
+          <t>YwAng</t>
+        </is>
+      </c>
       <c r="K58" t="inlineStr"/>
       <c r="L58" t="inlineStr"/>
       <c r="M58" t="inlineStr"/>
-      <c r="N58" t="inlineStr"/>
+      <c r="N58" t="inlineStr">
+        <is>
+          <t>def</t>
+        </is>
+      </c>
       <c r="O58" t="inlineStr"/>
       <c r="P58" t="inlineStr"/>
       <c r="Q58" t="inlineStr">
@@ -3528,7 +3356,11 @@
           <t>aspect:WindTurbineNacelleTerms</t>
         </is>
       </c>
-      <c r="R58" t="inlineStr"/>
+      <c r="R58" t="inlineStr">
+        <is>
+          <t>https://orcid.org/0000-0002-9381-9693</t>
+        </is>
+      </c>
       <c r="S58" t="inlineStr"/>
       <c r="T58" t="inlineStr"/>
       <c r="U58" t="inlineStr"/>
@@ -3542,24 +3374,24 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>aspect:active_power</t>
+          <t>aspect:main_shaft_bending_moment</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>active_power</t>
+          <t>main_shaft_bending_moment</t>
         </is>
       </c>
       <c r="C59" t="inlineStr"/>
       <c r="D59" t="inlineStr"/>
       <c r="E59" t="inlineStr">
         <is>
-          <t>Active Power is the actual power which is really transferred from the wind turbine generator to the load such as transformer.</t>
+          <t xml:space="preserve">A main shaft bending moment is the reaction induced in a wind turbine main shaft when an external force or moment is applied to the shaft, causing the shaft to bend. </t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>Active Power</t>
+          <t>Main Shaft Bending Moment</t>
         </is>
       </c>
       <c r="G59" t="inlineStr"/>
@@ -3569,15 +3401,27 @@
       <c r="K59" t="inlineStr"/>
       <c r="L59" t="inlineStr"/>
       <c r="M59" t="inlineStr"/>
-      <c r="N59" t="inlineStr"/>
-      <c r="O59" t="inlineStr"/>
+      <c r="N59" t="inlineStr">
+        <is>
+          <t>deg</t>
+        </is>
+      </c>
+      <c r="O59" t="inlineStr">
+        <is>
+          <t>rad</t>
+        </is>
+      </c>
       <c r="P59" t="inlineStr"/>
       <c r="Q59" t="inlineStr">
         <is>
-          <t>aspect:GeneratorTerms</t>
-        </is>
-      </c>
-      <c r="R59" t="inlineStr"/>
+          <t>aspect:WindTurbineNacelleTerms</t>
+        </is>
+      </c>
+      <c r="R59" t="inlineStr">
+        <is>
+          <t>https://orcid.org/0000-0002-9381-9693</t>
+        </is>
+      </c>
       <c r="S59" t="inlineStr"/>
       <c r="T59" t="inlineStr"/>
       <c r="U59" t="inlineStr"/>
@@ -3591,24 +3435,20 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>aspect:reactive_power</t>
+          <t>aspect:main_shaft_bending</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>reactive_power</t>
+          <t>main_shaft_bending</t>
         </is>
       </c>
       <c r="C60" t="inlineStr"/>
       <c r="D60" t="inlineStr"/>
-      <c r="E60" t="inlineStr">
-        <is>
-          <t>The powers that continuously bounce back and forth between the wind turbine generator and load.</t>
-        </is>
-      </c>
+      <c r="E60" t="inlineStr"/>
       <c r="F60" t="inlineStr">
         <is>
-          <t>Reactive Power</t>
+          <t>Main Shaft Bending</t>
         </is>
       </c>
       <c r="G60" t="inlineStr"/>
@@ -3618,15 +3458,27 @@
       <c r="K60" t="inlineStr"/>
       <c r="L60" t="inlineStr"/>
       <c r="M60" t="inlineStr"/>
-      <c r="N60" t="inlineStr"/>
-      <c r="O60" t="inlineStr"/>
+      <c r="N60" t="inlineStr">
+        <is>
+          <t>deg</t>
+        </is>
+      </c>
+      <c r="O60" t="inlineStr">
+        <is>
+          <t>rad</t>
+        </is>
+      </c>
       <c r="P60" t="inlineStr"/>
       <c r="Q60" t="inlineStr">
         <is>
-          <t>aspect:GeneratorTerms</t>
-        </is>
-      </c>
-      <c r="R60" t="inlineStr"/>
+          <t>aspect:WindTurbineNacelleTerms</t>
+        </is>
+      </c>
+      <c r="R60" t="inlineStr">
+        <is>
+          <t>https://orcid.org/0000-0002-9381-9693</t>
+        </is>
+      </c>
       <c r="S60" t="inlineStr"/>
       <c r="T60" t="inlineStr"/>
       <c r="U60" t="inlineStr"/>
@@ -3640,24 +3492,20 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>aspect:apparent_power</t>
+          <t>aspect:main_shaft_torque</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>apparent_power</t>
+          <t>main_shaft_torque</t>
         </is>
       </c>
       <c r="C61" t="inlineStr"/>
       <c r="D61" t="inlineStr"/>
-      <c r="E61" t="inlineStr">
-        <is>
-          <t>The combination of reactive power and true power is called apparent power, and it is the product of a circuit’s voltage and current, without reference to phase angle.</t>
-        </is>
-      </c>
+      <c r="E61" t="inlineStr"/>
       <c r="F61" t="inlineStr">
         <is>
-          <t>Apparent Power</t>
+          <t>Main Shaft Torque</t>
         </is>
       </c>
       <c r="G61" t="inlineStr"/>
@@ -3667,15 +3515,27 @@
       <c r="K61" t="inlineStr"/>
       <c r="L61" t="inlineStr"/>
       <c r="M61" t="inlineStr"/>
-      <c r="N61" t="inlineStr"/>
-      <c r="O61" t="inlineStr"/>
+      <c r="N61" t="inlineStr">
+        <is>
+          <t>deg</t>
+        </is>
+      </c>
+      <c r="O61" t="inlineStr">
+        <is>
+          <t>rad</t>
+        </is>
+      </c>
       <c r="P61" t="inlineStr"/>
       <c r="Q61" t="inlineStr">
         <is>
-          <t>aspect:GeneratorTerms</t>
-        </is>
-      </c>
-      <c r="R61" t="inlineStr"/>
+          <t>aspect:WindTurbineNacelleTerms</t>
+        </is>
+      </c>
+      <c r="R61" t="inlineStr">
+        <is>
+          <t>https://orcid.org/0000-0002-9381-9693</t>
+        </is>
+      </c>
       <c r="S61" t="inlineStr"/>
       <c r="T61" t="inlineStr"/>
       <c r="U61" t="inlineStr"/>
@@ -3689,22 +3549,22 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>aspect:WindTurbineTowerTerms</t>
+          <t>aspect:main_shaft_tilt_moment</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>Wind Turbine Tower Terms</t>
+          <t>main_shaft_tilt_moment</t>
         </is>
       </c>
       <c r="C62" t="inlineStr"/>
       <c r="D62" t="inlineStr"/>
-      <c r="E62" t="inlineStr">
-        <is>
-          <t>This is a category of variables, parameters, and constants associated with wind turbine towers.</t>
-        </is>
-      </c>
-      <c r="F62" t="inlineStr"/>
+      <c r="E62" t="inlineStr"/>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>Main Shaft Tilt Moment</t>
+        </is>
+      </c>
       <c r="G62" t="inlineStr"/>
       <c r="H62" t="inlineStr"/>
       <c r="I62" t="inlineStr"/>
@@ -3712,15 +3572,27 @@
       <c r="K62" t="inlineStr"/>
       <c r="L62" t="inlineStr"/>
       <c r="M62" t="inlineStr"/>
-      <c r="N62" t="inlineStr"/>
-      <c r="O62" t="inlineStr"/>
+      <c r="N62" t="inlineStr">
+        <is>
+          <t>deg</t>
+        </is>
+      </c>
+      <c r="O62" t="inlineStr">
+        <is>
+          <t>rad</t>
+        </is>
+      </c>
       <c r="P62" t="inlineStr"/>
       <c r="Q62" t="inlineStr">
         <is>
-          <t>aspect:WindTurbineTerms</t>
-        </is>
-      </c>
-      <c r="R62" t="inlineStr"/>
+          <t>aspect:WindTurbineNacelleTerms</t>
+        </is>
+      </c>
+      <c r="R62" t="inlineStr">
+        <is>
+          <t>https://orcid.org/0000-0002-9381-9693</t>
+        </is>
+      </c>
       <c r="S62" t="inlineStr"/>
       <c r="T62" t="inlineStr"/>
       <c r="U62" t="inlineStr"/>
@@ -3734,24 +3606,20 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>aspect:tower_bending_moment</t>
+          <t>aspect:main_shaft_yaw_moment</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>tower_bending_moment</t>
+          <t>main_shaft_yaw_moment</t>
         </is>
       </c>
       <c r="C63" t="inlineStr"/>
       <c r="D63" t="inlineStr"/>
-      <c r="E63" t="inlineStr">
-        <is>
-          <t xml:space="preserve">A tower bending moment is the reaction induced in a wind turbine tower when an external force or moment is applied to the tower, causing the tower to bend. </t>
-        </is>
-      </c>
+      <c r="E63" t="inlineStr"/>
       <c r="F63" t="inlineStr">
         <is>
-          <t>Tower Bending Moment</t>
+          <t>Main Shaft Yaw Moment</t>
         </is>
       </c>
       <c r="G63" t="inlineStr"/>
@@ -3774,7 +3642,7 @@
       <c r="P63" t="inlineStr"/>
       <c r="Q63" t="inlineStr">
         <is>
-          <t>aspect:WindTurbineTowerTerms</t>
+          <t>aspect:WindTurbineNacelleTerms</t>
         </is>
       </c>
       <c r="R63" t="inlineStr">
@@ -3795,24 +3663,24 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>aspect:tower_torsion</t>
+          <t>aspect:generator_speed</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>tower_torsion</t>
+          <t>generator_speed</t>
         </is>
       </c>
       <c r="C64" t="inlineStr"/>
       <c r="D64" t="inlineStr"/>
       <c r="E64" t="inlineStr">
         <is>
-          <t>A tower torsion is the twisting of the wind turbine tower due to an applied torque to it.</t>
+          <t>A rotational speed of the wind turbine generator.</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>Tower Torsion</t>
+          <t>Generator Speed</t>
         </is>
       </c>
       <c r="G64" t="inlineStr"/>
@@ -3835,7 +3703,7 @@
       <c r="P64" t="inlineStr"/>
       <c r="Q64" t="inlineStr">
         <is>
-          <t>aspect:WindTurbineTowerTerms</t>
+          <t>aspect:WindTurbineNacelleTerms</t>
         </is>
       </c>
       <c r="R64" t="inlineStr">
@@ -3856,20 +3724,24 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>aspect:tower_bending</t>
+          <t>aspect:gearbox_displacement</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>tower_bending</t>
+          <t>gearbox_displacement</t>
         </is>
       </c>
       <c r="C65" t="inlineStr"/>
       <c r="D65" t="inlineStr"/>
-      <c r="E65" t="inlineStr"/>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>A load indeced displacement of gearbox resulting of gearbox–generator misalignment.</t>
+        </is>
+      </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>Tower Bending</t>
+          <t>Gearbox Displacement</t>
         </is>
       </c>
       <c r="G65" t="inlineStr"/>
@@ -3892,7 +3764,7 @@
       <c r="P65" t="inlineStr"/>
       <c r="Q65" t="inlineStr">
         <is>
-          <t>aspect:WindTurbineTowerTerms</t>
+          <t>aspect:WindTurbineNacelleTerms</t>
         </is>
       </c>
       <c r="R65" t="inlineStr">
@@ -3913,19 +3785,19 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>aspect:WindTurbineRotorTerms</t>
+          <t>aspect:GeneratorTerms</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>Wind Turbine Rotor Terms</t>
+          <t>Generator Terms</t>
         </is>
       </c>
       <c r="C66" t="inlineStr"/>
       <c r="D66" t="inlineStr"/>
       <c r="E66" t="inlineStr">
         <is>
-          <t>This is a category of variables, parameters, and constants associated with wind turbine rotors.</t>
+          <t>This is a category of variables, parameters, and constants associated with wind turbine generators.</t>
         </is>
       </c>
       <c r="F66" t="inlineStr"/>
@@ -3941,14 +3813,10 @@
       <c r="P66" t="inlineStr"/>
       <c r="Q66" t="inlineStr">
         <is>
-          <t>aspect:WindTurbineTerms</t>
-        </is>
-      </c>
-      <c r="R66" t="inlineStr">
-        <is>
-          <t>https://orcid.org/0000-0002-9381-9693</t>
-        </is>
-      </c>
+          <t>aspect:WindTurbineNacelleTerms</t>
+        </is>
+      </c>
+      <c r="R66" t="inlineStr"/>
       <c r="S66" t="inlineStr"/>
       <c r="T66" t="inlineStr"/>
       <c r="U66" t="inlineStr"/>
@@ -3962,54 +3830,42 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>aspect:rotor_status</t>
+          <t>aspect:active_power</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>rotor_status</t>
+          <t>active_power</t>
         </is>
       </c>
       <c r="C67" t="inlineStr"/>
       <c r="D67" t="inlineStr"/>
       <c r="E67" t="inlineStr">
         <is>
-          <t>Status of wind turbine rotor. Typically rotor is either idling (no wind scenario), being stopped or blocked, or it is rotating. Accordingly, rotor status signal takes one of those four values.</t>
+          <t>Active Power is the actual power which is really transferred from the wind turbine generator to the load such as transformer.</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>Rotor Status</t>
+          <t>Active Power</t>
         </is>
       </c>
       <c r="G67" t="inlineStr"/>
       <c r="H67" t="inlineStr"/>
       <c r="I67" t="inlineStr"/>
-      <c r="J67" t="inlineStr">
-        <is>
-          <t>RotSt</t>
-        </is>
-      </c>
+      <c r="J67" t="inlineStr"/>
       <c r="K67" t="inlineStr"/>
       <c r="L67" t="inlineStr"/>
       <c r="M67" t="inlineStr"/>
-      <c r="N67" t="inlineStr">
-        <is>
-          <t>def</t>
-        </is>
-      </c>
+      <c r="N67" t="inlineStr"/>
       <c r="O67" t="inlineStr"/>
       <c r="P67" t="inlineStr"/>
       <c r="Q67" t="inlineStr">
         <is>
-          <t>aspect:WindTurbineRotorTerms</t>
-        </is>
-      </c>
-      <c r="R67" t="inlineStr">
-        <is>
-          <t>https://orcid.org/0000-0002-9381-9693</t>
-        </is>
-      </c>
+          <t>aspect:GeneratorTerms</t>
+        </is>
+      </c>
+      <c r="R67" t="inlineStr"/>
       <c r="S67" t="inlineStr"/>
       <c r="T67" t="inlineStr"/>
       <c r="U67" t="inlineStr"/>
@@ -4023,24 +3879,24 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>aspect:rotor_speed</t>
+          <t>aspect:reactive_power</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>rotor_speed</t>
+          <t>reactive_power</t>
         </is>
       </c>
       <c r="C68" t="inlineStr"/>
       <c r="D68" t="inlineStr"/>
       <c r="E68" t="inlineStr">
         <is>
-          <t>A rotational speed of the wind turbine rotor.</t>
+          <t>The powers that continuously bounce back and forth between the wind turbine generator and load.</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>Rotor Speed</t>
+          <t>Reactive Power</t>
         </is>
       </c>
       <c r="G68" t="inlineStr"/>
@@ -4050,27 +3906,15 @@
       <c r="K68" t="inlineStr"/>
       <c r="L68" t="inlineStr"/>
       <c r="M68" t="inlineStr"/>
-      <c r="N68" t="inlineStr">
-        <is>
-          <t>deg</t>
-        </is>
-      </c>
-      <c r="O68" t="inlineStr">
-        <is>
-          <t>rad</t>
-        </is>
-      </c>
+      <c r="N68" t="inlineStr"/>
+      <c r="O68" t="inlineStr"/>
       <c r="P68" t="inlineStr"/>
       <c r="Q68" t="inlineStr">
         <is>
-          <t>aspect:WindTurbineRotorTerms</t>
-        </is>
-      </c>
-      <c r="R68" t="inlineStr">
-        <is>
-          <t>https://orcid.org/0000-0002-9381-9693</t>
-        </is>
-      </c>
+          <t>aspect:GeneratorTerms</t>
+        </is>
+      </c>
+      <c r="R68" t="inlineStr"/>
       <c r="S68" t="inlineStr"/>
       <c r="T68" t="inlineStr"/>
       <c r="U68" t="inlineStr"/>
@@ -4084,22 +3928,26 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>aspect:WindTurbineBladeTerms</t>
+          <t>aspect:apparent_power</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>Wind Turbine Blade Terms</t>
+          <t>apparent_power</t>
         </is>
       </c>
       <c r="C69" t="inlineStr"/>
       <c r="D69" t="inlineStr"/>
       <c r="E69" t="inlineStr">
         <is>
-          <t>This is a category of variables, parameters, and constants associated with wind turbine blades.</t>
-        </is>
-      </c>
-      <c r="F69" t="inlineStr"/>
+          <t>The combination of reactive power and true power is called apparent power, and it is the product of a circuit’s voltage and current, without reference to phase angle.</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>Apparent Power</t>
+        </is>
+      </c>
       <c r="G69" t="inlineStr"/>
       <c r="H69" t="inlineStr"/>
       <c r="I69" t="inlineStr"/>
@@ -4112,14 +3960,10 @@
       <c r="P69" t="inlineStr"/>
       <c r="Q69" t="inlineStr">
         <is>
-          <t>aspect:WindTurbineRotorTerms</t>
-        </is>
-      </c>
-      <c r="R69" t="inlineStr">
-        <is>
-          <t>https://orcid.org/0000-0002-9381-9693</t>
-        </is>
-      </c>
+          <t>aspect:GeneratorTerms</t>
+        </is>
+      </c>
+      <c r="R69" t="inlineStr"/>
       <c r="S69" t="inlineStr"/>
       <c r="T69" t="inlineStr"/>
       <c r="U69" t="inlineStr"/>
@@ -4133,58 +3977,38 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>aspect:pitch_angle</t>
+          <t>aspect:WindTurbineTowerTerms</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>pitch_angle</t>
+          <t>Wind Turbine Tower Terms</t>
         </is>
       </c>
       <c r="C70" t="inlineStr"/>
       <c r="D70" t="inlineStr"/>
       <c r="E70" t="inlineStr">
         <is>
-          <t>An angle of a single wind turbine blade or all bladed comprising wind turbine rotor in a moving air. In IEC 61400-25-2 this correspongs to the parameter BlPthAngVal (Pitch angle for blade as feedback from the pitch system).</t>
-        </is>
-      </c>
-      <c r="F70" t="inlineStr">
-        <is>
-          <t>Pitch Angle</t>
-        </is>
-      </c>
-      <c r="G70" t="inlineStr">
-        <is>
-          <t>pitch</t>
-        </is>
-      </c>
+          <t>This is a category of variables, parameters, and constants associated with wind turbine towers.</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr"/>
+      <c r="G70" t="inlineStr"/>
       <c r="H70" t="inlineStr"/>
       <c r="I70" t="inlineStr"/>
-      <c r="J70" t="inlineStr">
-        <is>
-          <t>BlPthAngVal</t>
-        </is>
-      </c>
+      <c r="J70" t="inlineStr"/>
       <c r="K70" t="inlineStr"/>
       <c r="L70" t="inlineStr"/>
       <c r="M70" t="inlineStr"/>
-      <c r="N70" t="inlineStr">
-        <is>
-          <t>deg</t>
-        </is>
-      </c>
+      <c r="N70" t="inlineStr"/>
       <c r="O70" t="inlineStr"/>
       <c r="P70" t="inlineStr"/>
       <c r="Q70" t="inlineStr">
         <is>
-          <t>aspect:WindTurbineBladeTerms</t>
-        </is>
-      </c>
-      <c r="R70" t="inlineStr">
-        <is>
-          <t>https://orcid.org/0000-0002-9381-9693</t>
-        </is>
-      </c>
+          <t>aspect:WindTurbineTerms</t>
+        </is>
+      </c>
+      <c r="R70" t="inlineStr"/>
       <c r="S70" t="inlineStr"/>
       <c r="T70" t="inlineStr"/>
       <c r="U70" t="inlineStr"/>
@@ -4198,31 +4022,27 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>aspect:angle_of_attack</t>
+          <t>aspect:tower_bending_moment</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>angle_of_attack</t>
+          <t>tower_bending_moment</t>
         </is>
       </c>
       <c r="C71" t="inlineStr"/>
       <c r="D71" t="inlineStr"/>
       <c r="E71" t="inlineStr">
         <is>
-          <t>The angle at which the blade is adjusted to the incoming wind.</t>
+          <t xml:space="preserve">A tower bending moment is the reaction induced in a wind turbine tower when an external force or moment is applied to the tower, causing the tower to bend. </t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>Angle Of Attack</t>
-        </is>
-      </c>
-      <c r="G71" t="inlineStr">
-        <is>
-          <t>AOA</t>
-        </is>
-      </c>
+          <t>Tower Bending Moment</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr"/>
       <c r="H71" t="inlineStr"/>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
@@ -4242,7 +4062,7 @@
       <c r="P71" t="inlineStr"/>
       <c r="Q71" t="inlineStr">
         <is>
-          <t>aspect:WindTurbineBladeTerms</t>
+          <t>aspect:WindTurbineTowerTerms</t>
         </is>
       </c>
       <c r="R71" t="inlineStr">
@@ -4263,60 +4083,52 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>aspect:Young_modulus</t>
+          <t>aspect:tower_torsion</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>Young_modulus</t>
+          <t>tower_torsion</t>
         </is>
       </c>
       <c r="C72" t="inlineStr"/>
       <c r="D72" t="inlineStr"/>
       <c r="E72" t="inlineStr">
         <is>
-          <t>Young’s modulus</t>
+          <t>A tower torsion is the twisting of the wind turbine tower due to an applied torque to it.</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>Young Modulus</t>
+          <t>Tower Torsion</t>
         </is>
       </c>
       <c r="G72" t="inlineStr"/>
-      <c r="H72" t="inlineStr">
-        <is>
-          <t>E</t>
-        </is>
-      </c>
+      <c r="H72" t="inlineStr"/>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
       <c r="K72" t="inlineStr"/>
       <c r="L72" t="inlineStr"/>
-      <c r="M72" t="inlineStr">
-        <is>
-          <t>modulus_of_elasticity, Y</t>
-        </is>
-      </c>
+      <c r="M72" t="inlineStr"/>
       <c r="N72" t="inlineStr">
         <is>
-          <t>GPa</t>
+          <t>deg</t>
         </is>
       </c>
       <c r="O72" t="inlineStr">
         <is>
-          <t>kN mm-2, ksi</t>
+          <t>rad</t>
         </is>
       </c>
       <c r="P72" t="inlineStr"/>
       <c r="Q72" t="inlineStr">
         <is>
-          <t>aspect:WindTurbineBladeTerms</t>
+          <t>aspect:WindTurbineTowerTerms</t>
         </is>
       </c>
       <c r="R72" t="inlineStr">
         <is>
-          <t>https://orcid.org/0000-0002-4573-1232</t>
+          <t>https://orcid.org/0000-0002-9381-9693</t>
         </is>
       </c>
       <c r="S72" t="inlineStr"/>
@@ -4332,24 +4144,20 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>aspect:bending_stiffness</t>
+          <t>aspect:tower_bending</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>bending_stiffness</t>
+          <t>tower_bending</t>
         </is>
       </c>
       <c r="C73" t="inlineStr"/>
       <c r="D73" t="inlineStr"/>
-      <c r="E73" t="inlineStr">
-        <is>
-          <t>Bending stiffness (modulus multiplied by moment of inertia)</t>
-        </is>
-      </c>
+      <c r="E73" t="inlineStr"/>
       <c r="F73" t="inlineStr">
         <is>
-          <t>Bending Stiffness</t>
+          <t>Tower Bending</t>
         </is>
       </c>
       <c r="G73" t="inlineStr"/>
@@ -4358,30 +4166,26 @@
       <c r="J73" t="inlineStr"/>
       <c r="K73" t="inlineStr"/>
       <c r="L73" t="inlineStr"/>
-      <c r="M73" t="inlineStr">
-        <is>
-          <t>EI</t>
-        </is>
-      </c>
+      <c r="M73" t="inlineStr"/>
       <c r="N73" t="inlineStr">
         <is>
-          <t>N m2</t>
+          <t>deg</t>
         </is>
       </c>
       <c r="O73" t="inlineStr">
         <is>
-          <t>lbf ft2</t>
+          <t>rad</t>
         </is>
       </c>
       <c r="P73" t="inlineStr"/>
       <c r="Q73" t="inlineStr">
         <is>
-          <t>aspect:WindTurbineBladeTerms</t>
+          <t>aspect:WindTurbineTowerTerms</t>
         </is>
       </c>
       <c r="R73" t="inlineStr">
         <is>
-          <t>https://orcid.org/0000-0002-4573-1232</t>
+          <t>https://orcid.org/0000-0002-9381-9693</t>
         </is>
       </c>
       <c r="S73" t="inlineStr"/>
@@ -4397,56 +4201,40 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>aspect:design_load</t>
+          <t>aspect:WindTurbineRotorTerms</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>design_load</t>
+          <t>Wind Turbine Rotor Terms</t>
         </is>
       </c>
       <c r="C74" t="inlineStr"/>
       <c r="D74" t="inlineStr"/>
       <c r="E74" t="inlineStr">
         <is>
-          <t>Design load</t>
-        </is>
-      </c>
-      <c r="F74" t="inlineStr">
-        <is>
-          <t>Design Load</t>
-        </is>
-      </c>
+          <t>This is a category of variables, parameters, and constants associated with wind turbine rotors.</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr"/>
       <c r="G74" t="inlineStr"/>
-      <c r="H74" t="inlineStr">
-        <is>
-          <t>Fd</t>
-        </is>
-      </c>
+      <c r="H74" t="inlineStr"/>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
       <c r="K74" t="inlineStr"/>
       <c r="L74" t="inlineStr"/>
       <c r="M74" t="inlineStr"/>
-      <c r="N74" t="inlineStr">
-        <is>
-          <t>N m</t>
-        </is>
-      </c>
-      <c r="O74" t="inlineStr">
-        <is>
-          <t>lbf ft</t>
-        </is>
-      </c>
+      <c r="N74" t="inlineStr"/>
+      <c r="O74" t="inlineStr"/>
       <c r="P74" t="inlineStr"/>
       <c r="Q74" t="inlineStr">
         <is>
-          <t>aspect:WindTurbineBladeTerms</t>
+          <t>aspect:WindTurbineTerms</t>
         </is>
       </c>
       <c r="R74" t="inlineStr">
         <is>
-          <t>https://orcid.org/0000-0002-4573-1232</t>
+          <t>https://orcid.org/0000-0002-9381-9693</t>
         </is>
       </c>
       <c r="S74" t="inlineStr"/>
@@ -4462,56 +4250,52 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>aspect:characteristic_load</t>
+          <t>aspect:rotor_status</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>characteristic_load</t>
+          <t>rotor_status</t>
         </is>
       </c>
       <c r="C75" t="inlineStr"/>
       <c r="D75" t="inlineStr"/>
       <c r="E75" t="inlineStr">
         <is>
-          <t>Characteristic load</t>
+          <t>Status of wind turbine rotor. Typically rotor is either idling (no wind scenario), being stopped or blocked, or it is rotating. Accordingly, rotor status signal takes one of those four values.</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>Characteristic Load</t>
+          <t>Rotor Status</t>
         </is>
       </c>
       <c r="G75" t="inlineStr"/>
-      <c r="H75" t="inlineStr">
-        <is>
-          <t>Fk</t>
-        </is>
-      </c>
+      <c r="H75" t="inlineStr"/>
       <c r="I75" t="inlineStr"/>
-      <c r="J75" t="inlineStr"/>
+      <c r="J75" t="inlineStr">
+        <is>
+          <t>RotSt</t>
+        </is>
+      </c>
       <c r="K75" t="inlineStr"/>
       <c r="L75" t="inlineStr"/>
       <c r="M75" t="inlineStr"/>
       <c r="N75" t="inlineStr">
         <is>
-          <t>N m</t>
-        </is>
-      </c>
-      <c r="O75" t="inlineStr">
-        <is>
-          <t>lbf ft</t>
-        </is>
-      </c>
+          <t>def</t>
+        </is>
+      </c>
+      <c r="O75" t="inlineStr"/>
       <c r="P75" t="inlineStr"/>
       <c r="Q75" t="inlineStr">
         <is>
-          <t>aspect:WindTurbineBladeTerms</t>
+          <t>aspect:WindTurbineRotorTerms</t>
         </is>
       </c>
       <c r="R75" t="inlineStr">
         <is>
-          <t>https://orcid.org/0000-0002-4573-1232</t>
+          <t>https://orcid.org/0000-0002-9381-9693</t>
         </is>
       </c>
       <c r="S75" t="inlineStr"/>
@@ -4527,32 +4311,28 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>aspect:static_bending_test_load</t>
+          <t>aspect:rotor_speed</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>static_bending_test_load</t>
+          <t>rotor_speed</t>
         </is>
       </c>
       <c r="C76" t="inlineStr"/>
       <c r="D76" t="inlineStr"/>
       <c r="E76" t="inlineStr">
         <is>
-          <t>Full scale blade static bending test load</t>
+          <t>A rotational speed of the wind turbine rotor.</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>Static Bending Test Load</t>
+          <t>Rotor Speed</t>
         </is>
       </c>
       <c r="G76" t="inlineStr"/>
-      <c r="H76" t="inlineStr">
-        <is>
-          <t>Ftest</t>
-        </is>
-      </c>
+      <c r="H76" t="inlineStr"/>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
       <c r="K76" t="inlineStr"/>
@@ -4560,23 +4340,23 @@
       <c r="M76" t="inlineStr"/>
       <c r="N76" t="inlineStr">
         <is>
-          <t>N m</t>
+          <t>deg</t>
         </is>
       </c>
       <c r="O76" t="inlineStr">
         <is>
-          <t>lbf ft</t>
+          <t>rad</t>
         </is>
       </c>
       <c r="P76" t="inlineStr"/>
       <c r="Q76" t="inlineStr">
         <is>
-          <t>aspect:WindTurbineBladeTerms</t>
+          <t>aspect:WindTurbineRotorTerms</t>
         </is>
       </c>
       <c r="R76" t="inlineStr">
         <is>
-          <t>https://orcid.org/0000-0002-4573-1232</t>
+          <t>https://orcid.org/0000-0002-9381-9693</t>
         </is>
       </c>
       <c r="S76" t="inlineStr"/>
@@ -4592,56 +4372,40 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>aspect:design_load_static</t>
+          <t>aspect:WindTurbineBladeTerms</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>design_load_static</t>
+          <t>Wind Turbine Blade Terms</t>
         </is>
       </c>
       <c r="C77" t="inlineStr"/>
       <c r="D77" t="inlineStr"/>
       <c r="E77" t="inlineStr">
         <is>
-          <t>Static design load</t>
-        </is>
-      </c>
-      <c r="F77" t="inlineStr">
-        <is>
-          <t>Design Load Static</t>
-        </is>
-      </c>
+          <t>This is a category of variables, parameters, and constants associated with wind turbine blades.</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr"/>
       <c r="G77" t="inlineStr"/>
       <c r="H77" t="inlineStr"/>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr">
-        <is>
-          <t>Fdu</t>
-        </is>
-      </c>
+      <c r="K77" t="inlineStr"/>
       <c r="L77" t="inlineStr"/>
       <c r="M77" t="inlineStr"/>
-      <c r="N77" t="inlineStr">
-        <is>
-          <t>N m</t>
-        </is>
-      </c>
-      <c r="O77" t="inlineStr">
-        <is>
-          <t>lbf ft</t>
-        </is>
-      </c>
+      <c r="N77" t="inlineStr"/>
+      <c r="O77" t="inlineStr"/>
       <c r="P77" t="inlineStr"/>
       <c r="Q77" t="inlineStr">
         <is>
-          <t>aspect:WindTurbineBladeTerms</t>
+          <t>aspect:WindTurbineRotorTerms</t>
         </is>
       </c>
       <c r="R77" t="inlineStr">
         <is>
-          <t>https://orcid.org/0000-0002-4573-1232</t>
+          <t>https://orcid.org/0000-0002-9381-9693</t>
         </is>
       </c>
       <c r="S77" t="inlineStr"/>
@@ -4657,55 +4421,47 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>aspect:design_load_fatigue</t>
+          <t>aspect:pitch_angle</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>design_load_fatigue</t>
+          <t>pitch_angle</t>
         </is>
       </c>
       <c r="C78" t="inlineStr"/>
       <c r="D78" t="inlineStr"/>
       <c r="E78" t="inlineStr">
         <is>
-          <t>Equivalent load whose associated fatigue damage is equal to the fatigue damage calculated from the design load spectrum; the equivalent load is dependent on the number of test load cycles.</t>
+          <t>An angle of a single wind turbine blade or all bladed comprising wind turbine rotor in a moving air. In IEC 61400-25-2 this correspongs to the parameter BlPthAngVal (Pitch angle for blade as feedback from the pitch system).</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>Design Load Fatigue</t>
-        </is>
-      </c>
-      <c r="G78" t="inlineStr"/>
-      <c r="H78" t="inlineStr">
-        <is>
-          <t>Fequivalent</t>
-        </is>
-      </c>
+          <t>Pitch Angle</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>pitch</t>
+        </is>
+      </c>
+      <c r="H78" t="inlineStr"/>
       <c r="I78" t="inlineStr"/>
-      <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr">
-        <is>
-          <t>Fdf</t>
-        </is>
-      </c>
+      <c r="J78" t="inlineStr">
+        <is>
+          <t>BlPthAngVal</t>
+        </is>
+      </c>
+      <c r="K78" t="inlineStr"/>
       <c r="L78" t="inlineStr"/>
-      <c r="M78" t="inlineStr">
-        <is>
-          <t>equivalent_design_load</t>
-        </is>
-      </c>
+      <c r="M78" t="inlineStr"/>
       <c r="N78" t="inlineStr">
         <is>
-          <t>N m</t>
-        </is>
-      </c>
-      <c r="O78" t="inlineStr">
-        <is>
-          <t>lbf ft</t>
-        </is>
-      </c>
+          <t>deg</t>
+        </is>
+      </c>
+      <c r="O78" t="inlineStr"/>
       <c r="P78" t="inlineStr"/>
       <c r="Q78" t="inlineStr">
         <is>
@@ -4714,7 +4470,7 @@
       </c>
       <c r="R78" t="inlineStr">
         <is>
-          <t>https://orcid.org/0000-0002-4573-1232</t>
+          <t>https://orcid.org/0000-0002-9381-9693</t>
         </is>
       </c>
       <c r="S78" t="inlineStr"/>
@@ -4730,49 +4486,45 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>aspect:shear_modulus</t>
+          <t>aspect:angle_of_attack</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>shear_modulus</t>
+          <t>angle_of_attack</t>
         </is>
       </c>
       <c r="C79" t="inlineStr"/>
       <c r="D79" t="inlineStr"/>
       <c r="E79" t="inlineStr">
         <is>
-          <t>Shear modulus</t>
+          <t>The angle at which the blade is adjusted to the incoming wind.</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>Shear Modulus</t>
-        </is>
-      </c>
-      <c r="G79" t="inlineStr"/>
-      <c r="H79" t="inlineStr">
-        <is>
-          <t>G</t>
-        </is>
-      </c>
+          <t>Angle Of Attack</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>AOA</t>
+        </is>
+      </c>
+      <c r="H79" t="inlineStr"/>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
       <c r="K79" t="inlineStr"/>
       <c r="L79" t="inlineStr"/>
-      <c r="M79" t="inlineStr">
-        <is>
-          <t>modulus_of_rigidity, S, mu</t>
-        </is>
-      </c>
+      <c r="M79" t="inlineStr"/>
       <c r="N79" t="inlineStr">
         <is>
-          <t>GPa</t>
+          <t>deg</t>
         </is>
       </c>
       <c r="O79" t="inlineStr">
         <is>
-          <t>kN mm-2, ksi</t>
+          <t>rad</t>
         </is>
       </c>
       <c r="P79" t="inlineStr"/>
@@ -4783,7 +4535,7 @@
       </c>
       <c r="R79" t="inlineStr">
         <is>
-          <t>https://orcid.org/0000-0002-4573-1232</t>
+          <t>https://orcid.org/0000-0002-9381-9693</t>
         </is>
       </c>
       <c r="S79" t="inlineStr"/>
@@ -4799,43 +4551,51 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>aspect:torsional_stiffness</t>
+          <t>aspect:Young_modulus</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>torsional_stiffness</t>
+          <t>Young_modulus</t>
         </is>
       </c>
       <c r="C80" t="inlineStr"/>
       <c r="D80" t="inlineStr"/>
       <c r="E80" t="inlineStr">
         <is>
-          <t>Torsional stiffness (modulus multiplied by moment of inertia)</t>
+          <t>Young’s modulus</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>Torsional Stiffness</t>
+          <t>Young Modulus</t>
         </is>
       </c>
       <c r="G80" t="inlineStr"/>
-      <c r="H80" t="inlineStr"/>
+      <c r="H80" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
       <c r="K80" t="inlineStr"/>
       <c r="L80" t="inlineStr"/>
       <c r="M80" t="inlineStr">
         <is>
-          <t>GJ</t>
+          <t>modulus_of_elasticity, Y</t>
         </is>
       </c>
       <c r="N80" t="inlineStr">
         <is>
-          <t>N m2 rad-1</t>
-        </is>
-      </c>
-      <c r="O80" t="inlineStr"/>
+          <t>GPa</t>
+        </is>
+      </c>
+      <c r="O80" t="inlineStr">
+        <is>
+          <t>kN mm-2, ksi</t>
+        </is>
+      </c>
       <c r="P80" t="inlineStr"/>
       <c r="Q80" t="inlineStr">
         <is>
@@ -4860,24 +4620,24 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>aspect:SN_curve_slope</t>
+          <t>aspect:bending_stiffness</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>SN_curve_slope</t>
+          <t>bending_stiffness</t>
         </is>
       </c>
       <c r="C81" t="inlineStr"/>
       <c r="D81" t="inlineStr"/>
       <c r="E81" t="inlineStr">
         <is>
-          <t>Slope parameter of an SN curve</t>
+          <t>Bending stiffness (modulus multiplied by moment of inertia)</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>Sn Curve Slope</t>
+          <t>Bending Stiffness</t>
         </is>
       </c>
       <c r="G81" t="inlineStr"/>
@@ -4888,11 +4648,19 @@
       <c r="L81" t="inlineStr"/>
       <c r="M81" t="inlineStr">
         <is>
-          <t>m</t>
-        </is>
-      </c>
-      <c r="N81" t="inlineStr"/>
-      <c r="O81" t="inlineStr"/>
+          <t>EI</t>
+        </is>
+      </c>
+      <c r="N81" t="inlineStr">
+        <is>
+          <t>N m2</t>
+        </is>
+      </c>
+      <c r="O81" t="inlineStr">
+        <is>
+          <t>lbf ft2</t>
+        </is>
+      </c>
       <c r="P81" t="inlineStr"/>
       <c r="Q81" t="inlineStr">
         <is>
@@ -4917,30 +4685,30 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>aspect:number_specimens</t>
+          <t>aspect:design_load</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>number_specimens</t>
+          <t>design_load</t>
         </is>
       </c>
       <c r="C82" t="inlineStr"/>
       <c r="D82" t="inlineStr"/>
       <c r="E82" t="inlineStr">
         <is>
-          <t>Number of specimen test results in the sample</t>
+          <t>Design load</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>Number Specimens</t>
+          <t>Design Load</t>
         </is>
       </c>
       <c r="G82" t="inlineStr"/>
       <c r="H82" t="inlineStr">
         <is>
-          <t>n</t>
+          <t>Fd</t>
         </is>
       </c>
       <c r="I82" t="inlineStr"/>
@@ -4948,8 +4716,16 @@
       <c r="K82" t="inlineStr"/>
       <c r="L82" t="inlineStr"/>
       <c r="M82" t="inlineStr"/>
-      <c r="N82" t="inlineStr"/>
-      <c r="O82" t="inlineStr"/>
+      <c r="N82" t="inlineStr">
+        <is>
+          <t>N m</t>
+        </is>
+      </c>
+      <c r="O82" t="inlineStr">
+        <is>
+          <t>lbf ft</t>
+        </is>
+      </c>
       <c r="P82" t="inlineStr"/>
       <c r="Q82" t="inlineStr">
         <is>
@@ -4974,43 +4750,47 @@
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>aspect:number_load_cycles</t>
+          <t>aspect:characteristic_load</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>number_load_cycles</t>
+          <t>characteristic_load</t>
         </is>
       </c>
       <c r="C83" t="inlineStr"/>
       <c r="D83" t="inlineStr"/>
       <c r="E83" t="inlineStr">
         <is>
-          <t>Number of load cycles</t>
+          <t>Characteristic load</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>Number Load Cycles</t>
+          <t>Characteristic Load</t>
         </is>
       </c>
       <c r="G83" t="inlineStr"/>
       <c r="H83" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>Fk</t>
         </is>
       </c>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
       <c r="K83" t="inlineStr"/>
       <c r="L83" t="inlineStr"/>
-      <c r="M83" t="inlineStr">
-        <is>
-          <t>cycle</t>
-        </is>
-      </c>
-      <c r="N83" t="inlineStr"/>
-      <c r="O83" t="inlineStr"/>
+      <c r="M83" t="inlineStr"/>
+      <c r="N83" t="inlineStr">
+        <is>
+          <t>N m</t>
+        </is>
+      </c>
+      <c r="O83" t="inlineStr">
+        <is>
+          <t>lbf ft</t>
+        </is>
+      </c>
       <c r="P83" t="inlineStr"/>
       <c r="Q83" t="inlineStr">
         <is>
@@ -5035,30 +4815,30 @@
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>aspect:annual_failure_probability</t>
+          <t>aspect:static_bending_test_load</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>annual_failure_probability</t>
+          <t>static_bending_test_load</t>
         </is>
       </c>
       <c r="C84" t="inlineStr"/>
       <c r="D84" t="inlineStr"/>
       <c r="E84" t="inlineStr">
         <is>
-          <t>Annual failure probability</t>
+          <t>Full scale blade static bending test load</t>
         </is>
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>Annual Failure Probability</t>
+          <t>Static Bending Test Load</t>
         </is>
       </c>
       <c r="G84" t="inlineStr"/>
       <c r="H84" t="inlineStr">
         <is>
-          <t>Pf</t>
+          <t>Ftest</t>
         </is>
       </c>
       <c r="I84" t="inlineStr"/>
@@ -5066,8 +4846,16 @@
       <c r="K84" t="inlineStr"/>
       <c r="L84" t="inlineStr"/>
       <c r="M84" t="inlineStr"/>
-      <c r="N84" t="inlineStr"/>
-      <c r="O84" t="inlineStr"/>
+      <c r="N84" t="inlineStr">
+        <is>
+          <t>N m</t>
+        </is>
+      </c>
+      <c r="O84" t="inlineStr">
+        <is>
+          <t>lbf ft</t>
+        </is>
+      </c>
       <c r="P84" t="inlineStr"/>
       <c r="Q84" t="inlineStr">
         <is>
@@ -5092,39 +4880,47 @@
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>aspect:pressure_side</t>
+          <t>aspect:design_load_static</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>pressure_side</t>
+          <t>design_load_static</t>
         </is>
       </c>
       <c r="C85" t="inlineStr"/>
       <c r="D85" t="inlineStr"/>
       <c r="E85" t="inlineStr">
         <is>
-          <t>Pressure side of the airfoil</t>
+          <t>Static design load</t>
         </is>
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>Pressure Side</t>
+          <t>Design Load Static</t>
         </is>
       </c>
       <c r="G85" t="inlineStr"/>
-      <c r="H85" t="inlineStr">
-        <is>
-          <t>PS</t>
-        </is>
-      </c>
+      <c r="H85" t="inlineStr"/>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
+      <c r="K85" t="inlineStr">
+        <is>
+          <t>Fdu</t>
+        </is>
+      </c>
       <c r="L85" t="inlineStr"/>
       <c r="M85" t="inlineStr"/>
-      <c r="N85" t="inlineStr"/>
-      <c r="O85" t="inlineStr"/>
+      <c r="N85" t="inlineStr">
+        <is>
+          <t>N m</t>
+        </is>
+      </c>
+      <c r="O85" t="inlineStr">
+        <is>
+          <t>lbf ft</t>
+        </is>
+      </c>
       <c r="P85" t="inlineStr"/>
       <c r="Q85" t="inlineStr">
         <is>
@@ -5149,39 +4945,55 @@
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>aspect:succion_side</t>
+          <t>aspect:design_load_fatigue</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>succion_side</t>
+          <t>design_load_fatigue</t>
         </is>
       </c>
       <c r="C86" t="inlineStr"/>
       <c r="D86" t="inlineStr"/>
       <c r="E86" t="inlineStr">
         <is>
-          <t>Succion side of the airfoil</t>
+          <t>Equivalent load whose associated fatigue damage is equal to the fatigue damage calculated from the design load spectrum; the equivalent load is dependent on the number of test load cycles.</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>Succion Side</t>
+          <t>Design Load Fatigue</t>
         </is>
       </c>
       <c r="G86" t="inlineStr"/>
       <c r="H86" t="inlineStr">
         <is>
-          <t>SS</t>
+          <t>Fequivalent</t>
         </is>
       </c>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
+      <c r="K86" t="inlineStr">
+        <is>
+          <t>Fdf</t>
+        </is>
+      </c>
       <c r="L86" t="inlineStr"/>
-      <c r="M86" t="inlineStr"/>
-      <c r="N86" t="inlineStr"/>
-      <c r="O86" t="inlineStr"/>
+      <c r="M86" t="inlineStr">
+        <is>
+          <t>equivalent_design_load</t>
+        </is>
+      </c>
+      <c r="N86" t="inlineStr">
+        <is>
+          <t>N m</t>
+        </is>
+      </c>
+      <c r="O86" t="inlineStr">
+        <is>
+          <t>lbf ft</t>
+        </is>
+      </c>
       <c r="P86" t="inlineStr"/>
       <c r="Q86" t="inlineStr">
         <is>
@@ -5206,43 +5018,51 @@
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>aspect:relative_humidity</t>
+          <t>aspect:shear_modulus</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>relative_humidity</t>
+          <t>shear_modulus</t>
         </is>
       </c>
       <c r="C87" t="inlineStr"/>
       <c r="D87" t="inlineStr"/>
       <c r="E87" t="inlineStr">
         <is>
-          <t>Relative humidity</t>
+          <t>Shear modulus</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>Relative Humidity</t>
+          <t>Shear Modulus</t>
         </is>
       </c>
       <c r="G87" t="inlineStr"/>
       <c r="H87" t="inlineStr">
         <is>
-          <t>RH</t>
+          <t>G</t>
         </is>
       </c>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
       <c r="K87" t="inlineStr"/>
       <c r="L87" t="inlineStr"/>
-      <c r="M87" t="inlineStr"/>
+      <c r="M87" t="inlineStr">
+        <is>
+          <t>modulus_of_rigidity, S, mu</t>
+        </is>
+      </c>
       <c r="N87" t="inlineStr">
         <is>
-          <t>air g kg-1</t>
-        </is>
-      </c>
-      <c r="O87" t="inlineStr"/>
+          <t>GPa</t>
+        </is>
+      </c>
+      <c r="O87" t="inlineStr">
+        <is>
+          <t>kN mm-2, ksi</t>
+        </is>
+      </c>
       <c r="P87" t="inlineStr"/>
       <c r="Q87" t="inlineStr">
         <is>
@@ -5267,24 +5087,24 @@
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>aspect:R_ratio</t>
+          <t>aspect:torsional_stiffness</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>R_ratio</t>
+          <t>torsional_stiffness</t>
         </is>
       </c>
       <c r="C88" t="inlineStr"/>
       <c r="D88" t="inlineStr"/>
       <c r="E88" t="inlineStr">
         <is>
-          <t>In fatigue loading: ratio between minimum and maximum stress (or strain, or load)</t>
+          <t>Torsional stiffness (modulus multiplied by moment of inertia)</t>
         </is>
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>R Ratio</t>
+          <t>Torsional Stiffness</t>
         </is>
       </c>
       <c r="G88" t="inlineStr"/>
@@ -5295,10 +5115,14 @@
       <c r="L88" t="inlineStr"/>
       <c r="M88" t="inlineStr">
         <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="N88" t="inlineStr"/>
+          <t>GJ</t>
+        </is>
+      </c>
+      <c r="N88" t="inlineStr">
+        <is>
+          <t>N m2 rad-1</t>
+        </is>
+      </c>
       <c r="O88" t="inlineStr"/>
       <c r="P88" t="inlineStr"/>
       <c r="Q88" t="inlineStr">
@@ -5324,47 +5148,39 @@
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>aspect:design_value_material_property_strain</t>
+          <t>aspect:SN_curve_slope</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>design_value_material_property_strain</t>
+          <t>SN_curve_slope</t>
         </is>
       </c>
       <c r="C89" t="inlineStr"/>
       <c r="D89" t="inlineStr"/>
       <c r="E89" t="inlineStr">
         <is>
-          <t>Strain related design value for a material property (not yet reduced by any g)</t>
+          <t>Slope parameter of an SN curve</t>
         </is>
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>Design Value Material Property Strain</t>
+          <t>Sn Curve Slope</t>
         </is>
       </c>
       <c r="G89" t="inlineStr"/>
-      <c r="H89" t="inlineStr">
-        <is>
-          <t>Rd</t>
-        </is>
-      </c>
+      <c r="H89" t="inlineStr"/>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
       <c r="K89" t="inlineStr"/>
       <c r="L89" t="inlineStr"/>
-      <c r="M89" t="inlineStr"/>
-      <c r="N89" t="inlineStr">
-        <is>
-          <t>mepsilon</t>
-        </is>
-      </c>
-      <c r="O89" t="inlineStr">
-        <is>
-          <t>mm mm-1, in in-1</t>
-        </is>
-      </c>
+      <c r="M89" t="inlineStr">
+        <is>
+          <t>m</t>
+        </is>
+      </c>
+      <c r="N89" t="inlineStr"/>
+      <c r="O89" t="inlineStr"/>
       <c r="P89" t="inlineStr"/>
       <c r="Q89" t="inlineStr">
         <is>
@@ -5389,30 +5205,30 @@
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>aspect:characteristic_value_material_property_strain</t>
+          <t>aspect:number_specimens</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>characteristic_value_material_property_strain</t>
+          <t>number_specimens</t>
         </is>
       </c>
       <c r="C90" t="inlineStr"/>
       <c r="D90" t="inlineStr"/>
       <c r="E90" t="inlineStr">
         <is>
-          <t>Strain related characteristic value of a material property</t>
+          <t>Number of specimen test results in the sample</t>
         </is>
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>Characteristic Value Material Property Strain</t>
+          <t>Number Specimens</t>
         </is>
       </c>
       <c r="G90" t="inlineStr"/>
       <c r="H90" t="inlineStr">
         <is>
-          <t>Rk</t>
+          <t>n</t>
         </is>
       </c>
       <c r="I90" t="inlineStr"/>
@@ -5420,16 +5236,8 @@
       <c r="K90" t="inlineStr"/>
       <c r="L90" t="inlineStr"/>
       <c r="M90" t="inlineStr"/>
-      <c r="N90" t="inlineStr">
-        <is>
-          <t>mepsilon</t>
-        </is>
-      </c>
-      <c r="O90" t="inlineStr">
-        <is>
-          <t>mm mm-1, in in-1</t>
-        </is>
-      </c>
+      <c r="N90" t="inlineStr"/>
+      <c r="O90" t="inlineStr"/>
       <c r="P90" t="inlineStr"/>
       <c r="Q90" t="inlineStr">
         <is>
@@ -5454,47 +5262,43 @@
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>aspect:amplitude_characteristic_value_material_property_strain</t>
+          <t>aspect:number_load_cycles</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>amplitude_characteristic_value_material_property_strain</t>
+          <t>number_load_cycles</t>
         </is>
       </c>
       <c r="C91" t="inlineStr"/>
       <c r="D91" t="inlineStr"/>
       <c r="E91" t="inlineStr">
         <is>
-          <t>Strain related amplitude of characteristic structural member resistance for N = 1</t>
+          <t>Number of load cycles</t>
         </is>
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>Amplitude Characteristic Value Material Property Strain</t>
+          <t>Number Load Cycles</t>
         </is>
       </c>
       <c r="G91" t="inlineStr"/>
       <c r="H91" t="inlineStr">
         <is>
-          <t>RkA</t>
+          <t>N</t>
         </is>
       </c>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
       <c r="K91" t="inlineStr"/>
       <c r="L91" t="inlineStr"/>
-      <c r="M91" t="inlineStr"/>
-      <c r="N91" t="inlineStr">
-        <is>
-          <t>mepsilon</t>
-        </is>
-      </c>
-      <c r="O91" t="inlineStr">
-        <is>
-          <t>mm mm-1, in in-1</t>
-        </is>
-      </c>
+      <c r="M91" t="inlineStr">
+        <is>
+          <t>cycle</t>
+        </is>
+      </c>
+      <c r="N91" t="inlineStr"/>
+      <c r="O91" t="inlineStr"/>
       <c r="P91" t="inlineStr"/>
       <c r="Q91" t="inlineStr">
         <is>
@@ -5519,30 +5323,30 @@
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>aspect:characteristic_value_material_property_tension_strain</t>
+          <t>aspect:annual_failure_probability</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>characteristic_value_material_property_tension_strain</t>
+          <t>annual_failure_probability</t>
         </is>
       </c>
       <c r="C92" t="inlineStr"/>
       <c r="D92" t="inlineStr"/>
       <c r="E92" t="inlineStr">
         <is>
-          <t>Strain related characteristic short term structural member resistance in tension</t>
+          <t>Annual failure probability</t>
         </is>
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>Characteristic Value Material Property Tension Strain</t>
+          <t>Annual Failure Probability</t>
         </is>
       </c>
       <c r="G92" t="inlineStr"/>
       <c r="H92" t="inlineStr">
         <is>
-          <t>Rkt</t>
+          <t>Pf</t>
         </is>
       </c>
       <c r="I92" t="inlineStr"/>
@@ -5550,16 +5354,8 @@
       <c r="K92" t="inlineStr"/>
       <c r="L92" t="inlineStr"/>
       <c r="M92" t="inlineStr"/>
-      <c r="N92" t="inlineStr">
-        <is>
-          <t>mepsilon</t>
-        </is>
-      </c>
-      <c r="O92" t="inlineStr">
-        <is>
-          <t>mm mm-1, in in-1</t>
-        </is>
-      </c>
+      <c r="N92" t="inlineStr"/>
+      <c r="O92" t="inlineStr"/>
       <c r="P92" t="inlineStr"/>
       <c r="Q92" t="inlineStr">
         <is>
@@ -5584,30 +5380,30 @@
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>aspect:characteristic_value_material_property_compression_strain</t>
+          <t>aspect:pressure_side</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>characteristic_value_material_property_compression_strain</t>
+          <t>pressure_side</t>
         </is>
       </c>
       <c r="C93" t="inlineStr"/>
       <c r="D93" t="inlineStr"/>
       <c r="E93" t="inlineStr">
         <is>
-          <t>Strain related characteristic short term structural member resistance in compression</t>
+          <t>Pressure side of the airfoil</t>
         </is>
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>Characteristic Value Material Property Compression Strain</t>
+          <t>Pressure Side</t>
         </is>
       </c>
       <c r="G93" t="inlineStr"/>
       <c r="H93" t="inlineStr">
         <is>
-          <t>Rkc</t>
+          <t>PS</t>
         </is>
       </c>
       <c r="I93" t="inlineStr"/>
@@ -5615,16 +5411,8 @@
       <c r="K93" t="inlineStr"/>
       <c r="L93" t="inlineStr"/>
       <c r="M93" t="inlineStr"/>
-      <c r="N93" t="inlineStr">
-        <is>
-          <t>mepsilon</t>
-        </is>
-      </c>
-      <c r="O93" t="inlineStr">
-        <is>
-          <t>mm mm-1, in in-1</t>
-        </is>
-      </c>
+      <c r="N93" t="inlineStr"/>
+      <c r="O93" t="inlineStr"/>
       <c r="P93" t="inlineStr"/>
       <c r="Q93" t="inlineStr">
         <is>
@@ -5649,30 +5437,30 @@
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>aspect:design_value_material_property_stress</t>
+          <t>aspect:succion_side</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>design_value_material_property_stress</t>
+          <t>succion_side</t>
         </is>
       </c>
       <c r="C94" t="inlineStr"/>
       <c r="D94" t="inlineStr"/>
       <c r="E94" t="inlineStr">
         <is>
-          <t>Stress related design value for a material property (not yet reduced by any g)</t>
+          <t>Succion side of the airfoil</t>
         </is>
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>Design Value Material Property Stress</t>
+          <t>Succion Side</t>
         </is>
       </c>
       <c r="G94" t="inlineStr"/>
       <c r="H94" t="inlineStr">
         <is>
-          <t>Rd</t>
+          <t>SS</t>
         </is>
       </c>
       <c r="I94" t="inlineStr"/>
@@ -5680,16 +5468,8 @@
       <c r="K94" t="inlineStr"/>
       <c r="L94" t="inlineStr"/>
       <c r="M94" t="inlineStr"/>
-      <c r="N94" t="inlineStr">
-        <is>
-          <t>MPa</t>
-        </is>
-      </c>
-      <c r="O94" t="inlineStr">
-        <is>
-          <t>Pa, psi</t>
-        </is>
-      </c>
+      <c r="N94" t="inlineStr"/>
+      <c r="O94" t="inlineStr"/>
       <c r="P94" t="inlineStr"/>
       <c r="Q94" t="inlineStr">
         <is>
@@ -5714,30 +5494,30 @@
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>aspect:characteristic_value_material_property_stress</t>
+          <t>aspect:relative_humidity</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>characteristic_value_material_property_stress</t>
+          <t>relative_humidity</t>
         </is>
       </c>
       <c r="C95" t="inlineStr"/>
       <c r="D95" t="inlineStr"/>
       <c r="E95" t="inlineStr">
         <is>
-          <t>Stress related characteristic value of a material property</t>
+          <t>Relative humidity</t>
         </is>
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>Characteristic Value Material Property Stress</t>
+          <t>Relative Humidity</t>
         </is>
       </c>
       <c r="G95" t="inlineStr"/>
       <c r="H95" t="inlineStr">
         <is>
-          <t>Rk</t>
+          <t>RH</t>
         </is>
       </c>
       <c r="I95" t="inlineStr"/>
@@ -5747,14 +5527,10 @@
       <c r="M95" t="inlineStr"/>
       <c r="N95" t="inlineStr">
         <is>
-          <t>MPa</t>
-        </is>
-      </c>
-      <c r="O95" t="inlineStr">
-        <is>
-          <t>Pa, psi</t>
-        </is>
-      </c>
+          <t>air g kg-1</t>
+        </is>
+      </c>
+      <c r="O95" t="inlineStr"/>
       <c r="P95" t="inlineStr"/>
       <c r="Q95" t="inlineStr">
         <is>
@@ -5779,47 +5555,39 @@
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>aspect:amplitude_characteristic_value_material_property_stress</t>
+          <t>aspect:R_ratio</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>amplitude_characteristic_value_material_property_stress</t>
+          <t>R_ratio</t>
         </is>
       </c>
       <c r="C96" t="inlineStr"/>
       <c r="D96" t="inlineStr"/>
       <c r="E96" t="inlineStr">
         <is>
-          <t>Stress related amplitude of characteristic structural member resistance for N = 1</t>
+          <t>In fatigue loading: ratio between minimum and maximum stress (or strain, or load)</t>
         </is>
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>Amplitude Characteristic Value Material Property Stress</t>
+          <t>R Ratio</t>
         </is>
       </c>
       <c r="G96" t="inlineStr"/>
-      <c r="H96" t="inlineStr">
-        <is>
-          <t>RkA</t>
-        </is>
-      </c>
+      <c r="H96" t="inlineStr"/>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
       <c r="K96" t="inlineStr"/>
       <c r="L96" t="inlineStr"/>
-      <c r="M96" t="inlineStr"/>
-      <c r="N96" t="inlineStr">
-        <is>
-          <t>MPa</t>
-        </is>
-      </c>
-      <c r="O96" t="inlineStr">
-        <is>
-          <t>Pa, psi</t>
-        </is>
-      </c>
+      <c r="M96" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="N96" t="inlineStr"/>
+      <c r="O96" t="inlineStr"/>
       <c r="P96" t="inlineStr"/>
       <c r="Q96" t="inlineStr">
         <is>
@@ -5844,30 +5612,30 @@
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>aspect:characteristic_value_material_property_tension_stress</t>
+          <t>aspect:design_value_material_property_strain</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>characteristic_value_material_property_tension_stress</t>
+          <t>design_value_material_property_strain</t>
         </is>
       </c>
       <c r="C97" t="inlineStr"/>
       <c r="D97" t="inlineStr"/>
       <c r="E97" t="inlineStr">
         <is>
-          <t>Stress related characteristic short term structural member resistance in tension</t>
+          <t>Strain related design value for a material property (not yet reduced by any g)</t>
         </is>
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>Characteristic Value Material Property Tension Stress</t>
+          <t>Design Value Material Property Strain</t>
         </is>
       </c>
       <c r="G97" t="inlineStr"/>
       <c r="H97" t="inlineStr">
         <is>
-          <t>Rkt</t>
+          <t>Rd</t>
         </is>
       </c>
       <c r="I97" t="inlineStr"/>
@@ -5877,12 +5645,12 @@
       <c r="M97" t="inlineStr"/>
       <c r="N97" t="inlineStr">
         <is>
-          <t>MPa</t>
+          <t>mepsilon</t>
         </is>
       </c>
       <c r="O97" t="inlineStr">
         <is>
-          <t>Pa, psi</t>
+          <t>mm mm-1, in in-1</t>
         </is>
       </c>
       <c r="P97" t="inlineStr"/>
@@ -5909,30 +5677,30 @@
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>aspect:characteristic_value_material_property_compression_stress</t>
+          <t>aspect:characteristic_value_material_property_strain</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>characteristic_value_material_property_compression_stress</t>
+          <t>characteristic_value_material_property_strain</t>
         </is>
       </c>
       <c r="C98" t="inlineStr"/>
       <c r="D98" t="inlineStr"/>
       <c r="E98" t="inlineStr">
         <is>
-          <t>Stress related characteristic short term structural member resistance in compression</t>
+          <t>Strain related characteristic value of a material property</t>
         </is>
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>Characteristic Value Material Property Compression Stress</t>
+          <t>Characteristic Value Material Property Strain</t>
         </is>
       </c>
       <c r="G98" t="inlineStr"/>
       <c r="H98" t="inlineStr">
         <is>
-          <t>Rkc</t>
+          <t>Rk</t>
         </is>
       </c>
       <c r="I98" t="inlineStr"/>
@@ -5942,12 +5710,12 @@
       <c r="M98" t="inlineStr"/>
       <c r="N98" t="inlineStr">
         <is>
-          <t>MPa</t>
+          <t>mepsilon</t>
         </is>
       </c>
       <c r="O98" t="inlineStr">
         <is>
-          <t>Pa, psi</t>
+          <t>mm mm-1, in in-1</t>
         </is>
       </c>
       <c r="P98" t="inlineStr"/>
@@ -5974,43 +5742,47 @@
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>aspect:standard_deviation</t>
+          <t>aspect:amplitude_characteristic_value_material_property_strain</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>standard_deviation</t>
+          <t>amplitude_characteristic_value_material_property_strain</t>
         </is>
       </c>
       <c r="C99" t="inlineStr"/>
       <c r="D99" t="inlineStr"/>
       <c r="E99" t="inlineStr">
         <is>
-          <t>Sample standard deviation</t>
+          <t>Strain related amplitude of characteristic structural member resistance for N = 1</t>
         </is>
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>Standard Deviation</t>
+          <t>Amplitude Characteristic Value Material Property Strain</t>
         </is>
       </c>
       <c r="G99" t="inlineStr"/>
       <c r="H99" t="inlineStr">
         <is>
-          <t>s</t>
+          <t>RkA</t>
         </is>
       </c>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
       <c r="K99" t="inlineStr"/>
       <c r="L99" t="inlineStr"/>
-      <c r="M99" t="inlineStr">
-        <is>
-          <t>sigma</t>
-        </is>
-      </c>
-      <c r="N99" t="inlineStr"/>
-      <c r="O99" t="inlineStr"/>
+      <c r="M99" t="inlineStr"/>
+      <c r="N99" t="inlineStr">
+        <is>
+          <t>mepsilon</t>
+        </is>
+      </c>
+      <c r="O99" t="inlineStr">
+        <is>
+          <t>mm mm-1, in in-1</t>
+        </is>
+      </c>
       <c r="P99" t="inlineStr"/>
       <c r="Q99" t="inlineStr">
         <is>
@@ -6035,43 +5807,47 @@
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>aspect:variance</t>
+          <t>aspect:characteristic_value_material_property_tension_strain</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>variance</t>
+          <t>characteristic_value_material_property_tension_strain</t>
         </is>
       </c>
       <c r="C100" t="inlineStr"/>
       <c r="D100" t="inlineStr"/>
       <c r="E100" t="inlineStr">
         <is>
-          <t>Sample variance</t>
+          <t>Strain related characteristic short term structural member resistance in tension</t>
         </is>
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>Variance</t>
+          <t>Characteristic Value Material Property Tension Strain</t>
         </is>
       </c>
       <c r="G100" t="inlineStr"/>
       <c r="H100" t="inlineStr">
         <is>
-          <t>S2</t>
+          <t>Rkt</t>
         </is>
       </c>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
       <c r="K100" t="inlineStr"/>
       <c r="L100" t="inlineStr"/>
-      <c r="M100" t="inlineStr">
-        <is>
-          <t>sigma2</t>
-        </is>
-      </c>
-      <c r="N100" t="inlineStr"/>
-      <c r="O100" t="inlineStr"/>
+      <c r="M100" t="inlineStr"/>
+      <c r="N100" t="inlineStr">
+        <is>
+          <t>mepsilon</t>
+        </is>
+      </c>
+      <c r="O100" t="inlineStr">
+        <is>
+          <t>mm mm-1, in in-1</t>
+        </is>
+      </c>
       <c r="P100" t="inlineStr"/>
       <c r="Q100" t="inlineStr">
         <is>
@@ -6096,45 +5872,37 @@
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>aspect:strain</t>
+          <t>aspect:characteristic_value_material_property_compression_strain</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>strain</t>
+          <t>characteristic_value_material_property_compression_strain</t>
         </is>
       </c>
       <c r="C101" t="inlineStr"/>
       <c r="D101" t="inlineStr"/>
       <c r="E101" t="inlineStr">
         <is>
-          <t>Deformation in terms of relative displacement of particles in the body that excludes rigid-body motions. For wind turbine blades, structural response to the design load.</t>
+          <t>Strain related characteristic short term structural member resistance in compression</t>
         </is>
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>Strain</t>
+          <t>Characteristic Value Material Property Compression Strain</t>
         </is>
       </c>
       <c r="G101" t="inlineStr"/>
       <c r="H101" t="inlineStr">
         <is>
-          <t>structural_response_strain, Sd</t>
+          <t>Rkc</t>
         </is>
       </c>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr">
-        <is>
-          <t>sigma</t>
-        </is>
-      </c>
+      <c r="K101" t="inlineStr"/>
       <c r="L101" t="inlineStr"/>
-      <c r="M101" t="inlineStr">
-        <is>
-          <t>deformation, epsilon, S</t>
-        </is>
-      </c>
+      <c r="M101" t="inlineStr"/>
       <c r="N101" t="inlineStr">
         <is>
           <t>mepsilon</t>
@@ -6169,41 +5937,37 @@
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>aspect:stress</t>
+          <t>aspect:design_value_material_property_stress</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>stress</t>
+          <t>design_value_material_property_stress</t>
         </is>
       </c>
       <c r="C102" t="inlineStr"/>
       <c r="D102" t="inlineStr"/>
       <c r="E102" t="inlineStr">
         <is>
-          <t>Internal forces that neighbouring particles of a continuous material exert on each other. For wind turbine blades, structural response to the design load.</t>
+          <t>Stress related design value for a material property (not yet reduced by any g)</t>
         </is>
       </c>
       <c r="F102" t="inlineStr">
         <is>
-          <t>Stress</t>
+          <t>Design Value Material Property Stress</t>
         </is>
       </c>
       <c r="G102" t="inlineStr"/>
       <c r="H102" t="inlineStr">
         <is>
-          <t>structural_response_stress, Sd</t>
+          <t>Rd</t>
         </is>
       </c>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
       <c r="K102" t="inlineStr"/>
       <c r="L102" t="inlineStr"/>
-      <c r="M102" t="inlineStr">
-        <is>
-          <t>sigma, S</t>
-        </is>
-      </c>
+      <c r="M102" t="inlineStr"/>
       <c r="N102" t="inlineStr">
         <is>
           <t>MPa</t>
@@ -6238,30 +6002,30 @@
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>aspect:mean_load</t>
+          <t>aspect:characteristic_value_material_property_stress</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>mean_load</t>
+          <t>characteristic_value_material_property_stress</t>
         </is>
       </c>
       <c r="C103" t="inlineStr"/>
       <c r="D103" t="inlineStr"/>
       <c r="E103" t="inlineStr">
         <is>
-          <t>Mean value of the load</t>
+          <t>Stress related characteristic value of a material property</t>
         </is>
       </c>
       <c r="F103" t="inlineStr">
         <is>
-          <t>Mean Load</t>
+          <t>Characteristic Value Material Property Stress</t>
         </is>
       </c>
       <c r="G103" t="inlineStr"/>
       <c r="H103" t="inlineStr">
         <is>
-          <t>SkM</t>
+          <t>Rk</t>
         </is>
       </c>
       <c r="I103" t="inlineStr"/>
@@ -6271,12 +6035,12 @@
       <c r="M103" t="inlineStr"/>
       <c r="N103" t="inlineStr">
         <is>
-          <t>N m</t>
+          <t>MPa</t>
         </is>
       </c>
       <c r="O103" t="inlineStr">
         <is>
-          <t>lbf ft</t>
+          <t>Pa, psi</t>
         </is>
       </c>
       <c r="P103" t="inlineStr"/>
@@ -6303,30 +6067,30 @@
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>aspect:amplitude_load</t>
+          <t>aspect:amplitude_characteristic_value_material_property_stress</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>amplitude_load</t>
+          <t>amplitude_characteristic_value_material_property_stress</t>
         </is>
       </c>
       <c r="C104" t="inlineStr"/>
       <c r="D104" t="inlineStr"/>
       <c r="E104" t="inlineStr">
         <is>
-          <t>Amplitude of the load</t>
+          <t>Stress related amplitude of characteristic structural member resistance for N = 1</t>
         </is>
       </c>
       <c r="F104" t="inlineStr">
         <is>
-          <t>Amplitude Load</t>
+          <t>Amplitude Characteristic Value Material Property Stress</t>
         </is>
       </c>
       <c r="G104" t="inlineStr"/>
       <c r="H104" t="inlineStr">
         <is>
-          <t>SkA</t>
+          <t>RkA</t>
         </is>
       </c>
       <c r="I104" t="inlineStr"/>
@@ -6336,12 +6100,12 @@
       <c r="M104" t="inlineStr"/>
       <c r="N104" t="inlineStr">
         <is>
-          <t>N m</t>
+          <t>MPa</t>
         </is>
       </c>
       <c r="O104" t="inlineStr">
         <is>
-          <t>lbf ft</t>
+          <t>Pa, psi</t>
         </is>
       </c>
       <c r="P104" t="inlineStr"/>
@@ -6368,30 +6132,30 @@
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>aspect:ply_thickness</t>
+          <t>aspect:characteristic_value_material_property_tension_stress</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>ply_thickness</t>
+          <t>characteristic_value_material_property_tension_stress</t>
         </is>
       </c>
       <c r="C105" t="inlineStr"/>
       <c r="D105" t="inlineStr"/>
       <c r="E105" t="inlineStr">
         <is>
-          <t>Ply thickness</t>
+          <t>Stress related characteristic short term structural member resistance in tension</t>
         </is>
       </c>
       <c r="F105" t="inlineStr">
         <is>
-          <t>Ply Thickness</t>
+          <t>Characteristic Value Material Property Tension Stress</t>
         </is>
       </c>
       <c r="G105" t="inlineStr"/>
       <c r="H105" t="inlineStr">
         <is>
-          <t>tply</t>
+          <t>Rkt</t>
         </is>
       </c>
       <c r="I105" t="inlineStr"/>
@@ -6401,12 +6165,12 @@
       <c r="M105" t="inlineStr"/>
       <c r="N105" t="inlineStr">
         <is>
-          <t>mm</t>
+          <t>MPa</t>
         </is>
       </c>
       <c r="O105" t="inlineStr">
         <is>
-          <t>in</t>
+          <t>Pa, psi</t>
         </is>
       </c>
       <c r="P105" t="inlineStr"/>
@@ -6433,39 +6197,47 @@
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>aspect:trailing_edge</t>
+          <t>aspect:characteristic_value_material_property_compression_stress</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>trailing_edge</t>
+          <t>characteristic_value_material_property_compression_stress</t>
         </is>
       </c>
       <c r="C106" t="inlineStr"/>
       <c r="D106" t="inlineStr"/>
       <c r="E106" t="inlineStr">
         <is>
-          <t>Trailing edge</t>
+          <t>Stress related characteristic short term structural member resistance in compression</t>
         </is>
       </c>
       <c r="F106" t="inlineStr">
         <is>
-          <t>Trailing Edge</t>
+          <t>Characteristic Value Material Property Compression Stress</t>
         </is>
       </c>
       <c r="G106" t="inlineStr"/>
-      <c r="H106" t="inlineStr"/>
+      <c r="H106" t="inlineStr">
+        <is>
+          <t>Rkc</t>
+        </is>
+      </c>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
       <c r="K106" t="inlineStr"/>
       <c r="L106" t="inlineStr"/>
-      <c r="M106" t="inlineStr">
-        <is>
-          <t>TE</t>
-        </is>
-      </c>
-      <c r="N106" t="inlineStr"/>
-      <c r="O106" t="inlineStr"/>
+      <c r="M106" t="inlineStr"/>
+      <c r="N106" t="inlineStr">
+        <is>
+          <t>MPa</t>
+        </is>
+      </c>
+      <c r="O106" t="inlineStr">
+        <is>
+          <t>Pa, psi</t>
+        </is>
+      </c>
       <c r="P106" t="inlineStr"/>
       <c r="Q106" t="inlineStr">
         <is>
@@ -6490,41 +6262,41 @@
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>aspect:partial_factor</t>
+          <t>aspect:standard_deviation</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>partial_factor</t>
+          <t>standard_deviation</t>
         </is>
       </c>
       <c r="C107" t="inlineStr"/>
       <c r="D107" t="inlineStr"/>
       <c r="E107" t="inlineStr">
         <is>
-          <t>Partial reduction or enhancement factor</t>
+          <t>Sample standard deviation</t>
         </is>
       </c>
       <c r="F107" t="inlineStr">
         <is>
-          <t>Partial Factor</t>
+          <t>Standard Deviation</t>
         </is>
       </c>
       <c r="G107" t="inlineStr"/>
       <c r="H107" t="inlineStr">
         <is>
-          <t>gamma, reduction_enhancement_factor</t>
+          <t>s</t>
         </is>
       </c>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr">
-        <is>
-          <t>test_load_factor</t>
-        </is>
-      </c>
+      <c r="K107" t="inlineStr"/>
       <c r="L107" t="inlineStr"/>
-      <c r="M107" t="inlineStr"/>
+      <c r="M107" t="inlineStr">
+        <is>
+          <t>sigma</t>
+        </is>
+      </c>
       <c r="N107" t="inlineStr"/>
       <c r="O107" t="inlineStr"/>
       <c r="P107" t="inlineStr"/>
@@ -6551,35 +6323,39 @@
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>aspect:partial_error_fatigue_formulation_factor</t>
+          <t>aspect:variance</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>partial_error_fatigue_formulation_factor</t>
+          <t>variance</t>
         </is>
       </c>
       <c r="C108" t="inlineStr"/>
       <c r="D108" t="inlineStr"/>
       <c r="E108" t="inlineStr">
         <is>
-          <t>Partial factor compensating for possible errors in the fatigue formulation for full scale blade fatigue bending testing</t>
+          <t>Sample variance</t>
         </is>
       </c>
       <c r="F108" t="inlineStr">
         <is>
-          <t>Partial Error Fatigue Formulation Factor</t>
+          <t>Variance</t>
         </is>
       </c>
       <c r="G108" t="inlineStr"/>
-      <c r="H108" t="inlineStr"/>
+      <c r="H108" t="inlineStr">
+        <is>
+          <t>S2</t>
+        </is>
+      </c>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
       <c r="K108" t="inlineStr"/>
       <c r="L108" t="inlineStr"/>
       <c r="M108" t="inlineStr">
         <is>
-          <t>gamma_ef</t>
+          <t>sigma2</t>
         </is>
       </c>
       <c r="N108" t="inlineStr"/>
@@ -6608,39 +6384,55 @@
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>aspect:partial_load_factor</t>
+          <t>aspect:strain</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>partial_load_factor</t>
+          <t>strain</t>
         </is>
       </c>
       <c r="C109" t="inlineStr"/>
       <c r="D109" t="inlineStr"/>
       <c r="E109" t="inlineStr">
         <is>
-          <t>Partial load factor</t>
+          <t>Deformation in terms of relative displacement of particles in the body that excludes rigid-body motions. For wind turbine blades, structural response to the design load.</t>
         </is>
       </c>
       <c r="F109" t="inlineStr">
         <is>
-          <t>Partial Load Factor</t>
+          <t>Strain</t>
         </is>
       </c>
       <c r="G109" t="inlineStr"/>
-      <c r="H109" t="inlineStr"/>
+      <c r="H109" t="inlineStr">
+        <is>
+          <t>structural_response_strain, Sd</t>
+        </is>
+      </c>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr"/>
+      <c r="K109" t="inlineStr">
+        <is>
+          <t>sigma</t>
+        </is>
+      </c>
       <c r="L109" t="inlineStr"/>
       <c r="M109" t="inlineStr">
         <is>
-          <t>gamma_f</t>
-        </is>
-      </c>
-      <c r="N109" t="inlineStr"/>
-      <c r="O109" t="inlineStr"/>
+          <t>deformation, epsilon, S</t>
+        </is>
+      </c>
+      <c r="N109" t="inlineStr">
+        <is>
+          <t>mepsilon</t>
+        </is>
+      </c>
+      <c r="O109" t="inlineStr">
+        <is>
+          <t>mm mm-1, in in-1</t>
+        </is>
+      </c>
       <c r="P109" t="inlineStr"/>
       <c r="Q109" t="inlineStr">
         <is>
@@ -6665,39 +6457,51 @@
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>aspect:partial_material_property_factor</t>
+          <t>aspect:stress</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>partial_material_property_factor</t>
+          <t>stress</t>
         </is>
       </c>
       <c r="C110" t="inlineStr"/>
       <c r="D110" t="inlineStr"/>
       <c r="E110" t="inlineStr">
         <is>
-          <t>Partial_reduction factor for material properties</t>
+          <t>Internal forces that neighbouring particles of a continuous material exert on each other. For wind turbine blades, structural response to the design load.</t>
         </is>
       </c>
       <c r="F110" t="inlineStr">
         <is>
-          <t>Partial Material Property Factor</t>
+          <t>Stress</t>
         </is>
       </c>
       <c r="G110" t="inlineStr"/>
-      <c r="H110" t="inlineStr"/>
+      <c r="H110" t="inlineStr">
+        <is>
+          <t>structural_response_stress, Sd</t>
+        </is>
+      </c>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
       <c r="K110" t="inlineStr"/>
       <c r="L110" t="inlineStr"/>
       <c r="M110" t="inlineStr">
         <is>
-          <t>gamma_m, partial_material_factor</t>
-        </is>
-      </c>
-      <c r="N110" t="inlineStr"/>
-      <c r="O110" t="inlineStr"/>
+          <t>sigma, S</t>
+        </is>
+      </c>
+      <c r="N110" t="inlineStr">
+        <is>
+          <t>MPa</t>
+        </is>
+      </c>
+      <c r="O110" t="inlineStr">
+        <is>
+          <t>Pa, psi</t>
+        </is>
+      </c>
       <c r="P110" t="inlineStr"/>
       <c r="Q110" t="inlineStr">
         <is>
@@ -6722,43 +6526,47 @@
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>aspect:partial_base_factor</t>
+          <t>aspect:mean_load</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>partial_base_factor</t>
+          <t>mean_load</t>
         </is>
       </c>
       <c r="C111" t="inlineStr"/>
       <c r="D111" t="inlineStr"/>
       <c r="E111" t="inlineStr">
         <is>
-          <t>Partial base factor</t>
+          <t>Mean value of the load</t>
         </is>
       </c>
       <c r="F111" t="inlineStr">
         <is>
-          <t>Partial Base Factor</t>
+          <t>Mean Load</t>
         </is>
       </c>
       <c r="G111" t="inlineStr"/>
       <c r="H111" t="inlineStr">
         <is>
-          <t>gamma_0</t>
+          <t>SkM</t>
         </is>
       </c>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
       <c r="K111" t="inlineStr"/>
       <c r="L111" t="inlineStr"/>
-      <c r="M111" t="inlineStr">
-        <is>
-          <t>base_factor</t>
-        </is>
-      </c>
-      <c r="N111" t="inlineStr"/>
-      <c r="O111" t="inlineStr"/>
+      <c r="M111" t="inlineStr"/>
+      <c r="N111" t="inlineStr">
+        <is>
+          <t>N m</t>
+        </is>
+      </c>
+      <c r="O111" t="inlineStr">
+        <is>
+          <t>lbf ft</t>
+        </is>
+      </c>
       <c r="P111" t="inlineStr"/>
       <c r="Q111" t="inlineStr">
         <is>
@@ -6783,30 +6591,30 @@
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>aspect:partial_failure_mode_factor</t>
+          <t>aspect:amplitude_load</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>partial_failure_mode_factor</t>
+          <t>amplitude_load</t>
         </is>
       </c>
       <c r="C112" t="inlineStr"/>
       <c r="D112" t="inlineStr"/>
       <c r="E112" t="inlineStr">
         <is>
-          <t>Partial reduction factor for criticality of failure mode</t>
+          <t>Amplitude of the load</t>
         </is>
       </c>
       <c r="F112" t="inlineStr">
         <is>
-          <t>Partial Failure Mode Factor</t>
+          <t>Amplitude Load</t>
         </is>
       </c>
       <c r="G112" t="inlineStr"/>
       <c r="H112" t="inlineStr">
         <is>
-          <t>gamma_mc</t>
+          <t>SkA</t>
         </is>
       </c>
       <c r="I112" t="inlineStr"/>
@@ -6814,8 +6622,16 @@
       <c r="K112" t="inlineStr"/>
       <c r="L112" t="inlineStr"/>
       <c r="M112" t="inlineStr"/>
-      <c r="N112" t="inlineStr"/>
-      <c r="O112" t="inlineStr"/>
+      <c r="N112" t="inlineStr">
+        <is>
+          <t>N m</t>
+        </is>
+      </c>
+      <c r="O112" t="inlineStr">
+        <is>
+          <t>lbf ft</t>
+        </is>
+      </c>
       <c r="P112" t="inlineStr"/>
       <c r="Q112" t="inlineStr">
         <is>
@@ -6840,30 +6656,30 @@
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>aspect:partial_irreversible_long_term_degradadion_factor</t>
+          <t>aspect:ply_thickness</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>partial_irreversible_long_term_degradadion_factor</t>
+          <t>ply_thickness</t>
         </is>
       </c>
       <c r="C113" t="inlineStr"/>
       <c r="D113" t="inlineStr"/>
       <c r="E113" t="inlineStr">
         <is>
-          <t>Partial reduction factor for irreversible long-term degradation</t>
+          <t>Ply thickness</t>
         </is>
       </c>
       <c r="F113" t="inlineStr">
         <is>
-          <t>Partial Irreversible Long Term Degradadion Factor</t>
+          <t>Ply Thickness</t>
         </is>
       </c>
       <c r="G113" t="inlineStr"/>
       <c r="H113" t="inlineStr">
         <is>
-          <t>gamma_m1</t>
+          <t>tply</t>
         </is>
       </c>
       <c r="I113" t="inlineStr"/>
@@ -6871,8 +6687,16 @@
       <c r="K113" t="inlineStr"/>
       <c r="L113" t="inlineStr"/>
       <c r="M113" t="inlineStr"/>
-      <c r="N113" t="inlineStr"/>
-      <c r="O113" t="inlineStr"/>
+      <c r="N113" t="inlineStr">
+        <is>
+          <t>mm</t>
+        </is>
+      </c>
+      <c r="O113" t="inlineStr">
+        <is>
+          <t>in</t>
+        </is>
+      </c>
       <c r="P113" t="inlineStr"/>
       <c r="Q113" t="inlineStr">
         <is>
@@ -6897,37 +6721,37 @@
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>aspect:partial_temperature_effects_factor</t>
+          <t>aspect:trailing_edge</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>partial_temperature_effects_factor</t>
+          <t>trailing_edge</t>
         </is>
       </c>
       <c r="C114" t="inlineStr"/>
       <c r="D114" t="inlineStr"/>
       <c r="E114" t="inlineStr">
         <is>
-          <t>Partial reduction factor for temperature effects (reversible effects)</t>
+          <t>Trailing edge</t>
         </is>
       </c>
       <c r="F114" t="inlineStr">
         <is>
-          <t>Partial Temperature Effects Factor</t>
+          <t>Trailing Edge</t>
         </is>
       </c>
       <c r="G114" t="inlineStr"/>
-      <c r="H114" t="inlineStr">
-        <is>
-          <t>gamma_m2</t>
-        </is>
-      </c>
+      <c r="H114" t="inlineStr"/>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
       <c r="K114" t="inlineStr"/>
       <c r="L114" t="inlineStr"/>
-      <c r="M114" t="inlineStr"/>
+      <c r="M114" t="inlineStr">
+        <is>
+          <t>TE</t>
+        </is>
+      </c>
       <c r="N114" t="inlineStr"/>
       <c r="O114" t="inlineStr"/>
       <c r="P114" t="inlineStr"/>
@@ -6954,35 +6778,39 @@
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>aspect:partial_manufacturing_effects_factor</t>
+          <t>aspect:partial_factor</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>partial_manufacturing_effects_factor</t>
+          <t>partial_factor</t>
         </is>
       </c>
       <c r="C115" t="inlineStr"/>
       <c r="D115" t="inlineStr"/>
       <c r="E115" t="inlineStr">
         <is>
-          <t>Partial reduction factor for manufacturing effects</t>
+          <t>Partial reduction or enhancement factor</t>
         </is>
       </c>
       <c r="F115" t="inlineStr">
         <is>
-          <t>Partial Manufacturing Effects Factor</t>
+          <t>Partial Factor</t>
         </is>
       </c>
       <c r="G115" t="inlineStr"/>
       <c r="H115" t="inlineStr">
         <is>
-          <t>gamma_m3</t>
+          <t>gamma, reduction_enhancement_factor</t>
         </is>
       </c>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr"/>
+      <c r="K115" t="inlineStr">
+        <is>
+          <t>test_load_factor</t>
+        </is>
+      </c>
       <c r="L115" t="inlineStr"/>
       <c r="M115" t="inlineStr"/>
       <c r="N115" t="inlineStr"/>
@@ -7011,37 +6839,37 @@
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>aspect:partial_accuray_analysis_method_factor</t>
+          <t>aspect:partial_error_fatigue_formulation_factor</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>partial_accuray_analysis_method_factor</t>
+          <t>partial_error_fatigue_formulation_factor</t>
         </is>
       </c>
       <c r="C116" t="inlineStr"/>
       <c r="D116" t="inlineStr"/>
       <c r="E116" t="inlineStr">
         <is>
-          <t>Partial reduction factor for the accuracy of analysis methods</t>
+          <t>Partial factor compensating for possible errors in the fatigue formulation for full scale blade fatigue bending testing</t>
         </is>
       </c>
       <c r="F116" t="inlineStr">
         <is>
-          <t>Partial Accuray Analysis Method Factor</t>
+          <t>Partial Error Fatigue Formulation Factor</t>
         </is>
       </c>
       <c r="G116" t="inlineStr"/>
-      <c r="H116" t="inlineStr">
-        <is>
-          <t>gamma_m4</t>
-        </is>
-      </c>
+      <c r="H116" t="inlineStr"/>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
       <c r="K116" t="inlineStr"/>
       <c r="L116" t="inlineStr"/>
-      <c r="M116" t="inlineStr"/>
+      <c r="M116" t="inlineStr">
+        <is>
+          <t>gamma_ef</t>
+        </is>
+      </c>
       <c r="N116" t="inlineStr"/>
       <c r="O116" t="inlineStr"/>
       <c r="P116" t="inlineStr"/>
@@ -7068,37 +6896,37 @@
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>aspect:partial_accuracy_load_assumptions_factor</t>
+          <t>aspect:partial_load_factor</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>partial_accuracy_load_assumptions_factor</t>
+          <t>partial_load_factor</t>
         </is>
       </c>
       <c r="C117" t="inlineStr"/>
       <c r="D117" t="inlineStr"/>
       <c r="E117" t="inlineStr">
         <is>
-          <t>Partial reduction factor for the accuracy of load assumptions</t>
+          <t>Partial load factor</t>
         </is>
       </c>
       <c r="F117" t="inlineStr">
         <is>
-          <t>Partial Accuracy Load Assumptions Factor</t>
+          <t>Partial Load Factor</t>
         </is>
       </c>
       <c r="G117" t="inlineStr"/>
-      <c r="H117" t="inlineStr">
-        <is>
-          <t>gamma_m5</t>
-        </is>
-      </c>
+      <c r="H117" t="inlineStr"/>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
       <c r="K117" t="inlineStr"/>
       <c r="L117" t="inlineStr"/>
-      <c r="M117" t="inlineStr"/>
+      <c r="M117" t="inlineStr">
+        <is>
+          <t>gamma_f</t>
+        </is>
+      </c>
       <c r="N117" t="inlineStr"/>
       <c r="O117" t="inlineStr"/>
       <c r="P117" t="inlineStr"/>
@@ -7125,37 +6953,37 @@
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>aspect:partial_accuracy_load_assumptions_factor_a</t>
+          <t>aspect:partial_material_property_factor</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>partial_accuracy_load_assumptions_factor_a</t>
+          <t>partial_material_property_factor</t>
         </is>
       </c>
       <c r="C118" t="inlineStr"/>
       <c r="D118" t="inlineStr"/>
       <c r="E118" t="inlineStr">
         <is>
-          <t>Partial reduction factor for the accuracy of load assumptions related to applied load type</t>
+          <t>Partial_reduction factor for material properties</t>
         </is>
       </c>
       <c r="F118" t="inlineStr">
         <is>
-          <t>Partial Accuracy Load Assumptions Factor A</t>
+          <t>Partial Material Property Factor</t>
         </is>
       </c>
       <c r="G118" t="inlineStr"/>
-      <c r="H118" t="inlineStr">
-        <is>
-          <t>gamma_m5a</t>
-        </is>
-      </c>
+      <c r="H118" t="inlineStr"/>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
       <c r="K118" t="inlineStr"/>
       <c r="L118" t="inlineStr"/>
-      <c r="M118" t="inlineStr"/>
+      <c r="M118" t="inlineStr">
+        <is>
+          <t>gamma_m, partial_material_factor</t>
+        </is>
+      </c>
       <c r="N118" t="inlineStr"/>
       <c r="O118" t="inlineStr"/>
       <c r="P118" t="inlineStr"/>
@@ -7182,37 +7010,41 @@
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>aspect:partial_accuracy_load_assumptions_factor_b</t>
+          <t>aspect:partial_base_factor</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>partial_accuracy_load_assumptions_factor_b</t>
+          <t>partial_base_factor</t>
         </is>
       </c>
       <c r="C119" t="inlineStr"/>
       <c r="D119" t="inlineStr"/>
       <c r="E119" t="inlineStr">
         <is>
-          <t>Partial reduction factor for the accuracy of load assumptions related to direction of applied load</t>
+          <t>Partial base factor</t>
         </is>
       </c>
       <c r="F119" t="inlineStr">
         <is>
-          <t>Partial Accuracy Load Assumptions Factor B</t>
+          <t>Partial Base Factor</t>
         </is>
       </c>
       <c r="G119" t="inlineStr"/>
       <c r="H119" t="inlineStr">
         <is>
-          <t>gamma_5b</t>
+          <t>gamma_0</t>
         </is>
       </c>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
       <c r="K119" t="inlineStr"/>
       <c r="L119" t="inlineStr"/>
-      <c r="M119" t="inlineStr"/>
+      <c r="M119" t="inlineStr">
+        <is>
+          <t>base_factor</t>
+        </is>
+      </c>
       <c r="N119" t="inlineStr"/>
       <c r="O119" t="inlineStr"/>
       <c r="P119" t="inlineStr"/>
@@ -7239,30 +7071,30 @@
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>aspect:partial_short_term_verification_factor</t>
+          <t>aspect:partial_failure_mode_factor</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>partial_short_term_verification_factor</t>
+          <t>partial_failure_mode_factor</t>
         </is>
       </c>
       <c r="C120" t="inlineStr"/>
       <c r="D120" t="inlineStr"/>
       <c r="E120" t="inlineStr">
         <is>
-          <t>Partial reduction factor gm for short term verification</t>
+          <t>Partial reduction factor for criticality of failure mode</t>
         </is>
       </c>
       <c r="F120" t="inlineStr">
         <is>
-          <t>Partial Short Term Verification Factor</t>
+          <t>Partial Failure Mode Factor</t>
         </is>
       </c>
       <c r="G120" t="inlineStr"/>
       <c r="H120" t="inlineStr">
         <is>
-          <t>gamma_shortterm</t>
+          <t>gamma_mc</t>
         </is>
       </c>
       <c r="I120" t="inlineStr"/>
@@ -7296,30 +7128,30 @@
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>aspect:partial_fatigue_verification_factor</t>
+          <t>aspect:partial_irreversible_long_term_degradadion_factor</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>partial_fatigue_verification_factor</t>
+          <t>partial_irreversible_long_term_degradadion_factor</t>
         </is>
       </c>
       <c r="C121" t="inlineStr"/>
       <c r="D121" t="inlineStr"/>
       <c r="E121" t="inlineStr">
         <is>
-          <t>Partial reduction factor gm for fatigue verification</t>
+          <t>Partial reduction factor for irreversible long-term degradation</t>
         </is>
       </c>
       <c r="F121" t="inlineStr">
         <is>
-          <t>Partial Fatigue Verification Factor</t>
+          <t>Partial Irreversible Long Term Degradadion Factor</t>
         </is>
       </c>
       <c r="G121" t="inlineStr"/>
       <c r="H121" t="inlineStr">
         <is>
-          <t>gamma_mfatigue</t>
+          <t>gamma_m1</t>
         </is>
       </c>
       <c r="I121" t="inlineStr"/>
@@ -7353,41 +7185,37 @@
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>aspect:partial_test_fatigue_load_factor</t>
+          <t>aspect:partial_temperature_effects_factor</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>partial_test_fatigue_load_factor</t>
+          <t>partial_temperature_effects_factor</t>
         </is>
       </c>
       <c r="C122" t="inlineStr"/>
       <c r="D122" t="inlineStr"/>
       <c r="E122" t="inlineStr">
         <is>
-          <t>Partial test load enhancement factor for full scale blade fatigue bending testing</t>
+          <t>Partial reduction factor for temperature effects (reversible effects)</t>
         </is>
       </c>
       <c r="F122" t="inlineStr">
         <is>
-          <t>Partial Test Fatigue Load Factor</t>
+          <t>Partial Temperature Effects Factor</t>
         </is>
       </c>
       <c r="G122" t="inlineStr"/>
       <c r="H122" t="inlineStr">
         <is>
-          <t>gamma_nf</t>
+          <t>gamma_m2</t>
         </is>
       </c>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
       <c r="K122" t="inlineStr"/>
       <c r="L122" t="inlineStr"/>
-      <c r="M122" t="inlineStr">
-        <is>
-          <t>gsf</t>
-        </is>
-      </c>
+      <c r="M122" t="inlineStr"/>
       <c r="N122" t="inlineStr"/>
       <c r="O122" t="inlineStr"/>
       <c r="P122" t="inlineStr"/>
@@ -7414,30 +7242,30 @@
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>aspect:partial_repair_factor</t>
+          <t>aspect:partial_manufacturing_effects_factor</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>partial_repair_factor</t>
+          <t>partial_manufacturing_effects_factor</t>
         </is>
       </c>
       <c r="C123" t="inlineStr"/>
       <c r="D123" t="inlineStr"/>
       <c r="E123" t="inlineStr">
         <is>
-          <t>Partial reduction factors for repair</t>
+          <t>Partial reduction factor for manufacturing effects</t>
         </is>
       </c>
       <c r="F123" t="inlineStr">
         <is>
-          <t>Partial Repair Factor</t>
+          <t>Partial Manufacturing Effects Factor</t>
         </is>
       </c>
       <c r="G123" t="inlineStr"/>
       <c r="H123" t="inlineStr">
         <is>
-          <t>gamma_process, gamma_env</t>
+          <t>gamma_m3</t>
         </is>
       </c>
       <c r="I123" t="inlineStr"/>
@@ -7471,37 +7299,37 @@
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>aspect:partial_blade_variation_factor_fatigue</t>
+          <t>aspect:partial_accuray_analysis_method_factor</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>partial_blade_variation_factor_fatigue</t>
+          <t>partial_accuray_analysis_method_factor</t>
         </is>
       </c>
       <c r="C124" t="inlineStr"/>
       <c r="D124" t="inlineStr"/>
       <c r="E124" t="inlineStr">
         <is>
-          <t>Partial blade-to-blade variation factor for full scale fatigue bending blade testing</t>
+          <t>Partial reduction factor for the accuracy of analysis methods</t>
         </is>
       </c>
       <c r="F124" t="inlineStr">
         <is>
-          <t>Partial Blade Variation Factor Fatigue</t>
+          <t>Partial Accuray Analysis Method Factor</t>
         </is>
       </c>
       <c r="G124" t="inlineStr"/>
-      <c r="H124" t="inlineStr"/>
+      <c r="H124" t="inlineStr">
+        <is>
+          <t>gamma_m4</t>
+        </is>
+      </c>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
       <c r="K124" t="inlineStr"/>
       <c r="L124" t="inlineStr"/>
-      <c r="M124" t="inlineStr">
-        <is>
-          <t>gamma_sf</t>
-        </is>
-      </c>
+      <c r="M124" t="inlineStr"/>
       <c r="N124" t="inlineStr"/>
       <c r="O124" t="inlineStr"/>
       <c r="P124" t="inlineStr"/>
@@ -7528,35 +7356,35 @@
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>aspect:partial_blade_variation_factor_static</t>
+          <t>aspect:partial_accuracy_load_assumptions_factor</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>partial_blade_variation_factor_static</t>
+          <t>partial_accuracy_load_assumptions_factor</t>
         </is>
       </c>
       <c r="C125" t="inlineStr"/>
       <c r="D125" t="inlineStr"/>
       <c r="E125" t="inlineStr">
         <is>
-          <t>Partial blade-to-blade variation factor for full scale static bending blade testing</t>
+          <t>Partial reduction factor for the accuracy of load assumptions</t>
         </is>
       </c>
       <c r="F125" t="inlineStr">
         <is>
-          <t>Partial Blade Variation Factor Static</t>
+          <t>Partial Accuracy Load Assumptions Factor</t>
         </is>
       </c>
       <c r="G125" t="inlineStr"/>
-      <c r="H125" t="inlineStr"/>
+      <c r="H125" t="inlineStr">
+        <is>
+          <t>gamma_m5</t>
+        </is>
+      </c>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr">
-        <is>
-          <t>gamma_su</t>
-        </is>
-      </c>
+      <c r="K125" t="inlineStr"/>
       <c r="L125" t="inlineStr"/>
       <c r="M125" t="inlineStr"/>
       <c r="N125" t="inlineStr"/>
@@ -7585,30 +7413,30 @@
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>aspect:partial_test_static_load_factor</t>
+          <t>aspect:partial_accuracy_load_assumptions_factor_a</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>partial_test_static_load_factor</t>
+          <t>partial_accuracy_load_assumptions_factor_a</t>
         </is>
       </c>
       <c r="C126" t="inlineStr"/>
       <c r="D126" t="inlineStr"/>
       <c r="E126" t="inlineStr">
         <is>
-          <t>Partial test load enhancement factors for full scale blade static bending test loads</t>
+          <t>Partial reduction factor for the accuracy of load assumptions related to applied load type</t>
         </is>
       </c>
       <c r="F126" t="inlineStr">
         <is>
-          <t>Partial Test Static Load Factor</t>
+          <t>Partial Accuracy Load Assumptions Factor A</t>
         </is>
       </c>
       <c r="G126" t="inlineStr"/>
       <c r="H126" t="inlineStr">
         <is>
-          <t>gamma_1t, gamma_2t</t>
+          <t>gamma_m5a</t>
         </is>
       </c>
       <c r="I126" t="inlineStr"/>
@@ -7642,41 +7470,37 @@
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>aspect:poisson_ratio</t>
+          <t>aspect:partial_accuracy_load_assumptions_factor_b</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>poisson_ratio</t>
+          <t>partial_accuracy_load_assumptions_factor_b</t>
         </is>
       </c>
       <c r="C127" t="inlineStr"/>
       <c r="D127" t="inlineStr"/>
       <c r="E127" t="inlineStr">
         <is>
-          <t>Poisson's ratio</t>
+          <t>Partial reduction factor for the accuracy of load assumptions related to direction of applied load</t>
         </is>
       </c>
       <c r="F127" t="inlineStr">
         <is>
-          <t>Poisson Ratio</t>
+          <t>Partial Accuracy Load Assumptions Factor B</t>
         </is>
       </c>
       <c r="G127" t="inlineStr"/>
       <c r="H127" t="inlineStr">
         <is>
-          <t>nu</t>
+          <t>gamma_5b</t>
         </is>
       </c>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
       <c r="K127" t="inlineStr"/>
       <c r="L127" t="inlineStr"/>
-      <c r="M127" t="inlineStr">
-        <is>
-          <t>mu</t>
-        </is>
-      </c>
+      <c r="M127" t="inlineStr"/>
       <c r="N127" t="inlineStr"/>
       <c r="O127" t="inlineStr"/>
       <c r="P127" t="inlineStr"/>
@@ -7703,30 +7527,30 @@
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>aspect:fiber_density</t>
+          <t>aspect:partial_short_term_verification_factor</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>fiber_density</t>
+          <t>partial_short_term_verification_factor</t>
         </is>
       </c>
       <c r="C128" t="inlineStr"/>
       <c r="D128" t="inlineStr"/>
       <c r="E128" t="inlineStr">
         <is>
-          <t>Fiber density</t>
+          <t>Partial reduction factor gm for short term verification</t>
         </is>
       </c>
       <c r="F128" t="inlineStr">
         <is>
-          <t>Fiber Density</t>
+          <t>Partial Short Term Verification Factor</t>
         </is>
       </c>
       <c r="G128" t="inlineStr"/>
       <c r="H128" t="inlineStr">
         <is>
-          <t>rho_f</t>
+          <t>gamma_shortterm</t>
         </is>
       </c>
       <c r="I128" t="inlineStr"/>
@@ -7734,11 +7558,7 @@
       <c r="K128" t="inlineStr"/>
       <c r="L128" t="inlineStr"/>
       <c r="M128" t="inlineStr"/>
-      <c r="N128" t="inlineStr">
-        <is>
-          <t>g cm-3</t>
-        </is>
-      </c>
+      <c r="N128" t="inlineStr"/>
       <c r="O128" t="inlineStr"/>
       <c r="P128" t="inlineStr"/>
       <c r="Q128" t="inlineStr">
@@ -7764,41 +7584,37 @@
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>aspect:damping_ratio</t>
+          <t>aspect:partial_fatigue_verification_factor</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>damping_ratio</t>
+          <t>partial_fatigue_verification_factor</t>
         </is>
       </c>
       <c r="C129" t="inlineStr"/>
       <c r="D129" t="inlineStr"/>
       <c r="E129" t="inlineStr">
         <is>
-          <t>Damping ratio (damping coefficient)</t>
+          <t>Partial reduction factor gm for fatigue verification</t>
         </is>
       </c>
       <c r="F129" t="inlineStr">
         <is>
-          <t>Damping Ratio</t>
+          <t>Partial Fatigue Verification Factor</t>
         </is>
       </c>
       <c r="G129" t="inlineStr"/>
       <c r="H129" t="inlineStr">
         <is>
-          <t>zeta</t>
+          <t>gamma_mfatigue</t>
         </is>
       </c>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
       <c r="K129" t="inlineStr"/>
       <c r="L129" t="inlineStr"/>
-      <c r="M129" t="inlineStr">
-        <is>
-          <t>damping_coefficient</t>
-        </is>
-      </c>
+      <c r="M129" t="inlineStr"/>
       <c r="N129" t="inlineStr"/>
       <c r="O129" t="inlineStr"/>
       <c r="P129" t="inlineStr"/>
@@ -7825,37 +7641,41 @@
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>aspect:number_cycles_bin</t>
+          <t>aspect:partial_test_fatigue_load_factor</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>number_cycles_bin</t>
+          <t>partial_test_fatigue_load_factor</t>
         </is>
       </c>
       <c r="C130" t="inlineStr"/>
       <c r="D130" t="inlineStr"/>
       <c r="E130" t="inlineStr">
         <is>
-          <t>Number of load cycles in fatigue load bin i</t>
+          <t>Partial test load enhancement factor for full scale blade fatigue bending testing</t>
         </is>
       </c>
       <c r="F130" t="inlineStr">
         <is>
-          <t>Number Cycles Bin</t>
+          <t>Partial Test Fatigue Load Factor</t>
         </is>
       </c>
       <c r="G130" t="inlineStr"/>
       <c r="H130" t="inlineStr">
         <is>
-          <t>ni</t>
+          <t>gamma_nf</t>
         </is>
       </c>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
       <c r="K130" t="inlineStr"/>
       <c r="L130" t="inlineStr"/>
-      <c r="M130" t="inlineStr"/>
+      <c r="M130" t="inlineStr">
+        <is>
+          <t>gsf</t>
+        </is>
+      </c>
       <c r="N130" t="inlineStr"/>
       <c r="O130" t="inlineStr"/>
       <c r="P130" t="inlineStr"/>
@@ -7882,30 +7702,30 @@
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>aspect:permissible_number_cycles_bin</t>
+          <t>aspect:partial_repair_factor</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>permissible_number_cycles_bin</t>
+          <t>partial_repair_factor</t>
         </is>
       </c>
       <c r="C131" t="inlineStr"/>
       <c r="D131" t="inlineStr"/>
       <c r="E131" t="inlineStr">
         <is>
-          <t>Permissible number of cycles for the load amplitude SkA and mean SkM in bin i.</t>
+          <t>Partial reduction factors for repair</t>
         </is>
       </c>
       <c r="F131" t="inlineStr">
         <is>
-          <t>Permissible Number Cycles Bin</t>
+          <t>Partial Repair Factor</t>
         </is>
       </c>
       <c r="G131" t="inlineStr"/>
       <c r="H131" t="inlineStr">
         <is>
-          <t>Ni</t>
+          <t>gamma_process, gamma_env</t>
         </is>
       </c>
       <c r="I131" t="inlineStr"/>
@@ -7939,43 +7759,35 @@
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>aspect:equivalent_damage</t>
+          <t>aspect:partial_blade_variation_factor_fatigue</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>equivalent_damage</t>
+          <t>partial_blade_variation_factor_fatigue</t>
         </is>
       </c>
       <c r="C132" t="inlineStr"/>
       <c r="D132" t="inlineStr"/>
       <c r="E132" t="inlineStr">
         <is>
-          <t>Equivalent damage (theoretical damage)</t>
+          <t>Partial blade-to-blade variation factor for full scale fatigue bending blade testing</t>
         </is>
       </c>
       <c r="F132" t="inlineStr">
         <is>
-          <t>Equivalent Damage</t>
+          <t>Partial Blade Variation Factor Fatigue</t>
         </is>
       </c>
       <c r="G132" t="inlineStr"/>
-      <c r="H132" t="inlineStr">
-        <is>
-          <t>total_damage</t>
-        </is>
-      </c>
+      <c r="H132" t="inlineStr"/>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr">
-        <is>
-          <t>theoretical_damage</t>
-        </is>
-      </c>
+      <c r="K132" t="inlineStr"/>
       <c r="L132" t="inlineStr"/>
       <c r="M132" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>gamma_sf</t>
         </is>
       </c>
       <c r="N132" t="inlineStr"/>
@@ -8004,24 +7816,24 @@
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>aspect:flatwise_shear_force</t>
+          <t>aspect:partial_blade_variation_factor_static</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>flatwise_shear_force</t>
+          <t>partial_blade_variation_factor_static</t>
         </is>
       </c>
       <c r="C133" t="inlineStr"/>
       <c r="D133" t="inlineStr"/>
       <c r="E133" t="inlineStr">
         <is>
-          <t>Flatwise shear force (chordwise coordinate system)</t>
+          <t>Partial blade-to-blade variation factor for full scale static bending blade testing</t>
         </is>
       </c>
       <c r="F133" t="inlineStr">
         <is>
-          <t>Flatwise Shear Force</t>
+          <t>Partial Blade Variation Factor Static</t>
         </is>
       </c>
       <c r="G133" t="inlineStr"/>
@@ -8030,21 +7842,13 @@
       <c r="J133" t="inlineStr"/>
       <c r="K133" t="inlineStr">
         <is>
-          <t>Fa</t>
+          <t>gamma_su</t>
         </is>
       </c>
       <c r="L133" t="inlineStr"/>
       <c r="M133" t="inlineStr"/>
-      <c r="N133" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
-      </c>
-      <c r="O133" t="inlineStr">
-        <is>
-          <t>lbf</t>
-        </is>
-      </c>
+      <c r="N133" t="inlineStr"/>
+      <c r="O133" t="inlineStr"/>
       <c r="P133" t="inlineStr"/>
       <c r="Q133" t="inlineStr">
         <is>
@@ -8069,47 +7873,39 @@
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>aspect:edgewise_shear_force</t>
+          <t>aspect:partial_test_static_load_factor</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>edgewise_shear_force</t>
+          <t>partial_test_static_load_factor</t>
         </is>
       </c>
       <c r="C134" t="inlineStr"/>
       <c r="D134" t="inlineStr"/>
       <c r="E134" t="inlineStr">
         <is>
-          <t>Edgewise shear force (chordwise coordinate system)</t>
+          <t>Partial test load enhancement factors for full scale blade static bending test loads</t>
         </is>
       </c>
       <c r="F134" t="inlineStr">
         <is>
-          <t>Edgewise Shear Force</t>
+          <t>Partial Test Static Load Factor</t>
         </is>
       </c>
       <c r="G134" t="inlineStr"/>
-      <c r="H134" t="inlineStr"/>
+      <c r="H134" t="inlineStr">
+        <is>
+          <t>gamma_1t, gamma_2t</t>
+        </is>
+      </c>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr">
-        <is>
-          <t>Fb</t>
-        </is>
-      </c>
+      <c r="K134" t="inlineStr"/>
       <c r="L134" t="inlineStr"/>
       <c r="M134" t="inlineStr"/>
-      <c r="N134" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
-      </c>
-      <c r="O134" t="inlineStr">
-        <is>
-          <t>lbf</t>
-        </is>
-      </c>
+      <c r="N134" t="inlineStr"/>
+      <c r="O134" t="inlineStr"/>
       <c r="P134" t="inlineStr"/>
       <c r="Q134" t="inlineStr">
         <is>
@@ -8134,51 +7930,43 @@
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>aspect:axial_force</t>
+          <t>aspect:poisson_ratio</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>axial_force</t>
+          <t>poisson_ratio</t>
         </is>
       </c>
       <c r="C135" t="inlineStr"/>
       <c r="D135" t="inlineStr"/>
       <c r="E135" t="inlineStr">
         <is>
-          <t>Axial (tensile) force (chordwise coordinate system)</t>
+          <t>Poisson's ratio</t>
         </is>
       </c>
       <c r="F135" t="inlineStr">
         <is>
-          <t>Axial Force</t>
+          <t>Poisson Ratio</t>
         </is>
       </c>
       <c r="G135" t="inlineStr"/>
-      <c r="H135" t="inlineStr"/>
+      <c r="H135" t="inlineStr">
+        <is>
+          <t>nu</t>
+        </is>
+      </c>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr">
-        <is>
-          <t>Fc</t>
-        </is>
-      </c>
+      <c r="K135" t="inlineStr"/>
       <c r="L135" t="inlineStr"/>
       <c r="M135" t="inlineStr">
         <is>
-          <t>spanwise_force</t>
-        </is>
-      </c>
-      <c r="N135" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
-      </c>
-      <c r="O135" t="inlineStr">
-        <is>
-          <t>lbf</t>
-        </is>
-      </c>
+          <t>mu</t>
+        </is>
+      </c>
+      <c r="N135" t="inlineStr"/>
+      <c r="O135" t="inlineStr"/>
       <c r="P135" t="inlineStr"/>
       <c r="Q135" t="inlineStr">
         <is>
@@ -8203,47 +7991,43 @@
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>aspect:flapwise_shear_force</t>
+          <t>aspect:fiber_density</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>flapwise_shear_force</t>
+          <t>fiber_density</t>
         </is>
       </c>
       <c r="C136" t="inlineStr"/>
       <c r="D136" t="inlineStr"/>
       <c r="E136" t="inlineStr">
         <is>
-          <t>Flapwise shear force (rotor coordinate system)</t>
+          <t>Fiber density</t>
         </is>
       </c>
       <c r="F136" t="inlineStr">
         <is>
-          <t>Flapwise Shear Force</t>
+          <t>Fiber Density</t>
         </is>
       </c>
       <c r="G136" t="inlineStr"/>
-      <c r="H136" t="inlineStr"/>
+      <c r="H136" t="inlineStr">
+        <is>
+          <t>rho_f</t>
+        </is>
+      </c>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr">
-        <is>
-          <t>Fx</t>
-        </is>
-      </c>
+      <c r="K136" t="inlineStr"/>
       <c r="L136" t="inlineStr"/>
       <c r="M136" t="inlineStr"/>
       <c r="N136" t="inlineStr">
         <is>
-          <t>N</t>
-        </is>
-      </c>
-      <c r="O136" t="inlineStr">
-        <is>
-          <t>lbf</t>
-        </is>
-      </c>
+          <t>g cm-3</t>
+        </is>
+      </c>
+      <c r="O136" t="inlineStr"/>
       <c r="P136" t="inlineStr"/>
       <c r="Q136" t="inlineStr">
         <is>
@@ -8268,47 +8052,43 @@
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>aspect:leadlag_shear_force</t>
+          <t>aspect:damping_ratio</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>leadlag_shear_force</t>
+          <t>damping_ratio</t>
         </is>
       </c>
       <c r="C137" t="inlineStr"/>
       <c r="D137" t="inlineStr"/>
       <c r="E137" t="inlineStr">
         <is>
-          <t>Lead-lag shear force (rotor coordinate system)</t>
+          <t>Damping ratio (damping coefficient)</t>
         </is>
       </c>
       <c r="F137" t="inlineStr">
         <is>
-          <t>Leadlag Shear Force</t>
+          <t>Damping Ratio</t>
         </is>
       </c>
       <c r="G137" t="inlineStr"/>
-      <c r="H137" t="inlineStr"/>
+      <c r="H137" t="inlineStr">
+        <is>
+          <t>zeta</t>
+        </is>
+      </c>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr">
-        <is>
-          <t>Fy</t>
-        </is>
-      </c>
+      <c r="K137" t="inlineStr"/>
       <c r="L137" t="inlineStr"/>
-      <c r="M137" t="inlineStr"/>
-      <c r="N137" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
-      </c>
-      <c r="O137" t="inlineStr">
-        <is>
-          <t>lbf</t>
-        </is>
-      </c>
+      <c r="M137" t="inlineStr">
+        <is>
+          <t>damping_coefficient</t>
+        </is>
+      </c>
+      <c r="N137" t="inlineStr"/>
+      <c r="O137" t="inlineStr"/>
       <c r="P137" t="inlineStr"/>
       <c r="Q137" t="inlineStr">
         <is>
@@ -8333,47 +8113,39 @@
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>aspect:spanwise_force</t>
+          <t>aspect:number_cycles_bin</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>spanwise_force</t>
+          <t>number_cycles_bin</t>
         </is>
       </c>
       <c r="C138" t="inlineStr"/>
       <c r="D138" t="inlineStr"/>
       <c r="E138" t="inlineStr">
         <is>
-          <t>Spanwise (tensile) force (rotor coordinate system)</t>
+          <t>Number of load cycles in fatigue load bin i</t>
         </is>
       </c>
       <c r="F138" t="inlineStr">
         <is>
-          <t>Spanwise Force</t>
+          <t>Number Cycles Bin</t>
         </is>
       </c>
       <c r="G138" t="inlineStr"/>
-      <c r="H138" t="inlineStr"/>
+      <c r="H138" t="inlineStr">
+        <is>
+          <t>ni</t>
+        </is>
+      </c>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr">
-        <is>
-          <t>Fz</t>
-        </is>
-      </c>
+      <c r="K138" t="inlineStr"/>
       <c r="L138" t="inlineStr"/>
       <c r="M138" t="inlineStr"/>
-      <c r="N138" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
-      </c>
-      <c r="O138" t="inlineStr">
-        <is>
-          <t>lbf</t>
-        </is>
-      </c>
+      <c r="N138" t="inlineStr"/>
+      <c r="O138" t="inlineStr"/>
       <c r="P138" t="inlineStr"/>
       <c r="Q138" t="inlineStr">
         <is>
@@ -8398,47 +8170,39 @@
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>aspect:edgewise_bending_moment</t>
+          <t>aspect:permissible_number_cycles_bin</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>edgewise_bending_moment</t>
+          <t>permissible_number_cycles_bin</t>
         </is>
       </c>
       <c r="C139" t="inlineStr"/>
       <c r="D139" t="inlineStr"/>
       <c r="E139" t="inlineStr">
         <is>
-          <t>Edgewise bending moment (chordwise coordinate system)</t>
+          <t>Permissible number of cycles for the load amplitude SkA and mean SkM in bin i.</t>
         </is>
       </c>
       <c r="F139" t="inlineStr">
         <is>
-          <t>Edgewise Bending Moment</t>
+          <t>Permissible Number Cycles Bin</t>
         </is>
       </c>
       <c r="G139" t="inlineStr"/>
-      <c r="H139" t="inlineStr"/>
+      <c r="H139" t="inlineStr">
+        <is>
+          <t>Ni</t>
+        </is>
+      </c>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr">
-        <is>
-          <t>Ma</t>
-        </is>
-      </c>
+      <c r="K139" t="inlineStr"/>
       <c r="L139" t="inlineStr"/>
       <c r="M139" t="inlineStr"/>
-      <c r="N139" t="inlineStr">
-        <is>
-          <t>N m</t>
-        </is>
-      </c>
-      <c r="O139" t="inlineStr">
-        <is>
-          <t>lbf ft</t>
-        </is>
-      </c>
+      <c r="N139" t="inlineStr"/>
+      <c r="O139" t="inlineStr"/>
       <c r="P139" t="inlineStr"/>
       <c r="Q139" t="inlineStr">
         <is>
@@ -8463,47 +8227,47 @@
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>aspect:flatwise_bending_moment</t>
+          <t>aspect:equivalent_damage</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>flatwise_bending_moment</t>
+          <t>equivalent_damage</t>
         </is>
       </c>
       <c r="C140" t="inlineStr"/>
       <c r="D140" t="inlineStr"/>
       <c r="E140" t="inlineStr">
         <is>
-          <t>Flatwise bending moment (chordwise coordinate system)</t>
+          <t>Equivalent damage (theoretical damage)</t>
         </is>
       </c>
       <c r="F140" t="inlineStr">
         <is>
-          <t>Flatwise Bending Moment</t>
+          <t>Equivalent Damage</t>
         </is>
       </c>
       <c r="G140" t="inlineStr"/>
-      <c r="H140" t="inlineStr"/>
+      <c r="H140" t="inlineStr">
+        <is>
+          <t>total_damage</t>
+        </is>
+      </c>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
       <c r="K140" t="inlineStr">
         <is>
-          <t>Mb</t>
+          <t>theoretical_damage</t>
         </is>
       </c>
       <c r="L140" t="inlineStr"/>
-      <c r="M140" t="inlineStr"/>
-      <c r="N140" t="inlineStr">
-        <is>
-          <t>N m</t>
-        </is>
-      </c>
-      <c r="O140" t="inlineStr">
-        <is>
-          <t>lbf ft</t>
-        </is>
-      </c>
+      <c r="M140" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="N140" t="inlineStr"/>
+      <c r="O140" t="inlineStr"/>
       <c r="P140" t="inlineStr"/>
       <c r="Q140" t="inlineStr">
         <is>
@@ -8528,24 +8292,24 @@
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>aspect:torsion_moment</t>
+          <t>aspect:flatwise_shear_force</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>torsion_moment</t>
+          <t>flatwise_shear_force</t>
         </is>
       </c>
       <c r="C141" t="inlineStr"/>
       <c r="D141" t="inlineStr"/>
       <c r="E141" t="inlineStr">
         <is>
-          <t>Blade torsion moment (chordwise coordinate system)</t>
+          <t>Flatwise shear force (chordwise coordinate system)</t>
         </is>
       </c>
       <c r="F141" t="inlineStr">
         <is>
-          <t>Torsion Moment</t>
+          <t>Flatwise Shear Force</t>
         </is>
       </c>
       <c r="G141" t="inlineStr"/>
@@ -8554,23 +8318,19 @@
       <c r="J141" t="inlineStr"/>
       <c r="K141" t="inlineStr">
         <is>
-          <t>Mc</t>
+          <t>Fa</t>
         </is>
       </c>
       <c r="L141" t="inlineStr"/>
-      <c r="M141" t="inlineStr">
-        <is>
-          <t>blade_torsion_moment</t>
-        </is>
-      </c>
+      <c r="M141" t="inlineStr"/>
       <c r="N141" t="inlineStr">
         <is>
-          <t>N m</t>
+          <t>N</t>
         </is>
       </c>
       <c r="O141" t="inlineStr">
         <is>
-          <t>lbf ft</t>
+          <t>lbf</t>
         </is>
       </c>
       <c r="P141" t="inlineStr"/>
@@ -8597,24 +8357,24 @@
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>aspect:leadlag_bending_moment</t>
+          <t>aspect:edgewise_shear_force</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>leadlag_bending_moment</t>
+          <t>edgewise_shear_force</t>
         </is>
       </c>
       <c r="C142" t="inlineStr"/>
       <c r="D142" t="inlineStr"/>
       <c r="E142" t="inlineStr">
         <is>
-          <t>Lead-lag bending moment (rotor coordinate system)</t>
+          <t>Edgewise shear force (chordwise coordinate system)</t>
         </is>
       </c>
       <c r="F142" t="inlineStr">
         <is>
-          <t>Leadlag Bending Moment</t>
+          <t>Edgewise Shear Force</t>
         </is>
       </c>
       <c r="G142" t="inlineStr"/>
@@ -8623,23 +8383,19 @@
       <c r="J142" t="inlineStr"/>
       <c r="K142" t="inlineStr">
         <is>
-          <t>Mx</t>
-        </is>
-      </c>
-      <c r="L142" t="inlineStr">
-        <is>
-          <t>Mbe</t>
-        </is>
-      </c>
+          <t>Fb</t>
+        </is>
+      </c>
+      <c r="L142" t="inlineStr"/>
       <c r="M142" t="inlineStr"/>
       <c r="N142" t="inlineStr">
         <is>
-          <t>N m</t>
+          <t>N</t>
         </is>
       </c>
       <c r="O142" t="inlineStr">
         <is>
-          <t>lbf ft</t>
+          <t>lbf</t>
         </is>
       </c>
       <c r="P142" t="inlineStr"/>
@@ -8666,24 +8422,24 @@
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>aspect:flapwise_bending_moment</t>
+          <t>aspect:axial_force</t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>flapwise_bending_moment</t>
+          <t>axial_force</t>
         </is>
       </c>
       <c r="C143" t="inlineStr"/>
       <c r="D143" t="inlineStr"/>
       <c r="E143" t="inlineStr">
         <is>
-          <t>Flapwise bending moment (rotor coordinate system)</t>
+          <t>Axial (tensile) force (chordwise coordinate system)</t>
         </is>
       </c>
       <c r="F143" t="inlineStr">
         <is>
-          <t>Flapwise Bending Moment</t>
+          <t>Axial Force</t>
         </is>
       </c>
       <c r="G143" t="inlineStr"/>
@@ -8692,23 +8448,23 @@
       <c r="J143" t="inlineStr"/>
       <c r="K143" t="inlineStr">
         <is>
-          <t>My</t>
-        </is>
-      </c>
-      <c r="L143" t="inlineStr">
-        <is>
-          <t>Mbf</t>
-        </is>
-      </c>
-      <c r="M143" t="inlineStr"/>
+          <t>Fc</t>
+        </is>
+      </c>
+      <c r="L143" t="inlineStr"/>
+      <c r="M143" t="inlineStr">
+        <is>
+          <t>spanwise_force</t>
+        </is>
+      </c>
       <c r="N143" t="inlineStr">
         <is>
-          <t>N m</t>
+          <t>N</t>
         </is>
       </c>
       <c r="O143" t="inlineStr">
         <is>
-          <t>lbf ft</t>
+          <t>lbf</t>
         </is>
       </c>
       <c r="P143" t="inlineStr"/>
@@ -8735,24 +8491,24 @@
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>aspect:blade_torsion_moment</t>
+          <t>aspect:flapwise_shear_force</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>blade_torsion_moment</t>
+          <t>flapwise_shear_force</t>
         </is>
       </c>
       <c r="C144" t="inlineStr"/>
       <c r="D144" t="inlineStr"/>
       <c r="E144" t="inlineStr">
         <is>
-          <t>Blade torsion moment (rotor coordinate system)</t>
+          <t>Flapwise shear force (rotor coordinate system)</t>
         </is>
       </c>
       <c r="F144" t="inlineStr">
         <is>
-          <t>Blade Torsion Moment</t>
+          <t>Flapwise Shear Force</t>
         </is>
       </c>
       <c r="G144" t="inlineStr"/>
@@ -8761,19 +8517,19 @@
       <c r="J144" t="inlineStr"/>
       <c r="K144" t="inlineStr">
         <is>
-          <t>Mz</t>
+          <t>Fx</t>
         </is>
       </c>
       <c r="L144" t="inlineStr"/>
       <c r="M144" t="inlineStr"/>
       <c r="N144" t="inlineStr">
         <is>
-          <t>N m</t>
+          <t>N</t>
         </is>
       </c>
       <c r="O144" t="inlineStr">
         <is>
-          <t>lbf ft</t>
+          <t>lbf</t>
         </is>
       </c>
       <c r="P144" t="inlineStr"/>
@@ -8800,24 +8556,24 @@
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>aspect:partial_consequence_failure_factor</t>
+          <t>aspect:leadlag_shear_force</t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>partial_consequence_failure_factor</t>
+          <t>leadlag_shear_force</t>
         </is>
       </c>
       <c r="C145" t="inlineStr"/>
       <c r="D145" t="inlineStr"/>
       <c r="E145" t="inlineStr">
         <is>
-          <t>Partial factors for consequences of failure</t>
+          <t>Lead-lag shear force (rotor coordinate system)</t>
         </is>
       </c>
       <c r="F145" t="inlineStr">
         <is>
-          <t>Partial Consequence Failure Factor</t>
+          <t>Leadlag Shear Force</t>
         </is>
       </c>
       <c r="G145" t="inlineStr"/>
@@ -8826,13 +8582,21 @@
       <c r="J145" t="inlineStr"/>
       <c r="K145" t="inlineStr">
         <is>
-          <t>gamma_n</t>
+          <t>Fy</t>
         </is>
       </c>
       <c r="L145" t="inlineStr"/>
       <c r="M145" t="inlineStr"/>
-      <c r="N145" t="inlineStr"/>
-      <c r="O145" t="inlineStr"/>
+      <c r="N145" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="O145" t="inlineStr">
+        <is>
+          <t>lbf</t>
+        </is>
+      </c>
       <c r="P145" t="inlineStr"/>
       <c r="Q145" t="inlineStr">
         <is>
@@ -8857,24 +8621,24 @@
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>aspect:partial_consequence_failure_factor_static</t>
+          <t>aspect:spanwise_force</t>
         </is>
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>partial_consequence_failure_factor_static</t>
+          <t>spanwise_force</t>
         </is>
       </c>
       <c r="C146" t="inlineStr"/>
       <c r="D146" t="inlineStr"/>
       <c r="E146" t="inlineStr">
         <is>
-          <t>Partial factors for consequences of failure due to static load</t>
+          <t>Spanwise (tensile) force (rotor coordinate system)</t>
         </is>
       </c>
       <c r="F146" t="inlineStr">
         <is>
-          <t>Partial Consequence Failure Factor Static</t>
+          <t>Spanwise Force</t>
         </is>
       </c>
       <c r="G146" t="inlineStr"/>
@@ -8883,13 +8647,21 @@
       <c r="J146" t="inlineStr"/>
       <c r="K146" t="inlineStr">
         <is>
-          <t>gamma_nu</t>
+          <t>Fz</t>
         </is>
       </c>
       <c r="L146" t="inlineStr"/>
       <c r="M146" t="inlineStr"/>
-      <c r="N146" t="inlineStr"/>
-      <c r="O146" t="inlineStr"/>
+      <c r="N146" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="O146" t="inlineStr">
+        <is>
+          <t>lbf</t>
+        </is>
+      </c>
       <c r="P146" t="inlineStr"/>
       <c r="Q146" t="inlineStr">
         <is>
@@ -8914,24 +8686,24 @@
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>aspect:partial_consequence_failure_factor_fatigue</t>
+          <t>aspect:edgewise_bending_moment</t>
         </is>
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>partial_consequence_failure_factor_fatigue</t>
+          <t>edgewise_bending_moment</t>
         </is>
       </c>
       <c r="C147" t="inlineStr"/>
       <c r="D147" t="inlineStr"/>
       <c r="E147" t="inlineStr">
         <is>
-          <t>Partial factors for consequences of failure due to fatigue load</t>
+          <t>Edgewise bending moment (chordwise coordinate system)</t>
         </is>
       </c>
       <c r="F147" t="inlineStr">
         <is>
-          <t>Partial Consequence Failure Factor Fatigue</t>
+          <t>Edgewise Bending Moment</t>
         </is>
       </c>
       <c r="G147" t="inlineStr"/>
@@ -8940,13 +8712,21 @@
       <c r="J147" t="inlineStr"/>
       <c r="K147" t="inlineStr">
         <is>
-          <t>gamma_nf</t>
+          <t>Ma</t>
         </is>
       </c>
       <c r="L147" t="inlineStr"/>
       <c r="M147" t="inlineStr"/>
-      <c r="N147" t="inlineStr"/>
-      <c r="O147" t="inlineStr"/>
+      <c r="N147" t="inlineStr">
+        <is>
+          <t>N m</t>
+        </is>
+      </c>
+      <c r="O147" t="inlineStr">
+        <is>
+          <t>lbf ft</t>
+        </is>
+      </c>
       <c r="P147" t="inlineStr"/>
       <c r="Q147" t="inlineStr">
         <is>
@@ -8971,24 +8751,24 @@
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>aspect:static_target_test_load</t>
+          <t>aspect:flatwise_bending_moment</t>
         </is>
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>static_target_test_load</t>
+          <t>flatwise_bending_moment</t>
         </is>
       </c>
       <c r="C148" t="inlineStr"/>
       <c r="D148" t="inlineStr"/>
       <c r="E148" t="inlineStr">
         <is>
-          <t>Target load for static test</t>
+          <t>Flatwise bending moment (chordwise coordinate system)</t>
         </is>
       </c>
       <c r="F148" t="inlineStr">
         <is>
-          <t>Static Target Test Load</t>
+          <t>Flatwise Bending Moment</t>
         </is>
       </c>
       <c r="G148" t="inlineStr"/>
@@ -8997,7 +8777,7 @@
       <c r="J148" t="inlineStr"/>
       <c r="K148" t="inlineStr">
         <is>
-          <t>Ftargetu</t>
+          <t>Mb</t>
         </is>
       </c>
       <c r="L148" t="inlineStr"/>
@@ -9036,24 +8816,24 @@
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>aspect:fatigue_target_test_load</t>
+          <t>aspect:torsion_moment</t>
         </is>
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>fatigue_target_test_load</t>
+          <t>torsion_moment</t>
         </is>
       </c>
       <c r="C149" t="inlineStr"/>
       <c r="D149" t="inlineStr"/>
       <c r="E149" t="inlineStr">
         <is>
-          <t>Target load for fatigue test</t>
+          <t>Blade torsion moment (chordwise coordinate system)</t>
         </is>
       </c>
       <c r="F149" t="inlineStr">
         <is>
-          <t>Fatigue Target Test Load</t>
+          <t>Torsion Moment</t>
         </is>
       </c>
       <c r="G149" t="inlineStr"/>
@@ -9062,11 +8842,15 @@
       <c r="J149" t="inlineStr"/>
       <c r="K149" t="inlineStr">
         <is>
-          <t>Ftargetf</t>
+          <t>Mc</t>
         </is>
       </c>
       <c r="L149" t="inlineStr"/>
-      <c r="M149" t="inlineStr"/>
+      <c r="M149" t="inlineStr">
+        <is>
+          <t>blade_torsion_moment</t>
+        </is>
+      </c>
       <c r="N149" t="inlineStr">
         <is>
           <t>N m</t>
@@ -9101,24 +8885,24 @@
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>aspect:partial_environmental_factor_static</t>
+          <t>aspect:leadlag_bending_moment</t>
         </is>
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>partial_environmental_factor_static</t>
+          <t>leadlag_bending_moment</t>
         </is>
       </c>
       <c r="C150" t="inlineStr"/>
       <c r="D150" t="inlineStr"/>
       <c r="E150" t="inlineStr">
         <is>
-          <t>Partial factors for environmental effects during static tests</t>
+          <t>Lead-lag bending moment (rotor coordinate system)</t>
         </is>
       </c>
       <c r="F150" t="inlineStr">
         <is>
-          <t>Partial Environmental Factor Static</t>
+          <t>Leadlag Bending Moment</t>
         </is>
       </c>
       <c r="G150" t="inlineStr"/>
@@ -9127,13 +8911,25 @@
       <c r="J150" t="inlineStr"/>
       <c r="K150" t="inlineStr">
         <is>
-          <t>gamma_lu</t>
-        </is>
-      </c>
-      <c r="L150" t="inlineStr"/>
+          <t>Mx</t>
+        </is>
+      </c>
+      <c r="L150" t="inlineStr">
+        <is>
+          <t>Mbe</t>
+        </is>
+      </c>
       <c r="M150" t="inlineStr"/>
-      <c r="N150" t="inlineStr"/>
-      <c r="O150" t="inlineStr"/>
+      <c r="N150" t="inlineStr">
+        <is>
+          <t>N m</t>
+        </is>
+      </c>
+      <c r="O150" t="inlineStr">
+        <is>
+          <t>lbf ft</t>
+        </is>
+      </c>
       <c r="P150" t="inlineStr"/>
       <c r="Q150" t="inlineStr">
         <is>
@@ -9158,24 +8954,24 @@
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>aspect:partial_environmental_factor_fatigue</t>
+          <t>aspect:flapwise_bending_moment</t>
         </is>
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>partial_environmental_factor_fatigue</t>
+          <t>flapwise_bending_moment</t>
         </is>
       </c>
       <c r="C151" t="inlineStr"/>
       <c r="D151" t="inlineStr"/>
       <c r="E151" t="inlineStr">
         <is>
-          <t>Partial factors for environmental effects during fatigue tests</t>
+          <t>Flapwise bending moment (rotor coordinate system)</t>
         </is>
       </c>
       <c r="F151" t="inlineStr">
         <is>
-          <t>Partial Environmental Factor Fatigue</t>
+          <t>Flapwise Bending Moment</t>
         </is>
       </c>
       <c r="G151" t="inlineStr"/>
@@ -9184,13 +8980,25 @@
       <c r="J151" t="inlineStr"/>
       <c r="K151" t="inlineStr">
         <is>
-          <t>gamma_lf</t>
-        </is>
-      </c>
-      <c r="L151" t="inlineStr"/>
+          <t>My</t>
+        </is>
+      </c>
+      <c r="L151" t="inlineStr">
+        <is>
+          <t>Mbf</t>
+        </is>
+      </c>
       <c r="M151" t="inlineStr"/>
-      <c r="N151" t="inlineStr"/>
-      <c r="O151" t="inlineStr"/>
+      <c r="N151" t="inlineStr">
+        <is>
+          <t>N m</t>
+        </is>
+      </c>
+      <c r="O151" t="inlineStr">
+        <is>
+          <t>lbf ft</t>
+        </is>
+      </c>
       <c r="P151" t="inlineStr"/>
       <c r="Q151" t="inlineStr">
         <is>
@@ -9215,24 +9023,24 @@
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>aspect:relative_fatigue_strain_factor</t>
+          <t>aspect:blade_torsion_moment</t>
         </is>
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>relative_fatigue_strain_factor</t>
+          <t>blade_torsion_moment</t>
         </is>
       </c>
       <c r="C152" t="inlineStr"/>
       <c r="D152" t="inlineStr"/>
       <c r="E152" t="inlineStr">
         <is>
-          <t>Relative Fatigue Strain Factor</t>
+          <t>Blade torsion moment (rotor coordinate system)</t>
         </is>
       </c>
       <c r="F152" t="inlineStr">
         <is>
-          <t>Relative Fatigue Strain Factor</t>
+          <t>Blade Torsion Moment</t>
         </is>
       </c>
       <c r="G152" t="inlineStr"/>
@@ -9241,13 +9049,21 @@
       <c r="J152" t="inlineStr"/>
       <c r="K152" t="inlineStr">
         <is>
-          <t>rFSF</t>
+          <t>Mz</t>
         </is>
       </c>
       <c r="L152" t="inlineStr"/>
       <c r="M152" t="inlineStr"/>
-      <c r="N152" t="inlineStr"/>
-      <c r="O152" t="inlineStr"/>
+      <c r="N152" t="inlineStr">
+        <is>
+          <t>N m</t>
+        </is>
+      </c>
+      <c r="O152" t="inlineStr">
+        <is>
+          <t>lbf ft</t>
+        </is>
+      </c>
       <c r="P152" t="inlineStr"/>
       <c r="Q152" t="inlineStr">
         <is>
@@ -9272,24 +9088,24 @@
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>aspect:fatigue_strain_factor_target_load</t>
+          <t>aspect:partial_consequence_failure_factor</t>
         </is>
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>fatigue_strain_factor_target_load</t>
+          <t>partial_consequence_failure_factor</t>
         </is>
       </c>
       <c r="C153" t="inlineStr"/>
       <c r="D153" t="inlineStr"/>
       <c r="E153" t="inlineStr">
         <is>
-          <t>Fatigue Strain Factor Target Load</t>
+          <t>Partial factors for consequences of failure</t>
         </is>
       </c>
       <c r="F153" t="inlineStr">
         <is>
-          <t>Fatigue Strain Factor Target Load</t>
+          <t>Partial Consequence Failure Factor</t>
         </is>
       </c>
       <c r="G153" t="inlineStr"/>
@@ -9298,7 +9114,7 @@
       <c r="J153" t="inlineStr"/>
       <c r="K153" t="inlineStr">
         <is>
-          <t>FSFtarget</t>
+          <t>gamma_n</t>
         </is>
       </c>
       <c r="L153" t="inlineStr"/>
@@ -9329,24 +9145,24 @@
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>aspect:fatigue_strain_factor_test_load</t>
+          <t>aspect:partial_consequence_failure_factor_static</t>
         </is>
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>fatigue_strain_factor_test_load</t>
+          <t>partial_consequence_failure_factor_static</t>
         </is>
       </c>
       <c r="C154" t="inlineStr"/>
       <c r="D154" t="inlineStr"/>
       <c r="E154" t="inlineStr">
         <is>
-          <t>Fatigue Strain Factor Test Load</t>
+          <t>Partial factors for consequences of failure due to static load</t>
         </is>
       </c>
       <c r="F154" t="inlineStr">
         <is>
-          <t>Fatigue Strain Factor Test Load</t>
+          <t>Partial Consequence Failure Factor Static</t>
         </is>
       </c>
       <c r="G154" t="inlineStr"/>
@@ -9355,7 +9171,7 @@
       <c r="J154" t="inlineStr"/>
       <c r="K154" t="inlineStr">
         <is>
-          <t>FSFtest</t>
+          <t>gamma_nu</t>
         </is>
       </c>
       <c r="L154" t="inlineStr"/>
@@ -9386,24 +9202,24 @@
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>aspect:reduced_dynamic_strength_one_cycle</t>
+          <t>aspect:partial_consequence_failure_factor_fatigue</t>
         </is>
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>reduced_dynamic_strength_one_cycle</t>
+          <t>partial_consequence_failure_factor_fatigue</t>
         </is>
       </c>
       <c r="C155" t="inlineStr"/>
       <c r="D155" t="inlineStr"/>
       <c r="E155" t="inlineStr">
         <is>
-          <t>Reduced dynamic strength valid for one load cycle</t>
+          <t>Partial factors for consequences of failure due to fatigue load</t>
         </is>
       </c>
       <c r="F155" t="inlineStr">
         <is>
-          <t>Reduced Dynamic Strength One Cycle</t>
+          <t>Partial Consequence Failure Factor Fatigue</t>
         </is>
       </c>
       <c r="G155" t="inlineStr"/>
@@ -9412,7 +9228,7 @@
       <c r="J155" t="inlineStr"/>
       <c r="K155" t="inlineStr">
         <is>
-          <t>Dr</t>
+          <t>gamma_nf</t>
         </is>
       </c>
       <c r="L155" t="inlineStr"/>
@@ -9443,24 +9259,24 @@
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>aspect:dynamic_strength_one_cycle</t>
+          <t>aspect:static_target_test_load</t>
         </is>
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>dynamic_strength_one_cycle</t>
+          <t>static_target_test_load</t>
         </is>
       </c>
       <c r="C156" t="inlineStr"/>
       <c r="D156" t="inlineStr"/>
       <c r="E156" t="inlineStr">
         <is>
-          <t>Dynamic strength valid for one load cycle</t>
+          <t>Target load for static test</t>
         </is>
       </c>
       <c r="F156" t="inlineStr">
         <is>
-          <t>Dynamic Strength One Cycle</t>
+          <t>Static Target Test Load</t>
         </is>
       </c>
       <c r="G156" t="inlineStr"/>
@@ -9469,13 +9285,21 @@
       <c r="J156" t="inlineStr"/>
       <c r="K156" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>Ftargetu</t>
         </is>
       </c>
       <c r="L156" t="inlineStr"/>
       <c r="M156" t="inlineStr"/>
-      <c r="N156" t="inlineStr"/>
-      <c r="O156" t="inlineStr"/>
+      <c r="N156" t="inlineStr">
+        <is>
+          <t>N m</t>
+        </is>
+      </c>
+      <c r="O156" t="inlineStr">
+        <is>
+          <t>lbf ft</t>
+        </is>
+      </c>
       <c r="P156" t="inlineStr"/>
       <c r="Q156" t="inlineStr">
         <is>
@@ -9500,24 +9324,24 @@
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>aspect:allowed_number_cycles</t>
+          <t>aspect:fatigue_target_test_load</t>
         </is>
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>allowed_number_cycles</t>
+          <t>fatigue_target_test_load</t>
         </is>
       </c>
       <c r="C157" t="inlineStr"/>
       <c r="D157" t="inlineStr"/>
       <c r="E157" t="inlineStr">
         <is>
-          <t>Allowed number of load cycles</t>
+          <t>Target load for fatigue test</t>
         </is>
       </c>
       <c r="F157" t="inlineStr">
         <is>
-          <t>Allowed Number Cycles</t>
+          <t>Fatigue Target Test Load</t>
         </is>
       </c>
       <c r="G157" t="inlineStr"/>
@@ -9526,13 +9350,21 @@
       <c r="J157" t="inlineStr"/>
       <c r="K157" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>Ftargetf</t>
         </is>
       </c>
       <c r="L157" t="inlineStr"/>
       <c r="M157" t="inlineStr"/>
-      <c r="N157" t="inlineStr"/>
-      <c r="O157" t="inlineStr"/>
+      <c r="N157" t="inlineStr">
+        <is>
+          <t>N m</t>
+        </is>
+      </c>
+      <c r="O157" t="inlineStr">
+        <is>
+          <t>lbf ft</t>
+        </is>
+      </c>
       <c r="P157" t="inlineStr"/>
       <c r="Q157" t="inlineStr">
         <is>
@@ -9557,24 +9389,24 @@
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>aspect:load_range_test</t>
+          <t>aspect:partial_environmental_factor_static</t>
         </is>
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>load_range_test</t>
+          <t>partial_environmental_factor_static</t>
         </is>
       </c>
       <c r="C158" t="inlineStr"/>
       <c r="D158" t="inlineStr"/>
       <c r="E158" t="inlineStr">
         <is>
-          <t>Load range within a cycle loading block during the test</t>
+          <t>Partial factors for environmental effects during static tests</t>
         </is>
       </c>
       <c r="F158" t="inlineStr">
         <is>
-          <t>Load Range Test</t>
+          <t>Partial Environmental Factor Static</t>
         </is>
       </c>
       <c r="G158" t="inlineStr"/>
@@ -9583,21 +9415,13 @@
       <c r="J158" t="inlineStr"/>
       <c r="K158" t="inlineStr">
         <is>
-          <t>Wt, load_width_test</t>
+          <t>gamma_lu</t>
         </is>
       </c>
       <c r="L158" t="inlineStr"/>
       <c r="M158" t="inlineStr"/>
-      <c r="N158" t="inlineStr">
-        <is>
-          <t>N m</t>
-        </is>
-      </c>
-      <c r="O158" t="inlineStr">
-        <is>
-          <t>lbf ft</t>
-        </is>
-      </c>
+      <c r="N158" t="inlineStr"/>
+      <c r="O158" t="inlineStr"/>
       <c r="P158" t="inlineStr"/>
       <c r="Q158" t="inlineStr">
         <is>
@@ -9622,24 +9446,24 @@
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>aspect:load_mean_test</t>
+          <t>aspect:partial_environmental_factor_fatigue</t>
         </is>
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>load_mean_test</t>
+          <t>partial_environmental_factor_fatigue</t>
         </is>
       </c>
       <c r="C159" t="inlineStr"/>
       <c r="D159" t="inlineStr"/>
       <c r="E159" t="inlineStr">
         <is>
-          <t>Load mean within a cycle loading block during the test</t>
+          <t>Partial factors for environmental effects during fatigue tests</t>
         </is>
       </c>
       <c r="F159" t="inlineStr">
         <is>
-          <t>Load Mean Test</t>
+          <t>Partial Environmental Factor Fatigue</t>
         </is>
       </c>
       <c r="G159" t="inlineStr"/>
@@ -9648,21 +9472,13 @@
       <c r="J159" t="inlineStr"/>
       <c r="K159" t="inlineStr">
         <is>
-          <t>Mt</t>
+          <t>gamma_lf</t>
         </is>
       </c>
       <c r="L159" t="inlineStr"/>
       <c r="M159" t="inlineStr"/>
-      <c r="N159" t="inlineStr">
-        <is>
-          <t>N m</t>
-        </is>
-      </c>
-      <c r="O159" t="inlineStr">
-        <is>
-          <t>lbf ft</t>
-        </is>
-      </c>
+      <c r="N159" t="inlineStr"/>
+      <c r="O159" t="inlineStr"/>
       <c r="P159" t="inlineStr"/>
       <c r="Q159" t="inlineStr">
         <is>
@@ -9687,24 +9503,24 @@
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>aspect:load_range_calculated</t>
+          <t>aspect:relative_fatigue_strain_factor</t>
         </is>
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>load_range_calculated</t>
+          <t>relative_fatigue_strain_factor</t>
         </is>
       </c>
       <c r="C160" t="inlineStr"/>
       <c r="D160" t="inlineStr"/>
       <c r="E160" t="inlineStr">
         <is>
-          <t>Calculated load range within a cycle loading block</t>
+          <t>Relative Fatigue Strain Factor</t>
         </is>
       </c>
       <c r="F160" t="inlineStr">
         <is>
-          <t>Load Range Calculated</t>
+          <t>Relative Fatigue Strain Factor</t>
         </is>
       </c>
       <c r="G160" t="inlineStr"/>
@@ -9713,21 +9529,13 @@
       <c r="J160" t="inlineStr"/>
       <c r="K160" t="inlineStr">
         <is>
-          <t>W0, load_width_calculated</t>
+          <t>rFSF</t>
         </is>
       </c>
       <c r="L160" t="inlineStr"/>
       <c r="M160" t="inlineStr"/>
-      <c r="N160" t="inlineStr">
-        <is>
-          <t>N m</t>
-        </is>
-      </c>
-      <c r="O160" t="inlineStr">
-        <is>
-          <t>lbf ft</t>
-        </is>
-      </c>
+      <c r="N160" t="inlineStr"/>
+      <c r="O160" t="inlineStr"/>
       <c r="P160" t="inlineStr"/>
       <c r="Q160" t="inlineStr">
         <is>
@@ -9752,24 +9560,24 @@
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>aspect:load_mean_calculated</t>
+          <t>aspect:fatigue_strain_factor_target_load</t>
         </is>
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>load_mean_calculated</t>
+          <t>fatigue_strain_factor_target_load</t>
         </is>
       </c>
       <c r="C161" t="inlineStr"/>
       <c r="D161" t="inlineStr"/>
       <c r="E161" t="inlineStr">
         <is>
-          <t>Calculated load mean within a cycle loading block</t>
+          <t>Fatigue Strain Factor Target Load</t>
         </is>
       </c>
       <c r="F161" t="inlineStr">
         <is>
-          <t>Load Mean Calculated</t>
+          <t>Fatigue Strain Factor Target Load</t>
         </is>
       </c>
       <c r="G161" t="inlineStr"/>
@@ -9778,21 +9586,13 @@
       <c r="J161" t="inlineStr"/>
       <c r="K161" t="inlineStr">
         <is>
-          <t>M0</t>
+          <t>FSFtarget</t>
         </is>
       </c>
       <c r="L161" t="inlineStr"/>
       <c r="M161" t="inlineStr"/>
-      <c r="N161" t="inlineStr">
-        <is>
-          <t>N m</t>
-        </is>
-      </c>
-      <c r="O161" t="inlineStr">
-        <is>
-          <t>lbf ft</t>
-        </is>
-      </c>
+      <c r="N161" t="inlineStr"/>
+      <c r="O161" t="inlineStr"/>
       <c r="P161" t="inlineStr"/>
       <c r="Q161" t="inlineStr">
         <is>
@@ -9817,24 +9617,24 @@
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>aspect:test_load_factor</t>
+          <t>aspect:fatigue_strain_factor_test_load</t>
         </is>
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>test_load_factor</t>
+          <t>fatigue_strain_factor_test_load</t>
         </is>
       </c>
       <c r="C162" t="inlineStr"/>
       <c r="D162" t="inlineStr"/>
       <c r="E162" t="inlineStr">
         <is>
-          <t>Test load factor</t>
+          <t>Fatigue Strain Factor Test Load</t>
         </is>
       </c>
       <c r="F162" t="inlineStr">
         <is>
-          <t>Test Load Factor</t>
+          <t>Fatigue Strain Factor Test Load</t>
         </is>
       </c>
       <c r="G162" t="inlineStr"/>
@@ -9843,7 +9643,7 @@
       <c r="J162" t="inlineStr"/>
       <c r="K162" t="inlineStr">
         <is>
-          <t>gamma_test</t>
+          <t>FSFtest</t>
         </is>
       </c>
       <c r="L162" t="inlineStr"/>
@@ -9874,24 +9674,24 @@
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>aspect:relative_effect_change_number_cycles</t>
+          <t>aspect:reduced_dynamic_strength_one_cycle</t>
         </is>
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>relative_effect_change_number_cycles</t>
+          <t>reduced_dynamic_strength_one_cycle</t>
         </is>
       </c>
       <c r="C163" t="inlineStr"/>
       <c r="D163" t="inlineStr"/>
       <c r="E163" t="inlineStr">
         <is>
-          <t>Relative effect of changing from one number of load cycles (nt1) to another (nt2)</t>
+          <t>Reduced dynamic strength valid for one load cycle</t>
         </is>
       </c>
       <c r="F163" t="inlineStr">
         <is>
-          <t>Relative Effect Change Number Cycles</t>
+          <t>Reduced Dynamic Strength One Cycle</t>
         </is>
       </c>
       <c r="G163" t="inlineStr"/>
@@ -9900,7 +9700,7 @@
       <c r="J163" t="inlineStr"/>
       <c r="K163" t="inlineStr">
         <is>
-          <t>R</t>
+          <t>Dr</t>
         </is>
       </c>
       <c r="L163" t="inlineStr"/>
@@ -9931,37 +9731,33 @@
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>aspect:reference_number_cycles</t>
+          <t>aspect:dynamic_strength_one_cycle</t>
         </is>
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>reference_number_cycles</t>
+          <t>dynamic_strength_one_cycle</t>
         </is>
       </c>
       <c r="C164" t="inlineStr"/>
       <c r="D164" t="inlineStr"/>
       <c r="E164" t="inlineStr">
         <is>
-          <t>Reference number of cycles for damage-equivalent load determination</t>
+          <t>Dynamic strength valid for one load cycle</t>
         </is>
       </c>
       <c r="F164" t="inlineStr">
         <is>
-          <t>Reference Number Cycles</t>
+          <t>Dynamic Strength One Cycle</t>
         </is>
       </c>
       <c r="G164" t="inlineStr"/>
-      <c r="H164" t="inlineStr">
-        <is>
-          <t>Nref</t>
-        </is>
-      </c>
+      <c r="H164" t="inlineStr"/>
       <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
       <c r="K164" t="inlineStr">
         <is>
-          <t>nt1</t>
+          <t>D</t>
         </is>
       </c>
       <c r="L164" t="inlineStr"/>
@@ -9992,24 +9788,24 @@
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>aspect:resulting_number_cycles</t>
+          <t>aspect:allowed_number_cycles</t>
         </is>
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>resulting_number_cycles</t>
+          <t>allowed_number_cycles</t>
         </is>
       </c>
       <c r="C165" t="inlineStr"/>
       <c r="D165" t="inlineStr"/>
       <c r="E165" t="inlineStr">
         <is>
-          <t>Second (resulting) number of load cycles</t>
+          <t>Allowed number of load cycles</t>
         </is>
       </c>
       <c r="F165" t="inlineStr">
         <is>
-          <t>Resulting Number Cycles</t>
+          <t>Allowed Number Cycles</t>
         </is>
       </c>
       <c r="G165" t="inlineStr"/>
@@ -10018,7 +9814,7 @@
       <c r="J165" t="inlineStr"/>
       <c r="K165" t="inlineStr">
         <is>
-          <t>nt2</t>
+          <t>N</t>
         </is>
       </c>
       <c r="L165" t="inlineStr"/>
@@ -10046,6 +9842,498 @@
       <c r="Z165" t="inlineStr"/>
       <c r="AA165" t="inlineStr"/>
     </row>
+    <row r="166">
+      <c r="A166" t="inlineStr">
+        <is>
+          <t>aspect:load_range_test</t>
+        </is>
+      </c>
+      <c r="B166" t="inlineStr">
+        <is>
+          <t>load_range_test</t>
+        </is>
+      </c>
+      <c r="C166" t="inlineStr"/>
+      <c r="D166" t="inlineStr"/>
+      <c r="E166" t="inlineStr">
+        <is>
+          <t>Load range within a cycle loading block during the test</t>
+        </is>
+      </c>
+      <c r="F166" t="inlineStr">
+        <is>
+          <t>Load Range Test</t>
+        </is>
+      </c>
+      <c r="G166" t="inlineStr"/>
+      <c r="H166" t="inlineStr"/>
+      <c r="I166" t="inlineStr"/>
+      <c r="J166" t="inlineStr"/>
+      <c r="K166" t="inlineStr">
+        <is>
+          <t>Wt, load_width_test</t>
+        </is>
+      </c>
+      <c r="L166" t="inlineStr"/>
+      <c r="M166" t="inlineStr"/>
+      <c r="N166" t="inlineStr">
+        <is>
+          <t>N m</t>
+        </is>
+      </c>
+      <c r="O166" t="inlineStr">
+        <is>
+          <t>lbf ft</t>
+        </is>
+      </c>
+      <c r="P166" t="inlineStr"/>
+      <c r="Q166" t="inlineStr">
+        <is>
+          <t>aspect:WindTurbineBladeTerms</t>
+        </is>
+      </c>
+      <c r="R166" t="inlineStr">
+        <is>
+          <t>https://orcid.org/0000-0002-4573-1232</t>
+        </is>
+      </c>
+      <c r="S166" t="inlineStr"/>
+      <c r="T166" t="inlineStr"/>
+      <c r="U166" t="inlineStr"/>
+      <c r="V166" t="inlineStr"/>
+      <c r="W166" t="inlineStr"/>
+      <c r="X166" t="inlineStr"/>
+      <c r="Y166" t="inlineStr"/>
+      <c r="Z166" t="inlineStr"/>
+      <c r="AA166" t="inlineStr"/>
+    </row>
+    <row r="167">
+      <c r="A167" t="inlineStr">
+        <is>
+          <t>aspect:load_mean_test</t>
+        </is>
+      </c>
+      <c r="B167" t="inlineStr">
+        <is>
+          <t>load_mean_test</t>
+        </is>
+      </c>
+      <c r="C167" t="inlineStr"/>
+      <c r="D167" t="inlineStr"/>
+      <c r="E167" t="inlineStr">
+        <is>
+          <t>Load mean within a cycle loading block during the test</t>
+        </is>
+      </c>
+      <c r="F167" t="inlineStr">
+        <is>
+          <t>Load Mean Test</t>
+        </is>
+      </c>
+      <c r="G167" t="inlineStr"/>
+      <c r="H167" t="inlineStr"/>
+      <c r="I167" t="inlineStr"/>
+      <c r="J167" t="inlineStr"/>
+      <c r="K167" t="inlineStr">
+        <is>
+          <t>Mt</t>
+        </is>
+      </c>
+      <c r="L167" t="inlineStr"/>
+      <c r="M167" t="inlineStr"/>
+      <c r="N167" t="inlineStr">
+        <is>
+          <t>N m</t>
+        </is>
+      </c>
+      <c r="O167" t="inlineStr">
+        <is>
+          <t>lbf ft</t>
+        </is>
+      </c>
+      <c r="P167" t="inlineStr"/>
+      <c r="Q167" t="inlineStr">
+        <is>
+          <t>aspect:WindTurbineBladeTerms</t>
+        </is>
+      </c>
+      <c r="R167" t="inlineStr">
+        <is>
+          <t>https://orcid.org/0000-0002-4573-1232</t>
+        </is>
+      </c>
+      <c r="S167" t="inlineStr"/>
+      <c r="T167" t="inlineStr"/>
+      <c r="U167" t="inlineStr"/>
+      <c r="V167" t="inlineStr"/>
+      <c r="W167" t="inlineStr"/>
+      <c r="X167" t="inlineStr"/>
+      <c r="Y167" t="inlineStr"/>
+      <c r="Z167" t="inlineStr"/>
+      <c r="AA167" t="inlineStr"/>
+    </row>
+    <row r="168">
+      <c r="A168" t="inlineStr">
+        <is>
+          <t>aspect:load_range_calculated</t>
+        </is>
+      </c>
+      <c r="B168" t="inlineStr">
+        <is>
+          <t>load_range_calculated</t>
+        </is>
+      </c>
+      <c r="C168" t="inlineStr"/>
+      <c r="D168" t="inlineStr"/>
+      <c r="E168" t="inlineStr">
+        <is>
+          <t>Calculated load range within a cycle loading block</t>
+        </is>
+      </c>
+      <c r="F168" t="inlineStr">
+        <is>
+          <t>Load Range Calculated</t>
+        </is>
+      </c>
+      <c r="G168" t="inlineStr"/>
+      <c r="H168" t="inlineStr"/>
+      <c r="I168" t="inlineStr"/>
+      <c r="J168" t="inlineStr"/>
+      <c r="K168" t="inlineStr">
+        <is>
+          <t>W0, load_width_calculated</t>
+        </is>
+      </c>
+      <c r="L168" t="inlineStr"/>
+      <c r="M168" t="inlineStr"/>
+      <c r="N168" t="inlineStr">
+        <is>
+          <t>N m</t>
+        </is>
+      </c>
+      <c r="O168" t="inlineStr">
+        <is>
+          <t>lbf ft</t>
+        </is>
+      </c>
+      <c r="P168" t="inlineStr"/>
+      <c r="Q168" t="inlineStr">
+        <is>
+          <t>aspect:WindTurbineBladeTerms</t>
+        </is>
+      </c>
+      <c r="R168" t="inlineStr">
+        <is>
+          <t>https://orcid.org/0000-0002-4573-1232</t>
+        </is>
+      </c>
+      <c r="S168" t="inlineStr"/>
+      <c r="T168" t="inlineStr"/>
+      <c r="U168" t="inlineStr"/>
+      <c r="V168" t="inlineStr"/>
+      <c r="W168" t="inlineStr"/>
+      <c r="X168" t="inlineStr"/>
+      <c r="Y168" t="inlineStr"/>
+      <c r="Z168" t="inlineStr"/>
+      <c r="AA168" t="inlineStr"/>
+    </row>
+    <row r="169">
+      <c r="A169" t="inlineStr">
+        <is>
+          <t>aspect:load_mean_calculated</t>
+        </is>
+      </c>
+      <c r="B169" t="inlineStr">
+        <is>
+          <t>load_mean_calculated</t>
+        </is>
+      </c>
+      <c r="C169" t="inlineStr"/>
+      <c r="D169" t="inlineStr"/>
+      <c r="E169" t="inlineStr">
+        <is>
+          <t>Calculated load mean within a cycle loading block</t>
+        </is>
+      </c>
+      <c r="F169" t="inlineStr">
+        <is>
+          <t>Load Mean Calculated</t>
+        </is>
+      </c>
+      <c r="G169" t="inlineStr"/>
+      <c r="H169" t="inlineStr"/>
+      <c r="I169" t="inlineStr"/>
+      <c r="J169" t="inlineStr"/>
+      <c r="K169" t="inlineStr">
+        <is>
+          <t>M0</t>
+        </is>
+      </c>
+      <c r="L169" t="inlineStr"/>
+      <c r="M169" t="inlineStr"/>
+      <c r="N169" t="inlineStr">
+        <is>
+          <t>N m</t>
+        </is>
+      </c>
+      <c r="O169" t="inlineStr">
+        <is>
+          <t>lbf ft</t>
+        </is>
+      </c>
+      <c r="P169" t="inlineStr"/>
+      <c r="Q169" t="inlineStr">
+        <is>
+          <t>aspect:WindTurbineBladeTerms</t>
+        </is>
+      </c>
+      <c r="R169" t="inlineStr">
+        <is>
+          <t>https://orcid.org/0000-0002-4573-1232</t>
+        </is>
+      </c>
+      <c r="S169" t="inlineStr"/>
+      <c r="T169" t="inlineStr"/>
+      <c r="U169" t="inlineStr"/>
+      <c r="V169" t="inlineStr"/>
+      <c r="W169" t="inlineStr"/>
+      <c r="X169" t="inlineStr"/>
+      <c r="Y169" t="inlineStr"/>
+      <c r="Z169" t="inlineStr"/>
+      <c r="AA169" t="inlineStr"/>
+    </row>
+    <row r="170">
+      <c r="A170" t="inlineStr">
+        <is>
+          <t>aspect:test_load_factor</t>
+        </is>
+      </c>
+      <c r="B170" t="inlineStr">
+        <is>
+          <t>test_load_factor</t>
+        </is>
+      </c>
+      <c r="C170" t="inlineStr"/>
+      <c r="D170" t="inlineStr"/>
+      <c r="E170" t="inlineStr">
+        <is>
+          <t>Test load factor</t>
+        </is>
+      </c>
+      <c r="F170" t="inlineStr">
+        <is>
+          <t>Test Load Factor</t>
+        </is>
+      </c>
+      <c r="G170" t="inlineStr"/>
+      <c r="H170" t="inlineStr"/>
+      <c r="I170" t="inlineStr"/>
+      <c r="J170" t="inlineStr"/>
+      <c r="K170" t="inlineStr">
+        <is>
+          <t>gamma_test</t>
+        </is>
+      </c>
+      <c r="L170" t="inlineStr"/>
+      <c r="M170" t="inlineStr"/>
+      <c r="N170" t="inlineStr"/>
+      <c r="O170" t="inlineStr"/>
+      <c r="P170" t="inlineStr"/>
+      <c r="Q170" t="inlineStr">
+        <is>
+          <t>aspect:WindTurbineBladeTerms</t>
+        </is>
+      </c>
+      <c r="R170" t="inlineStr">
+        <is>
+          <t>https://orcid.org/0000-0002-4573-1232</t>
+        </is>
+      </c>
+      <c r="S170" t="inlineStr"/>
+      <c r="T170" t="inlineStr"/>
+      <c r="U170" t="inlineStr"/>
+      <c r="V170" t="inlineStr"/>
+      <c r="W170" t="inlineStr"/>
+      <c r="X170" t="inlineStr"/>
+      <c r="Y170" t="inlineStr"/>
+      <c r="Z170" t="inlineStr"/>
+      <c r="AA170" t="inlineStr"/>
+    </row>
+    <row r="171">
+      <c r="A171" t="inlineStr">
+        <is>
+          <t>aspect:relative_effect_change_number_cycles</t>
+        </is>
+      </c>
+      <c r="B171" t="inlineStr">
+        <is>
+          <t>relative_effect_change_number_cycles</t>
+        </is>
+      </c>
+      <c r="C171" t="inlineStr"/>
+      <c r="D171" t="inlineStr"/>
+      <c r="E171" t="inlineStr">
+        <is>
+          <t>Relative effect of changing from one number of load cycles (nt1) to another (nt2)</t>
+        </is>
+      </c>
+      <c r="F171" t="inlineStr">
+        <is>
+          <t>Relative Effect Change Number Cycles</t>
+        </is>
+      </c>
+      <c r="G171" t="inlineStr"/>
+      <c r="H171" t="inlineStr"/>
+      <c r="I171" t="inlineStr"/>
+      <c r="J171" t="inlineStr"/>
+      <c r="K171" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="L171" t="inlineStr"/>
+      <c r="M171" t="inlineStr"/>
+      <c r="N171" t="inlineStr"/>
+      <c r="O171" t="inlineStr"/>
+      <c r="P171" t="inlineStr"/>
+      <c r="Q171" t="inlineStr">
+        <is>
+          <t>aspect:WindTurbineBladeTerms</t>
+        </is>
+      </c>
+      <c r="R171" t="inlineStr">
+        <is>
+          <t>https://orcid.org/0000-0002-4573-1232</t>
+        </is>
+      </c>
+      <c r="S171" t="inlineStr"/>
+      <c r="T171" t="inlineStr"/>
+      <c r="U171" t="inlineStr"/>
+      <c r="V171" t="inlineStr"/>
+      <c r="W171" t="inlineStr"/>
+      <c r="X171" t="inlineStr"/>
+      <c r="Y171" t="inlineStr"/>
+      <c r="Z171" t="inlineStr"/>
+      <c r="AA171" t="inlineStr"/>
+    </row>
+    <row r="172">
+      <c r="A172" t="inlineStr">
+        <is>
+          <t>aspect:reference_number_cycles</t>
+        </is>
+      </c>
+      <c r="B172" t="inlineStr">
+        <is>
+          <t>reference_number_cycles</t>
+        </is>
+      </c>
+      <c r="C172" t="inlineStr"/>
+      <c r="D172" t="inlineStr"/>
+      <c r="E172" t="inlineStr">
+        <is>
+          <t>Reference number of cycles for damage-equivalent load determination</t>
+        </is>
+      </c>
+      <c r="F172" t="inlineStr">
+        <is>
+          <t>Reference Number Cycles</t>
+        </is>
+      </c>
+      <c r="G172" t="inlineStr"/>
+      <c r="H172" t="inlineStr">
+        <is>
+          <t>Nref</t>
+        </is>
+      </c>
+      <c r="I172" t="inlineStr"/>
+      <c r="J172" t="inlineStr"/>
+      <c r="K172" t="inlineStr">
+        <is>
+          <t>nt1</t>
+        </is>
+      </c>
+      <c r="L172" t="inlineStr"/>
+      <c r="M172" t="inlineStr"/>
+      <c r="N172" t="inlineStr"/>
+      <c r="O172" t="inlineStr"/>
+      <c r="P172" t="inlineStr"/>
+      <c r="Q172" t="inlineStr">
+        <is>
+          <t>aspect:WindTurbineBladeTerms</t>
+        </is>
+      </c>
+      <c r="R172" t="inlineStr">
+        <is>
+          <t>https://orcid.org/0000-0002-4573-1232</t>
+        </is>
+      </c>
+      <c r="S172" t="inlineStr"/>
+      <c r="T172" t="inlineStr"/>
+      <c r="U172" t="inlineStr"/>
+      <c r="V172" t="inlineStr"/>
+      <c r="W172" t="inlineStr"/>
+      <c r="X172" t="inlineStr"/>
+      <c r="Y172" t="inlineStr"/>
+      <c r="Z172" t="inlineStr"/>
+      <c r="AA172" t="inlineStr"/>
+    </row>
+    <row r="173">
+      <c r="A173" t="inlineStr">
+        <is>
+          <t>aspect:resulting_number_cycles</t>
+        </is>
+      </c>
+      <c r="B173" t="inlineStr">
+        <is>
+          <t>resulting_number_cycles</t>
+        </is>
+      </c>
+      <c r="C173" t="inlineStr"/>
+      <c r="D173" t="inlineStr"/>
+      <c r="E173" t="inlineStr">
+        <is>
+          <t>Second (resulting) number of load cycles</t>
+        </is>
+      </c>
+      <c r="F173" t="inlineStr">
+        <is>
+          <t>Resulting Number Cycles</t>
+        </is>
+      </c>
+      <c r="G173" t="inlineStr"/>
+      <c r="H173" t="inlineStr"/>
+      <c r="I173" t="inlineStr"/>
+      <c r="J173" t="inlineStr"/>
+      <c r="K173" t="inlineStr">
+        <is>
+          <t>nt2</t>
+        </is>
+      </c>
+      <c r="L173" t="inlineStr"/>
+      <c r="M173" t="inlineStr"/>
+      <c r="N173" t="inlineStr"/>
+      <c r="O173" t="inlineStr"/>
+      <c r="P173" t="inlineStr"/>
+      <c r="Q173" t="inlineStr">
+        <is>
+          <t>aspect:WindTurbineBladeTerms</t>
+        </is>
+      </c>
+      <c r="R173" t="inlineStr">
+        <is>
+          <t>https://orcid.org/0000-0002-4573-1232</t>
+        </is>
+      </c>
+      <c r="S173" t="inlineStr"/>
+      <c r="T173" t="inlineStr"/>
+      <c r="U173" t="inlineStr"/>
+      <c r="V173" t="inlineStr"/>
+      <c r="W173" t="inlineStr"/>
+      <c r="X173" t="inlineStr"/>
+      <c r="Y173" t="inlineStr"/>
+      <c r="Z173" t="inlineStr"/>
+      <c r="AA173" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/aspect-taxonomy.xlsx
+++ b/aspect-taxonomy.xlsx
@@ -2961,7 +2961,11 @@
       <c r="N48" t="inlineStr"/>
       <c r="O48" t="inlineStr"/>
       <c r="P48" t="inlineStr"/>
-      <c r="Q48" t="inlineStr"/>
+      <c r="Q48" t="inlineStr">
+        <is>
+          <t>aspect:EnviromentalConditionTerms</t>
+        </is>
+      </c>
       <c r="R48" t="inlineStr"/>
       <c r="S48" t="inlineStr"/>
       <c r="T48" t="inlineStr"/>
